--- a/user-data/primary-school-enrolment/primary-school-enrolment.xlsx
+++ b/user-data/primary-school-enrolment/primary-school-enrolment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="455">
   <si>
     <t>id</t>
   </si>
@@ -1357,9 +1357,6 @@
     <t>Source: World Bank World Development Indicators</t>
   </si>
   <si>
-    <t>Source-link: NA</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1745,42 +1742,42 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15">
@@ -1796,11 +1793,6 @@
     <row r="17">
       <c r="A17" t="s">
         <v>454</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>455</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/primary-school-enrolment/primary-school-enrolment.xlsx
+++ b/user-data/primary-school-enrolment/primary-school-enrolment.xlsx
@@ -8,13 +8,14 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-original-value" sheetId="4" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="456">
   <si>
     <t>id</t>
   </si>
@@ -1366,7 +1367,10 @@
     <t>This data contains interpolated values. The interpolated values are typically contained in a column called 'value,' while the uninterpolated values are stored in 'original-value.'</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
+  </si>
+  <si>
+    <t>On the 'Data-wide-original-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'original-value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
@@ -1767,7 +1771,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13">
@@ -1777,22 +1781,32 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
         <v>454</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -55648,4 +55662,7970 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F1" t="s">
+        <v>432</v>
+      </c>
+      <c r="G1" t="s">
+        <v>433</v>
+      </c>
+      <c r="H1" t="s">
+        <v>434</v>
+      </c>
+      <c r="I1" t="s">
+        <v>435</v>
+      </c>
+      <c r="J1" t="s">
+        <v>436</v>
+      </c>
+      <c r="K1" t="s">
+        <v>437</v>
+      </c>
+      <c r="L1" t="s">
+        <v>438</v>
+      </c>
+      <c r="M1" t="s">
+        <v>439</v>
+      </c>
+      <c r="N1" t="s">
+        <v>440</v>
+      </c>
+      <c r="O1" t="s">
+        <v>441</v>
+      </c>
+      <c r="P1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>93.60249</v>
+      </c>
+      <c r="D3" t="n">
+        <v>93.49585</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" t="n">
+        <v>91.24935</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>87.72632</v>
+      </c>
+      <c r="D4" t="n">
+        <v>90.09191</v>
+      </c>
+      <c r="E4" t="n">
+        <v>91.51557</v>
+      </c>
+      <c r="F4" t="n">
+        <v>92.01269</v>
+      </c>
+      <c r="G4" t="n">
+        <v>92.44842</v>
+      </c>
+      <c r="H4" t="n">
+        <v>92.34169</v>
+      </c>
+      <c r="I4" t="n">
+        <v>91.84341</v>
+      </c>
+      <c r="J4" t="n">
+        <v>93.27227</v>
+      </c>
+      <c r="K4" t="n">
+        <v>94.02483</v>
+      </c>
+      <c r="L4" t="n">
+        <v>95.56563</v>
+      </c>
+      <c r="M4" t="n">
+        <v>97.29644</v>
+      </c>
+      <c r="N4" t="n">
+        <v>97.58482</v>
+      </c>
+      <c r="O4" t="n">
+        <v>97.30394</v>
+      </c>
+      <c r="P4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7" t="n">
+        <v>85.82466</v>
+      </c>
+      <c r="L7" t="n">
+        <v>86.22913</v>
+      </c>
+      <c r="M7" t="n">
+        <v>85.62074</v>
+      </c>
+      <c r="N7" t="n">
+        <v>85.66859</v>
+      </c>
+      <c r="O7"/>
+      <c r="P7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8" t="n">
+        <v>91.82146</v>
+      </c>
+      <c r="K8" t="n">
+        <v>91.98224</v>
+      </c>
+      <c r="L8" t="n">
+        <v>90.97539</v>
+      </c>
+      <c r="M8" t="n">
+        <v>88.3315</v>
+      </c>
+      <c r="N8" t="n">
+        <v>87.14524</v>
+      </c>
+      <c r="O8" t="n">
+        <v>85.27814</v>
+      </c>
+      <c r="P8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9" t="n">
+        <v>99.44452</v>
+      </c>
+      <c r="G9" t="n">
+        <v>99.17677</v>
+      </c>
+      <c r="H9" t="n">
+        <v>99.11796</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10" t="n">
+        <v>84.6713</v>
+      </c>
+      <c r="F10" t="n">
+        <v>82.79212</v>
+      </c>
+      <c r="G10" t="n">
+        <v>81.5753</v>
+      </c>
+      <c r="H10" t="n">
+        <v>80.08756</v>
+      </c>
+      <c r="I10" t="n">
+        <v>81.41265</v>
+      </c>
+      <c r="J10" t="n">
+        <v>84.11982</v>
+      </c>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="n">
+        <v>98.09809</v>
+      </c>
+      <c r="D11" t="n">
+        <v>94.52858</v>
+      </c>
+      <c r="E11" t="n">
+        <v>95.30739</v>
+      </c>
+      <c r="F11" t="n">
+        <v>93.9307</v>
+      </c>
+      <c r="G11" t="n">
+        <v>94.63489</v>
+      </c>
+      <c r="H11" t="n">
+        <v>97.80506</v>
+      </c>
+      <c r="I11" t="n">
+        <v>98.62755</v>
+      </c>
+      <c r="J11" t="n">
+        <v>98.87245</v>
+      </c>
+      <c r="K11" t="n">
+        <v>99.0693</v>
+      </c>
+      <c r="L11" t="n">
+        <v>95.86957</v>
+      </c>
+      <c r="M11" t="n">
+        <v>98.93223</v>
+      </c>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="n">
+        <v>94.06639</v>
+      </c>
+      <c r="D12" t="n">
+        <v>93.9205</v>
+      </c>
+      <c r="E12" t="n">
+        <v>94.37601</v>
+      </c>
+      <c r="F12" t="n">
+        <v>94.25448</v>
+      </c>
+      <c r="G12" t="n">
+        <v>94.38939</v>
+      </c>
+      <c r="H12" t="n">
+        <v>94.51106</v>
+      </c>
+      <c r="I12" t="n">
+        <v>94.63293</v>
+      </c>
+      <c r="J12" t="n">
+        <v>96.12533</v>
+      </c>
+      <c r="K12" t="n">
+        <v>96.27088</v>
+      </c>
+      <c r="L12" t="n">
+        <v>96.48526</v>
+      </c>
+      <c r="M12" t="n">
+        <v>96.49082</v>
+      </c>
+      <c r="N12" t="n">
+        <v>96.39565</v>
+      </c>
+      <c r="O12" t="n">
+        <v>96.82237</v>
+      </c>
+      <c r="P12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="n">
+        <v>88.23962</v>
+      </c>
+      <c r="D14" t="n">
+        <v>85.38303</v>
+      </c>
+      <c r="E14" t="n">
+        <v>84.82565</v>
+      </c>
+      <c r="F14" t="n">
+        <v>83.28454</v>
+      </c>
+      <c r="G14" t="n">
+        <v>84.21228</v>
+      </c>
+      <c r="H14" t="n">
+        <v>83.86862</v>
+      </c>
+      <c r="I14" t="n">
+        <v>83.15377</v>
+      </c>
+      <c r="J14" t="n">
+        <v>83.3748</v>
+      </c>
+      <c r="K14" t="n">
+        <v>83.88997</v>
+      </c>
+      <c r="L14" t="n">
+        <v>85.17391</v>
+      </c>
+      <c r="M14" t="n">
+        <v>84.44645</v>
+      </c>
+      <c r="N14" t="n">
+        <v>86.61261</v>
+      </c>
+      <c r="O14" t="n">
+        <v>89.09406</v>
+      </c>
+      <c r="P14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15" t="n">
+        <v>94.04587</v>
+      </c>
+      <c r="H15" t="n">
+        <v>98.33747</v>
+      </c>
+      <c r="I15" t="n">
+        <v>96.71668</v>
+      </c>
+      <c r="J15" t="n">
+        <v>98.27287</v>
+      </c>
+      <c r="K15" t="n">
+        <v>98.30165</v>
+      </c>
+      <c r="L15" t="n">
+        <v>95.92434</v>
+      </c>
+      <c r="M15" t="n">
+        <v>97.50965</v>
+      </c>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17" t="n">
+        <v>91.77674</v>
+      </c>
+      <c r="I17" t="n">
+        <v>92.85393</v>
+      </c>
+      <c r="J17"/>
+      <c r="K17" t="n">
+        <v>90.75371</v>
+      </c>
+      <c r="L17" t="n">
+        <v>91.8449</v>
+      </c>
+      <c r="M17" t="n">
+        <v>91.54676</v>
+      </c>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="n">
+        <v>94.67146</v>
+      </c>
+      <c r="D18" t="n">
+        <v>93.93175</v>
+      </c>
+      <c r="E18" t="n">
+        <v>92.64804</v>
+      </c>
+      <c r="F18" t="n">
+        <v>92.18315</v>
+      </c>
+      <c r="G18" t="n">
+        <v>91.1737</v>
+      </c>
+      <c r="H18" t="n">
+        <v>91.38444</v>
+      </c>
+      <c r="I18" t="n">
+        <v>93.58848</v>
+      </c>
+      <c r="J18" t="n">
+        <v>93.43911</v>
+      </c>
+      <c r="K18" t="n">
+        <v>95.11529</v>
+      </c>
+      <c r="L18" t="n">
+        <v>94.15619</v>
+      </c>
+      <c r="M18" t="n">
+        <v>96.01608</v>
+      </c>
+      <c r="N18" t="n">
+        <v>97.08432</v>
+      </c>
+      <c r="O18"/>
+      <c r="P18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19" t="n">
+        <v>95.15734</v>
+      </c>
+      <c r="E19" t="n">
+        <v>92.56681</v>
+      </c>
+      <c r="F19" t="n">
+        <v>93.13067</v>
+      </c>
+      <c r="G19" t="n">
+        <v>91.59362</v>
+      </c>
+      <c r="H19" t="n">
+        <v>89.63751</v>
+      </c>
+      <c r="I19" t="n">
+        <v>89.71772</v>
+      </c>
+      <c r="J19" t="n">
+        <v>89.59021</v>
+      </c>
+      <c r="K19"/>
+      <c r="L19" t="n">
+        <v>91.53046</v>
+      </c>
+      <c r="M19" t="n">
+        <v>91.06437</v>
+      </c>
+      <c r="N19" t="n">
+        <v>90.70009</v>
+      </c>
+      <c r="O19" t="n">
+        <v>93.9968</v>
+      </c>
+      <c r="P19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="n">
+        <v>99.05609</v>
+      </c>
+      <c r="D20" t="n">
+        <v>99.11144</v>
+      </c>
+      <c r="E20" t="n">
+        <v>98.87255</v>
+      </c>
+      <c r="F20" t="n">
+        <v>98.09417</v>
+      </c>
+      <c r="G20" t="n">
+        <v>96.68327</v>
+      </c>
+      <c r="H20" t="n">
+        <v>96.54529</v>
+      </c>
+      <c r="I20" t="n">
+        <v>97.10411</v>
+      </c>
+      <c r="J20" t="n">
+        <v>98.43851</v>
+      </c>
+      <c r="K20" t="n">
+        <v>98.82732</v>
+      </c>
+      <c r="L20" t="n">
+        <v>98.84523</v>
+      </c>
+      <c r="M20" t="n">
+        <v>98.8585</v>
+      </c>
+      <c r="N20" t="n">
+        <v>98.83199</v>
+      </c>
+      <c r="O20" t="n">
+        <v>98.74196</v>
+      </c>
+      <c r="P20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="n">
+        <v>97.82336</v>
+      </c>
+      <c r="D21" t="n">
+        <v>96.92098</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21" t="n">
+        <v>97.18139</v>
+      </c>
+      <c r="G21" t="n">
+        <v>96.42387</v>
+      </c>
+      <c r="H21" t="n">
+        <v>95.95381</v>
+      </c>
+      <c r="I21" t="n">
+        <v>97.09345</v>
+      </c>
+      <c r="J21" t="n">
+        <v>97.02732</v>
+      </c>
+      <c r="K21" t="n">
+        <v>97.14605</v>
+      </c>
+      <c r="L21" t="n">
+        <v>97.3144</v>
+      </c>
+      <c r="M21" t="n">
+        <v>96.41951</v>
+      </c>
+      <c r="N21" t="n">
+        <v>97.20092</v>
+      </c>
+      <c r="O21" t="n">
+        <v>96.23903</v>
+      </c>
+      <c r="P21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22" t="n">
+        <v>81.78143</v>
+      </c>
+      <c r="G22" t="n">
+        <v>84.87414</v>
+      </c>
+      <c r="H22" t="n">
+        <v>80.06114</v>
+      </c>
+      <c r="I22" t="n">
+        <v>82.5793</v>
+      </c>
+      <c r="J22"/>
+      <c r="K22" t="n">
+        <v>87.62403</v>
+      </c>
+      <c r="L22" t="n">
+        <v>93.31305</v>
+      </c>
+      <c r="M22" t="n">
+        <v>94.12085</v>
+      </c>
+      <c r="N22" t="n">
+        <v>94.06145</v>
+      </c>
+      <c r="O22" t="n">
+        <v>94.86314</v>
+      </c>
+      <c r="P22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23" t="n">
+        <v>97.11044</v>
+      </c>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23" t="n">
+        <v>88.32267</v>
+      </c>
+      <c r="N23" t="n">
+        <v>85.34821</v>
+      </c>
+      <c r="O23"/>
+      <c r="P23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="n">
+        <v>58.83873</v>
+      </c>
+      <c r="D24" t="n">
+        <v>62.29964</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24" t="n">
+        <v>72.57482</v>
+      </c>
+      <c r="I24" t="n">
+        <v>76.398</v>
+      </c>
+      <c r="J24"/>
+      <c r="K24" t="n">
+        <v>81.7653</v>
+      </c>
+      <c r="L24" t="n">
+        <v>86.25793</v>
+      </c>
+      <c r="M24" t="n">
+        <v>88.09402</v>
+      </c>
+      <c r="N24" t="n">
+        <v>88.91994</v>
+      </c>
+      <c r="O24" t="n">
+        <v>90.59084</v>
+      </c>
+      <c r="P24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="n">
+        <v>92.25046</v>
+      </c>
+      <c r="D25" t="n">
+        <v>91.11952</v>
+      </c>
+      <c r="E25" t="n">
+        <v>91.82822</v>
+      </c>
+      <c r="F25" t="n">
+        <v>91.84144</v>
+      </c>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25" t="n">
+        <v>92.99794</v>
+      </c>
+      <c r="J25" t="n">
+        <v>92.07185</v>
+      </c>
+      <c r="K25" t="n">
+        <v>89.74542</v>
+      </c>
+      <c r="L25" t="n">
+        <v>88.79393</v>
+      </c>
+      <c r="M25" t="n">
+        <v>86.12152</v>
+      </c>
+      <c r="N25" t="n">
+        <v>83.4281</v>
+      </c>
+      <c r="O25"/>
+      <c r="P25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="n">
+        <v>80.67681</v>
+      </c>
+      <c r="D27" t="n">
+        <v>82.34309</v>
+      </c>
+      <c r="E27" t="n">
+        <v>82.61333</v>
+      </c>
+      <c r="F27" t="n">
+        <v>82.76313</v>
+      </c>
+      <c r="G27" t="n">
+        <v>83.622</v>
+      </c>
+      <c r="H27" t="n">
+        <v>82.95968</v>
+      </c>
+      <c r="I27" t="n">
+        <v>83.79798</v>
+      </c>
+      <c r="J27" t="n">
+        <v>83.02794</v>
+      </c>
+      <c r="K27" t="n">
+        <v>82.8759</v>
+      </c>
+      <c r="L27" t="n">
+        <v>83.82035</v>
+      </c>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29" t="n">
+        <v>92.96665</v>
+      </c>
+      <c r="L29" t="n">
+        <v>93.39813</v>
+      </c>
+      <c r="M29" t="n">
+        <v>93.20833</v>
+      </c>
+      <c r="N29" t="n">
+        <v>92.68722</v>
+      </c>
+      <c r="O29" t="n">
+        <v>91.66053</v>
+      </c>
+      <c r="P29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="n">
+        <v>96.07356</v>
+      </c>
+      <c r="D30" t="n">
+        <v>96.74629</v>
+      </c>
+      <c r="E30" t="n">
+        <v>95.40847</v>
+      </c>
+      <c r="F30" t="n">
+        <v>95.4381</v>
+      </c>
+      <c r="G30" t="n">
+        <v>95.46352</v>
+      </c>
+      <c r="H30" t="n">
+        <v>92.22877</v>
+      </c>
+      <c r="I30" t="n">
+        <v>90.80375</v>
+      </c>
+      <c r="J30" t="n">
+        <v>93.99776</v>
+      </c>
+      <c r="K30" t="n">
+        <v>96.05488</v>
+      </c>
+      <c r="L30" t="n">
+        <v>97.52846</v>
+      </c>
+      <c r="M30" t="n">
+        <v>97.85106</v>
+      </c>
+      <c r="N30" t="n">
+        <v>96.53998</v>
+      </c>
+      <c r="O30" t="n">
+        <v>94.9619</v>
+      </c>
+      <c r="P30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="n">
+        <v>36.33498</v>
+      </c>
+      <c r="D31" t="n">
+        <v>37.26344</v>
+      </c>
+      <c r="E31" t="n">
+        <v>36.71742</v>
+      </c>
+      <c r="F31" t="n">
+        <v>38.64454</v>
+      </c>
+      <c r="G31" t="n">
+        <v>41.14093</v>
+      </c>
+      <c r="H31" t="n">
+        <v>45.74236</v>
+      </c>
+      <c r="I31" t="n">
+        <v>48.74735</v>
+      </c>
+      <c r="J31" t="n">
+        <v>54.02702</v>
+      </c>
+      <c r="K31" t="n">
+        <v>59.97297</v>
+      </c>
+      <c r="L31" t="n">
+        <v>62.84631</v>
+      </c>
+      <c r="M31" t="n">
+        <v>60.17509</v>
+      </c>
+      <c r="N31" t="n">
+        <v>65.40284</v>
+      </c>
+      <c r="O31" t="n">
+        <v>66.36425</v>
+      </c>
+      <c r="P31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="n">
+        <v>40.68337</v>
+      </c>
+      <c r="D32" t="n">
+        <v>49.42634</v>
+      </c>
+      <c r="E32" t="n">
+        <v>48.84553</v>
+      </c>
+      <c r="F32" t="n">
+        <v>52.32153</v>
+      </c>
+      <c r="G32" t="n">
+        <v>53.92554</v>
+      </c>
+      <c r="H32" t="n">
+        <v>57.10296</v>
+      </c>
+      <c r="I32" t="n">
+        <v>73.54992</v>
+      </c>
+      <c r="J32" t="n">
+        <v>80.62894</v>
+      </c>
+      <c r="K32" t="n">
+        <v>90.83214</v>
+      </c>
+      <c r="L32" t="n">
+        <v>88.9773</v>
+      </c>
+      <c r="M32" t="n">
+        <v>93.95085</v>
+      </c>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="n">
+        <v>58.25738</v>
+      </c>
+      <c r="D33" t="n">
+        <v>62.86219</v>
+      </c>
+      <c r="E33" t="n">
+        <v>63.35843</v>
+      </c>
+      <c r="F33" t="n">
+        <v>60.05406</v>
+      </c>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33" t="n">
+        <v>61.85739</v>
+      </c>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="n">
+        <v>91.96241</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34" t="n">
+        <v>97.35303</v>
+      </c>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34" t="n">
+        <v>98.27808</v>
+      </c>
+      <c r="J34" t="n">
+        <v>98.31492</v>
+      </c>
+      <c r="K34" t="n">
+        <v>98.1952</v>
+      </c>
+      <c r="L34"/>
+      <c r="M34" t="n">
+        <v>98.19342</v>
+      </c>
+      <c r="N34" t="n">
+        <v>98.28255</v>
+      </c>
+      <c r="O34" t="n">
+        <v>98.38292</v>
+      </c>
+      <c r="P34"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35" t="n">
+        <v>80.83794</v>
+      </c>
+      <c r="L35" t="n">
+        <v>83.53246</v>
+      </c>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35" t="n">
+        <v>91.52662</v>
+      </c>
+      <c r="P35"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="n">
+        <v>99.92271</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" t="n">
+        <v>98.98001</v>
+      </c>
+      <c r="D37" t="n">
+        <v>98.92341</v>
+      </c>
+      <c r="E37" t="n">
+        <v>98.31639</v>
+      </c>
+      <c r="F37" t="n">
+        <v>98.05741</v>
+      </c>
+      <c r="G37" t="n">
+        <v>96.4574</v>
+      </c>
+      <c r="H37" t="n">
+        <v>95.32889</v>
+      </c>
+      <c r="I37" t="n">
+        <v>94.32571</v>
+      </c>
+      <c r="J37" t="n">
+        <v>93.31173</v>
+      </c>
+      <c r="K37" t="n">
+        <v>92.91988</v>
+      </c>
+      <c r="L37" t="n">
+        <v>93.47367</v>
+      </c>
+      <c r="M37" t="n">
+        <v>94.48524</v>
+      </c>
+      <c r="N37" t="n">
+        <v>95.36997</v>
+      </c>
+      <c r="O37" t="n">
+        <v>97.16424</v>
+      </c>
+      <c r="P37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38" t="n">
+        <v>49.48069</v>
+      </c>
+      <c r="I38" t="n">
+        <v>49.81202</v>
+      </c>
+      <c r="J38" t="n">
+        <v>58.44265</v>
+      </c>
+      <c r="K38" t="n">
+        <v>67.80253</v>
+      </c>
+      <c r="L38" t="n">
+        <v>68.32898</v>
+      </c>
+      <c r="M38" t="n">
+        <v>70.77495</v>
+      </c>
+      <c r="N38" t="n">
+        <v>68.7282</v>
+      </c>
+      <c r="O38" t="n">
+        <v>71.87684</v>
+      </c>
+      <c r="P38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="n">
+        <v>94.37348</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" t="n">
+        <v>51.62139</v>
+      </c>
+      <c r="D40" t="n">
+        <v>52.8479</v>
+      </c>
+      <c r="E40" t="n">
+        <v>56.25016</v>
+      </c>
+      <c r="F40" t="n">
+        <v>57.75562</v>
+      </c>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40" t="n">
+        <v>63.05698</v>
+      </c>
+      <c r="O40"/>
+      <c r="P40"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41" t="n">
+        <v>94.77564</v>
+      </c>
+      <c r="K41" t="n">
+        <v>95.19827</v>
+      </c>
+      <c r="L41" t="n">
+        <v>93.28308</v>
+      </c>
+      <c r="M41" t="n">
+        <v>94.06249</v>
+      </c>
+      <c r="N41" t="n">
+        <v>93.05685</v>
+      </c>
+      <c r="O41" t="n">
+        <v>92.65345</v>
+      </c>
+      <c r="P41"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" t="n">
+        <v>93.59526</v>
+      </c>
+      <c r="D43" t="n">
+        <v>91.86605</v>
+      </c>
+      <c r="E43" t="n">
+        <v>92.68469</v>
+      </c>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43" t="n">
+        <v>92.7659</v>
+      </c>
+      <c r="I43" t="n">
+        <v>91.38509</v>
+      </c>
+      <c r="J43" t="n">
+        <v>90.09421</v>
+      </c>
+      <c r="K43" t="n">
+        <v>89.80885</v>
+      </c>
+      <c r="L43" t="n">
+        <v>89.36882</v>
+      </c>
+      <c r="M43" t="n">
+        <v>87.72414</v>
+      </c>
+      <c r="N43" t="n">
+        <v>86.74964</v>
+      </c>
+      <c r="O43" t="n">
+        <v>83.8614</v>
+      </c>
+      <c r="P43"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="n">
+        <v>76.38125</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44" t="n">
+        <v>83.33229</v>
+      </c>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45" t="n">
+        <v>52.65096</v>
+      </c>
+      <c r="I45" t="n">
+        <v>56.08426</v>
+      </c>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45" t="n">
+        <v>87.83214</v>
+      </c>
+      <c r="N45"/>
+      <c r="O45" t="n">
+        <v>90.17036</v>
+      </c>
+      <c r="P45"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46" t="n">
+        <v>94.05556</v>
+      </c>
+      <c r="O46" t="n">
+        <v>91.97587</v>
+      </c>
+      <c r="P46"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="n">
+        <v>87.37778</v>
+      </c>
+      <c r="D47" t="n">
+        <v>88.12113</v>
+      </c>
+      <c r="E47" t="n">
+        <v>89.05983</v>
+      </c>
+      <c r="F47" t="n">
+        <v>89.89388</v>
+      </c>
+      <c r="G47"/>
+      <c r="H47" t="n">
+        <v>90.54895</v>
+      </c>
+      <c r="I47" t="n">
+        <v>90.24219</v>
+      </c>
+      <c r="J47" t="n">
+        <v>89.95655</v>
+      </c>
+      <c r="K47" t="n">
+        <v>87.32171</v>
+      </c>
+      <c r="L47" t="n">
+        <v>85.84232</v>
+      </c>
+      <c r="M47" t="n">
+        <v>86.21898</v>
+      </c>
+      <c r="N47" t="n">
+        <v>88.43421</v>
+      </c>
+      <c r="O47" t="n">
+        <v>89.31544</v>
+      </c>
+      <c r="P47"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" t="n">
+        <v>96.33338</v>
+      </c>
+      <c r="D48" t="n">
+        <v>95.80848</v>
+      </c>
+      <c r="E48" t="n">
+        <v>95.29297</v>
+      </c>
+      <c r="F48" t="n">
+        <v>93.47101</v>
+      </c>
+      <c r="G48" t="n">
+        <v>94.00518</v>
+      </c>
+      <c r="H48" t="n">
+        <v>94.51924</v>
+      </c>
+      <c r="I48" t="n">
+        <v>95.6209</v>
+      </c>
+      <c r="J48" t="n">
+        <v>98.01644</v>
+      </c>
+      <c r="K48" t="n">
+        <v>98.59569</v>
+      </c>
+      <c r="L48" t="n">
+        <v>99.12646</v>
+      </c>
+      <c r="M48" t="n">
+        <v>99.22069</v>
+      </c>
+      <c r="N48" t="n">
+        <v>97.99492</v>
+      </c>
+      <c r="O48" t="n">
+        <v>96.35661</v>
+      </c>
+      <c r="P48"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" t="n">
+        <v>95.31862</v>
+      </c>
+      <c r="D50" t="n">
+        <v>94.96985</v>
+      </c>
+      <c r="E50" t="n">
+        <v>95.94279</v>
+      </c>
+      <c r="F50" t="n">
+        <v>96.14328</v>
+      </c>
+      <c r="G50" t="n">
+        <v>96.11749</v>
+      </c>
+      <c r="H50" t="n">
+        <v>99.34591</v>
+      </c>
+      <c r="I50" t="n">
+        <v>99.21867</v>
+      </c>
+      <c r="J50" t="n">
+        <v>99.04305</v>
+      </c>
+      <c r="K50" t="n">
+        <v>98.70243</v>
+      </c>
+      <c r="L50" t="n">
+        <v>98.74389</v>
+      </c>
+      <c r="M50" t="n">
+        <v>98.96982</v>
+      </c>
+      <c r="N50" t="n">
+        <v>98.719</v>
+      </c>
+      <c r="O50" t="n">
+        <v>97.9124</v>
+      </c>
+      <c r="P50"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" t="n">
+        <v>97.44776</v>
+      </c>
+      <c r="D52" t="n">
+        <v>99.83136</v>
+      </c>
+      <c r="E52" t="n">
+        <v>99.87061</v>
+      </c>
+      <c r="F52"/>
+      <c r="G52" t="n">
+        <v>97.82895</v>
+      </c>
+      <c r="H52" t="n">
+        <v>95.74394</v>
+      </c>
+      <c r="I52" t="n">
+        <v>96.04735</v>
+      </c>
+      <c r="J52" t="n">
+        <v>96.59795</v>
+      </c>
+      <c r="K52" t="n">
+        <v>95.96239</v>
+      </c>
+      <c r="L52" t="n">
+        <v>95.96675</v>
+      </c>
+      <c r="M52" t="n">
+        <v>95.86895</v>
+      </c>
+      <c r="N52" t="n">
+        <v>97.50117</v>
+      </c>
+      <c r="O52" t="n">
+        <v>97.86887</v>
+      </c>
+      <c r="P52"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" t="n">
+        <v>25.4528</v>
+      </c>
+      <c r="D53" t="n">
+        <v>27.82862</v>
+      </c>
+      <c r="E53" t="n">
+        <v>29.34272</v>
+      </c>
+      <c r="F53"/>
+      <c r="G53" t="n">
+        <v>33.7334</v>
+      </c>
+      <c r="H53" t="n">
+        <v>36.09895</v>
+      </c>
+      <c r="I53" t="n">
+        <v>40.55343</v>
+      </c>
+      <c r="J53" t="n">
+        <v>44.01598</v>
+      </c>
+      <c r="K53" t="n">
+        <v>50.89545</v>
+      </c>
+      <c r="L53" t="n">
+        <v>50.43909</v>
+      </c>
+      <c r="M53"/>
+      <c r="N53" t="n">
+        <v>58.96815</v>
+      </c>
+      <c r="O53"/>
+      <c r="P53" t="n">
+        <v>57.83589</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" t="n">
+        <v>94.84797</v>
+      </c>
+      <c r="D54" t="n">
+        <v>94.12612</v>
+      </c>
+      <c r="E54" t="n">
+        <v>94.99783</v>
+      </c>
+      <c r="F54" t="n">
+        <v>93.66735</v>
+      </c>
+      <c r="G54" t="n">
+        <v>92.13335</v>
+      </c>
+      <c r="H54" t="n">
+        <v>90.65066</v>
+      </c>
+      <c r="I54" t="n">
+        <v>88.47678</v>
+      </c>
+      <c r="J54" t="n">
+        <v>89.25153</v>
+      </c>
+      <c r="K54" t="n">
+        <v>89.67437</v>
+      </c>
+      <c r="L54" t="n">
+        <v>92.95076</v>
+      </c>
+      <c r="M54" t="n">
+        <v>91.78279</v>
+      </c>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" t="n">
+        <v>82.60039</v>
+      </c>
+      <c r="D55"/>
+      <c r="E55" t="n">
+        <v>87.93901</v>
+      </c>
+      <c r="F55" t="n">
+        <v>86.64465</v>
+      </c>
+      <c r="G55" t="n">
+        <v>80.03934</v>
+      </c>
+      <c r="H55" t="n">
+        <v>81.65457</v>
+      </c>
+      <c r="I55" t="n">
+        <v>79.6114</v>
+      </c>
+      <c r="J55" t="n">
+        <v>85.71156</v>
+      </c>
+      <c r="K55" t="n">
+        <v>82.168</v>
+      </c>
+      <c r="L55" t="n">
+        <v>88.76408</v>
+      </c>
+      <c r="M55" t="n">
+        <v>88.95049</v>
+      </c>
+      <c r="N55" t="n">
+        <v>88.20234</v>
+      </c>
+      <c r="O55" t="n">
+        <v>86.53122</v>
+      </c>
+      <c r="P55"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" t="n">
+        <v>96.82761</v>
+      </c>
+      <c r="D57" t="n">
+        <v>97.74637</v>
+      </c>
+      <c r="E57" t="n">
+        <v>97.62857</v>
+      </c>
+      <c r="F57" t="n">
+        <v>97.22864</v>
+      </c>
+      <c r="G57" t="n">
+        <v>97.75542</v>
+      </c>
+      <c r="H57" t="n">
+        <v>97.40522</v>
+      </c>
+      <c r="I57" t="n">
+        <v>96.858</v>
+      </c>
+      <c r="J57" t="n">
+        <v>96.96982</v>
+      </c>
+      <c r="K57"/>
+      <c r="L57" t="n">
+        <v>97.03555</v>
+      </c>
+      <c r="M57" t="n">
+        <v>95.3274</v>
+      </c>
+      <c r="N57" t="n">
+        <v>95.36053</v>
+      </c>
+      <c r="O57" t="n">
+        <v>95.1516</v>
+      </c>
+      <c r="P57"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" t="n">
+        <v>93.59058</v>
+      </c>
+      <c r="D58" t="n">
+        <v>94.97632</v>
+      </c>
+      <c r="E58" t="n">
+        <v>95.49412</v>
+      </c>
+      <c r="F58" t="n">
+        <v>96.05709</v>
+      </c>
+      <c r="G58" t="n">
+        <v>96.89684</v>
+      </c>
+      <c r="H58" t="n">
+        <v>93.85045</v>
+      </c>
+      <c r="I58" t="n">
+        <v>95.69524</v>
+      </c>
+      <c r="J58" t="n">
+        <v>95.90253</v>
+      </c>
+      <c r="K58"/>
+      <c r="L58" t="n">
+        <v>95.9611</v>
+      </c>
+      <c r="M58"/>
+      <c r="N58" t="n">
+        <v>95.10083</v>
+      </c>
+      <c r="O58"/>
+      <c r="P58"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" t="n">
+        <v>83.00577</v>
+      </c>
+      <c r="D59" t="n">
+        <v>84.01518</v>
+      </c>
+      <c r="E59" t="n">
+        <v>86.03739</v>
+      </c>
+      <c r="F59" t="n">
+        <v>88.34323</v>
+      </c>
+      <c r="G59"/>
+      <c r="H59" t="n">
+        <v>92.40983</v>
+      </c>
+      <c r="I59" t="n">
+        <v>92.7887</v>
+      </c>
+      <c r="J59" t="n">
+        <v>92.48322</v>
+      </c>
+      <c r="K59" t="n">
+        <v>92.44335</v>
+      </c>
+      <c r="L59" t="n">
+        <v>92.29074</v>
+      </c>
+      <c r="M59" t="n">
+        <v>93.01815</v>
+      </c>
+      <c r="N59" t="n">
+        <v>93.55661</v>
+      </c>
+      <c r="O59" t="n">
+        <v>93.40233</v>
+      </c>
+      <c r="P59"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" t="n">
+        <v>68.02352</v>
+      </c>
+      <c r="D60" t="n">
+        <v>75.71468</v>
+      </c>
+      <c r="E60" t="n">
+        <v>74.03042</v>
+      </c>
+      <c r="F60" t="n">
+        <v>70.71533</v>
+      </c>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60" t="n">
+        <v>56.13765</v>
+      </c>
+      <c r="L60" t="n">
+        <v>56.11184</v>
+      </c>
+      <c r="M60" t="n">
+        <v>56.56905</v>
+      </c>
+      <c r="N60" t="n">
+        <v>58.12187</v>
+      </c>
+      <c r="O60" t="n">
+        <v>60.98963</v>
+      </c>
+      <c r="P60"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" t="n">
+        <v>33.21482</v>
+      </c>
+      <c r="D61" t="n">
+        <v>34.47675</v>
+      </c>
+      <c r="E61" t="n">
+        <v>38.35784</v>
+      </c>
+      <c r="F61" t="n">
+        <v>41.82392</v>
+      </c>
+      <c r="G61" t="n">
+        <v>43.43197</v>
+      </c>
+      <c r="H61" t="n">
+        <v>44.11992</v>
+      </c>
+      <c r="I61" t="n">
+        <v>42.88267</v>
+      </c>
+      <c r="J61" t="n">
+        <v>38.39556</v>
+      </c>
+      <c r="K61" t="n">
+        <v>35.13635</v>
+      </c>
+      <c r="L61" t="n">
+        <v>32.20953</v>
+      </c>
+      <c r="M61" t="n">
+        <v>29.96262</v>
+      </c>
+      <c r="N61" t="n">
+        <v>31.67897</v>
+      </c>
+      <c r="O61" t="n">
+        <v>32.94291</v>
+      </c>
+      <c r="P61"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" t="n">
+        <v>96.44798</v>
+      </c>
+      <c r="D62" t="n">
+        <v>96.72576</v>
+      </c>
+      <c r="E62" t="n">
+        <v>96.95833</v>
+      </c>
+      <c r="F62" t="n">
+        <v>94.77421</v>
+      </c>
+      <c r="G62" t="n">
+        <v>95.13041</v>
+      </c>
+      <c r="H62" t="n">
+        <v>95.05194</v>
+      </c>
+      <c r="I62" t="n">
+        <v>94.22226</v>
+      </c>
+      <c r="J62" t="n">
+        <v>93.76598</v>
+      </c>
+      <c r="K62" t="n">
+        <v>94.48389</v>
+      </c>
+      <c r="L62" t="n">
+        <v>94.30815</v>
+      </c>
+      <c r="M62" t="n">
+        <v>94.83834</v>
+      </c>
+      <c r="N62" t="n">
+        <v>94.16758</v>
+      </c>
+      <c r="O62" t="n">
+        <v>94.68823</v>
+      </c>
+      <c r="P62"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" t="n">
+        <v>40.30041</v>
+      </c>
+      <c r="D63" t="n">
+        <v>44.0084</v>
+      </c>
+      <c r="E63" t="n">
+        <v>46.06343</v>
+      </c>
+      <c r="F63" t="n">
+        <v>46.76972</v>
+      </c>
+      <c r="G63" t="n">
+        <v>49.60605</v>
+      </c>
+      <c r="H63" t="n">
+        <v>60.52637</v>
+      </c>
+      <c r="I63" t="n">
+        <v>67.93364</v>
+      </c>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" t="n">
+        <v>92.51742</v>
+      </c>
+      <c r="D65" t="n">
+        <v>95.17099</v>
+      </c>
+      <c r="E65" t="n">
+        <v>96.67234</v>
+      </c>
+      <c r="F65" t="n">
+        <v>98.79038</v>
+      </c>
+      <c r="G65" t="n">
+        <v>96.71148</v>
+      </c>
+      <c r="H65"/>
+      <c r="I65" t="n">
+        <v>95.69234</v>
+      </c>
+      <c r="J65" t="n">
+        <v>96.32578</v>
+      </c>
+      <c r="K65" t="n">
+        <v>97.12239</v>
+      </c>
+      <c r="L65" t="n">
+        <v>96.65128</v>
+      </c>
+      <c r="M65"/>
+      <c r="N65" t="n">
+        <v>96.34559</v>
+      </c>
+      <c r="O65" t="n">
+        <v>96.59455</v>
+      </c>
+      <c r="P65"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" t="n">
+        <v>99.69949</v>
+      </c>
+      <c r="D66" t="n">
+        <v>99.6181</v>
+      </c>
+      <c r="E66" t="n">
+        <v>99.3975</v>
+      </c>
+      <c r="F66" t="n">
+        <v>98.66865</v>
+      </c>
+      <c r="G66" t="n">
+        <v>97.73463</v>
+      </c>
+      <c r="H66" t="n">
+        <v>97.33035</v>
+      </c>
+      <c r="I66" t="n">
+        <v>96.77851</v>
+      </c>
+      <c r="J66" t="n">
+        <v>97.20667</v>
+      </c>
+      <c r="K66" t="n">
+        <v>97.48335</v>
+      </c>
+      <c r="L66" t="n">
+        <v>97.49961</v>
+      </c>
+      <c r="M66" t="n">
+        <v>97.79507</v>
+      </c>
+      <c r="N66" t="n">
+        <v>98.17135</v>
+      </c>
+      <c r="O66" t="n">
+        <v>98.81474</v>
+      </c>
+      <c r="P66"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" t="n">
+        <v>99.0115</v>
+      </c>
+      <c r="D67" t="n">
+        <v>98.51853</v>
+      </c>
+      <c r="E67" t="n">
+        <v>98.15955</v>
+      </c>
+      <c r="F67" t="n">
+        <v>97.82779</v>
+      </c>
+      <c r="G67" t="n">
+        <v>97.3969</v>
+      </c>
+      <c r="H67" t="n">
+        <v>98.59111</v>
+      </c>
+      <c r="I67" t="n">
+        <v>98.58037</v>
+      </c>
+      <c r="J67" t="n">
+        <v>98.60072</v>
+      </c>
+      <c r="K67" t="n">
+        <v>98.54748</v>
+      </c>
+      <c r="L67" t="n">
+        <v>98.52585</v>
+      </c>
+      <c r="M67" t="n">
+        <v>98.53181</v>
+      </c>
+      <c r="N67" t="n">
+        <v>98.29548</v>
+      </c>
+      <c r="O67" t="n">
+        <v>98.23851</v>
+      </c>
+      <c r="P67"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" t="n">
+        <v>71.66952</v>
+      </c>
+      <c r="D70" t="n">
+        <v>72.66359</v>
+      </c>
+      <c r="E70" t="n">
+        <v>70.56472</v>
+      </c>
+      <c r="F70" t="n">
+        <v>73.93105</v>
+      </c>
+      <c r="G70" t="n">
+        <v>74.45255</v>
+      </c>
+      <c r="H70" t="n">
+        <v>71.58521</v>
+      </c>
+      <c r="I70" t="n">
+        <v>75.87848</v>
+      </c>
+      <c r="J70" t="n">
+        <v>74.09001</v>
+      </c>
+      <c r="K70" t="n">
+        <v>70.04625</v>
+      </c>
+      <c r="L70" t="n">
+        <v>74.71017</v>
+      </c>
+      <c r="M70" t="n">
+        <v>67.53278</v>
+      </c>
+      <c r="N70" t="n">
+        <v>69.15896</v>
+      </c>
+      <c r="O70" t="n">
+        <v>70.91324</v>
+      </c>
+      <c r="P70"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>143</v>
+      </c>
+      <c r="B71" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71" t="n">
+        <v>89.80693</v>
+      </c>
+      <c r="H71" t="n">
+        <v>89.89258</v>
+      </c>
+      <c r="I71" t="n">
+        <v>93.75892</v>
+      </c>
+      <c r="J71" t="n">
+        <v>94.49819</v>
+      </c>
+      <c r="K71"/>
+      <c r="L71" t="n">
+        <v>98.91565</v>
+      </c>
+      <c r="M71"/>
+      <c r="N71" t="n">
+        <v>98.16269</v>
+      </c>
+      <c r="O71" t="n">
+        <v>98.34603</v>
+      </c>
+      <c r="P71"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" t="n">
+        <v>99.19325</v>
+      </c>
+      <c r="D72" t="n">
+        <v>98.40961</v>
+      </c>
+      <c r="E72" t="n">
+        <v>96.47356</v>
+      </c>
+      <c r="F72" t="n">
+        <v>96.07044</v>
+      </c>
+      <c r="G72" t="n">
+        <v>96.84538</v>
+      </c>
+      <c r="H72" t="n">
+        <v>97.50925</v>
+      </c>
+      <c r="I72" t="n">
+        <v>98.26538</v>
+      </c>
+      <c r="J72" t="n">
+        <v>98.20438</v>
+      </c>
+      <c r="K72" t="n">
+        <v>97.60387</v>
+      </c>
+      <c r="L72" t="n">
+        <v>97.28687</v>
+      </c>
+      <c r="M72" t="n">
+        <v>97.6079</v>
+      </c>
+      <c r="N72" t="n">
+        <v>97.85276</v>
+      </c>
+      <c r="O72" t="n">
+        <v>97.93325</v>
+      </c>
+      <c r="P72"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" t="n">
+        <v>64.85573</v>
+      </c>
+      <c r="D73" t="n">
+        <v>59.45767</v>
+      </c>
+      <c r="E73" t="n">
+        <v>61.92222</v>
+      </c>
+      <c r="F73" t="n">
+        <v>64.2761</v>
+      </c>
+      <c r="G73" t="n">
+        <v>59.61725</v>
+      </c>
+      <c r="H73" t="n">
+        <v>66.51315</v>
+      </c>
+      <c r="I73" t="n">
+        <v>66.05534</v>
+      </c>
+      <c r="J73" t="n">
+        <v>71.98322</v>
+      </c>
+      <c r="K73" t="n">
+        <v>77.45018</v>
+      </c>
+      <c r="L73" t="n">
+        <v>76.14366</v>
+      </c>
+      <c r="M73"/>
+      <c r="N73" t="n">
+        <v>83.535</v>
+      </c>
+      <c r="O73" t="n">
+        <v>81.79231</v>
+      </c>
+      <c r="P73" t="n">
+        <v>87.07448</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" t="n">
+        <v>93.97387</v>
+      </c>
+      <c r="D74" t="n">
+        <v>93.60867</v>
+      </c>
+      <c r="E74" t="n">
+        <v>95.98969</v>
+      </c>
+      <c r="F74" t="n">
+        <v>97.98742</v>
+      </c>
+      <c r="G74" t="n">
+        <v>99.37085</v>
+      </c>
+      <c r="H74" t="n">
+        <v>99.74871</v>
+      </c>
+      <c r="I74" t="n">
+        <v>99.51109</v>
+      </c>
+      <c r="J74" t="n">
+        <v>99.36499</v>
+      </c>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74" t="n">
+        <v>99.54996</v>
+      </c>
+      <c r="N74" t="n">
+        <v>99.52347</v>
+      </c>
+      <c r="O74"/>
+      <c r="P74"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" t="n">
+        <v>81.15452</v>
+      </c>
+      <c r="D76" t="n">
+        <v>83.93363</v>
+      </c>
+      <c r="E76" t="n">
+        <v>94.44616</v>
+      </c>
+      <c r="F76"/>
+      <c r="G76" t="n">
+        <v>95.17922</v>
+      </c>
+      <c r="H76" t="n">
+        <v>87.55209</v>
+      </c>
+      <c r="I76"/>
+      <c r="J76" t="n">
+        <v>90.08763</v>
+      </c>
+      <c r="K76" t="n">
+        <v>90.84836</v>
+      </c>
+      <c r="L76" t="n">
+        <v>87.02817</v>
+      </c>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" t="n">
+        <v>85.59637</v>
+      </c>
+      <c r="D78" t="n">
+        <v>85.99881</v>
+      </c>
+      <c r="E78" t="n">
+        <v>88.01879</v>
+      </c>
+      <c r="F78"/>
+      <c r="G78" t="n">
+        <v>92.41535</v>
+      </c>
+      <c r="H78" t="n">
+        <v>93.73174</v>
+      </c>
+      <c r="I78" t="n">
+        <v>94.93606</v>
+      </c>
+      <c r="J78" t="n">
+        <v>95.62943</v>
+      </c>
+      <c r="K78" t="n">
+        <v>95.63357</v>
+      </c>
+      <c r="L78" t="n">
+        <v>97.00989</v>
+      </c>
+      <c r="M78" t="n">
+        <v>96.02659</v>
+      </c>
+      <c r="N78" t="n">
+        <v>92.84108</v>
+      </c>
+      <c r="O78"/>
+      <c r="P78"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>159</v>
+      </c>
+      <c r="B79" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" t="n">
+        <v>44.83125</v>
+      </c>
+      <c r="D79" t="n">
+        <v>48.36711</v>
+      </c>
+      <c r="E79" t="n">
+        <v>55.83514</v>
+      </c>
+      <c r="F79" t="n">
+        <v>59.40902</v>
+      </c>
+      <c r="G79" t="n">
+        <v>62.59013</v>
+      </c>
+      <c r="H79" t="n">
+        <v>64.54375</v>
+      </c>
+      <c r="I79" t="n">
+        <v>66.52865</v>
+      </c>
+      <c r="J79" t="n">
+        <v>68.2504</v>
+      </c>
+      <c r="K79" t="n">
+        <v>67.55844</v>
+      </c>
+      <c r="L79" t="n">
+        <v>68.67908</v>
+      </c>
+      <c r="M79" t="n">
+        <v>70.39832</v>
+      </c>
+      <c r="N79" t="n">
+        <v>74.1458</v>
+      </c>
+      <c r="O79" t="n">
+        <v>74.38332</v>
+      </c>
+      <c r="P79"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>161</v>
+      </c>
+      <c r="B80" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80" t="n">
+        <v>49.21368</v>
+      </c>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80" t="n">
+        <v>69.77422</v>
+      </c>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81" t="n">
+        <v>93.71984</v>
+      </c>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81" t="n">
+        <v>85.73555</v>
+      </c>
+      <c r="L81" t="n">
+        <v>78.73254</v>
+      </c>
+      <c r="M81" t="n">
+        <v>78.57066</v>
+      </c>
+      <c r="N81" t="n">
+        <v>76.20927</v>
+      </c>
+      <c r="O81" t="n">
+        <v>71.53248</v>
+      </c>
+      <c r="P81"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>165</v>
+      </c>
+      <c r="B82" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>167</v>
+      </c>
+      <c r="B83" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83" t="n">
+        <v>88.43646</v>
+      </c>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83" t="n">
+        <v>91.24011</v>
+      </c>
+      <c r="G83" t="n">
+        <v>92.36699</v>
+      </c>
+      <c r="H83" t="n">
+        <v>91.52825</v>
+      </c>
+      <c r="I83" t="n">
+        <v>95.62568</v>
+      </c>
+      <c r="J83" t="n">
+        <v>92.86576</v>
+      </c>
+      <c r="K83" t="n">
+        <v>96.08125</v>
+      </c>
+      <c r="L83" t="n">
+        <v>96.47666</v>
+      </c>
+      <c r="M83" t="n">
+        <v>95.84464</v>
+      </c>
+      <c r="N83" t="n">
+        <v>97.25173</v>
+      </c>
+      <c r="O83" t="n">
+        <v>94.0134</v>
+      </c>
+      <c r="P83"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B84" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84"/>
+      <c r="D84" t="n">
+        <v>87.97804</v>
+      </c>
+      <c r="E84" t="n">
+        <v>88.34323</v>
+      </c>
+      <c r="F84" t="n">
+        <v>88.75671</v>
+      </c>
+      <c r="G84" t="n">
+        <v>89.34105</v>
+      </c>
+      <c r="H84" t="n">
+        <v>88.98508</v>
+      </c>
+      <c r="I84" t="n">
+        <v>89.48143</v>
+      </c>
+      <c r="J84" t="n">
+        <v>90.96927</v>
+      </c>
+      <c r="K84" t="n">
+        <v>91.19558</v>
+      </c>
+      <c r="L84" t="n">
+        <v>90.9364</v>
+      </c>
+      <c r="M84" t="n">
+        <v>90.51899</v>
+      </c>
+      <c r="N84" t="n">
+        <v>90.28625</v>
+      </c>
+      <c r="O84" t="n">
+        <v>93.5373</v>
+      </c>
+      <c r="P84"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>171</v>
+      </c>
+      <c r="B85" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85" t="n">
+        <v>87.84517</v>
+      </c>
+      <c r="D85" t="n">
+        <v>88.63941</v>
+      </c>
+      <c r="E85" t="n">
+        <v>89.17713</v>
+      </c>
+      <c r="F85" t="n">
+        <v>88.63996</v>
+      </c>
+      <c r="G85" t="n">
+        <v>88.66286</v>
+      </c>
+      <c r="H85" t="n">
+        <v>89.29898</v>
+      </c>
+      <c r="I85" t="n">
+        <v>90.45098</v>
+      </c>
+      <c r="J85" t="n">
+        <v>90.17014</v>
+      </c>
+      <c r="K85" t="n">
+        <v>92.00489</v>
+      </c>
+      <c r="L85" t="n">
+        <v>92.9519</v>
+      </c>
+      <c r="M85" t="n">
+        <v>93.1873</v>
+      </c>
+      <c r="N85" t="n">
+        <v>92.53055</v>
+      </c>
+      <c r="O85" t="n">
+        <v>91.27199</v>
+      </c>
+      <c r="P85"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>173</v>
+      </c>
+      <c r="B86" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86" t="n">
+        <v>99.07541</v>
+      </c>
+      <c r="D86" t="n">
+        <v>99.4623</v>
+      </c>
+      <c r="E86" t="n">
+        <v>99.45439</v>
+      </c>
+      <c r="F86" t="n">
+        <v>99.18242</v>
+      </c>
+      <c r="G86" t="n">
+        <v>97.75426</v>
+      </c>
+      <c r="H86" t="n">
+        <v>97.80873</v>
+      </c>
+      <c r="I86" t="n">
+        <v>97.85569</v>
+      </c>
+      <c r="J86" t="n">
+        <v>98.00757</v>
+      </c>
+      <c r="K86" t="n">
+        <v>98.69372</v>
+      </c>
+      <c r="L86" t="n">
+        <v>99.22836</v>
+      </c>
+      <c r="M86" t="n">
+        <v>98.74983</v>
+      </c>
+      <c r="N86" t="n">
+        <v>98.45644</v>
+      </c>
+      <c r="O86"/>
+      <c r="P86"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>175</v>
+      </c>
+      <c r="B87" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87" t="n">
+        <v>81.19853</v>
+      </c>
+      <c r="D87" t="n">
+        <v>81.19067</v>
+      </c>
+      <c r="E87" t="n">
+        <v>80.91378</v>
+      </c>
+      <c r="F87" t="n">
+        <v>85.78218</v>
+      </c>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="J87" t="n">
+        <v>93.29447</v>
+      </c>
+      <c r="K87" t="n">
+        <v>93.44228</v>
+      </c>
+      <c r="L87" t="n">
+        <v>93.93657</v>
+      </c>
+      <c r="M87" t="n">
+        <v>93.9477</v>
+      </c>
+      <c r="N87" t="n">
+        <v>93.34442</v>
+      </c>
+      <c r="O87"/>
+      <c r="P87"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>177</v>
+      </c>
+      <c r="B88" t="s">
+        <v>178</v>
+      </c>
+      <c r="C88"/>
+      <c r="D88" t="n">
+        <v>93.18608</v>
+      </c>
+      <c r="E88" t="n">
+        <v>92.70685</v>
+      </c>
+      <c r="F88" t="n">
+        <v>92.08857</v>
+      </c>
+      <c r="G88" t="n">
+        <v>91.20634</v>
+      </c>
+      <c r="H88" t="n">
+        <v>90.41131</v>
+      </c>
+      <c r="I88" t="n">
+        <v>93.36688</v>
+      </c>
+      <c r="J88" t="n">
+        <v>95.38421</v>
+      </c>
+      <c r="K88" t="n">
+        <v>94.56678</v>
+      </c>
+      <c r="L88" t="n">
+        <v>94.92102</v>
+      </c>
+      <c r="M88" t="n">
+        <v>94.89798</v>
+      </c>
+      <c r="N88" t="n">
+        <v>93.66801</v>
+      </c>
+      <c r="O88" t="n">
+        <v>92.21828</v>
+      </c>
+      <c r="P88"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>179</v>
+      </c>
+      <c r="B89" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89" t="n">
+        <v>85.77796</v>
+      </c>
+      <c r="D89"/>
+      <c r="E89" t="n">
+        <v>94.47855</v>
+      </c>
+      <c r="F89" t="n">
+        <v>93.96007</v>
+      </c>
+      <c r="G89" t="n">
+        <v>97.18901</v>
+      </c>
+      <c r="H89" t="n">
+        <v>97.19779</v>
+      </c>
+      <c r="I89" t="n">
+        <v>99.17437</v>
+      </c>
+      <c r="J89" t="n">
+        <v>99.52666</v>
+      </c>
+      <c r="K89"/>
+      <c r="L89" t="n">
+        <v>99.74501</v>
+      </c>
+      <c r="M89" t="n">
+        <v>99.68096</v>
+      </c>
+      <c r="N89" t="n">
+        <v>99.77394</v>
+      </c>
+      <c r="O89" t="n">
+        <v>99.8459</v>
+      </c>
+      <c r="P89"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>181</v>
+      </c>
+      <c r="B90" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90" t="n">
+        <v>87.95067</v>
+      </c>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90" t="n">
+        <v>93.78119</v>
+      </c>
+      <c r="G90" t="n">
+        <v>92.46121</v>
+      </c>
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90" t="n">
+        <v>91.75324</v>
+      </c>
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+      <c r="O90"/>
+      <c r="P90"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>183</v>
+      </c>
+      <c r="B91" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91" t="n">
+        <v>94.62081</v>
+      </c>
+      <c r="D91" t="n">
+        <v>93.93224</v>
+      </c>
+      <c r="E91" t="n">
+        <v>94.89484</v>
+      </c>
+      <c r="F91" t="n">
+        <v>94.84546</v>
+      </c>
+      <c r="G91" t="n">
+        <v>94.76649</v>
+      </c>
+      <c r="H91" t="n">
+        <v>94.81178</v>
+      </c>
+      <c r="I91" t="n">
+        <v>95.21309</v>
+      </c>
+      <c r="J91" t="n">
+        <v>95.36682</v>
+      </c>
+      <c r="K91" t="n">
+        <v>95.16936</v>
+      </c>
+      <c r="L91" t="n">
+        <v>95.17882</v>
+      </c>
+      <c r="M91" t="n">
+        <v>95.19409</v>
+      </c>
+      <c r="N91" t="n">
+        <v>98.80152</v>
+      </c>
+      <c r="O91" t="n">
+        <v>95.31688</v>
+      </c>
+      <c r="P91"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>185</v>
+      </c>
+      <c r="B92" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" t="n">
+        <v>97.77519</v>
+      </c>
+      <c r="D92" t="n">
+        <v>98.24126</v>
+      </c>
+      <c r="E92" t="n">
+        <v>97.8978</v>
+      </c>
+      <c r="F92" t="n">
+        <v>98.02001</v>
+      </c>
+      <c r="G92" t="n">
+        <v>97.60092</v>
+      </c>
+      <c r="H92" t="n">
+        <v>97.47109</v>
+      </c>
+      <c r="I92" t="n">
+        <v>97.00253</v>
+      </c>
+      <c r="J92" t="n">
+        <v>97.23733</v>
+      </c>
+      <c r="K92" t="n">
+        <v>97.20606</v>
+      </c>
+      <c r="L92" t="n">
+        <v>96.91153</v>
+      </c>
+      <c r="M92" t="n">
+        <v>97.05024</v>
+      </c>
+      <c r="N92" t="n">
+        <v>96.70118</v>
+      </c>
+      <c r="O92"/>
+      <c r="P92"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" t="n">
+        <v>98.51978</v>
+      </c>
+      <c r="D93" t="n">
+        <v>98.74882</v>
+      </c>
+      <c r="E93" t="n">
+        <v>98.68783</v>
+      </c>
+      <c r="F93" t="n">
+        <v>98.54598</v>
+      </c>
+      <c r="G93" t="n">
+        <v>98.39352</v>
+      </c>
+      <c r="H93" t="n">
+        <v>98.58525</v>
+      </c>
+      <c r="I93" t="n">
+        <v>98.66357</v>
+      </c>
+      <c r="J93" t="n">
+        <v>98.67512</v>
+      </c>
+      <c r="K93" t="n">
+        <v>98.43583</v>
+      </c>
+      <c r="L93" t="n">
+        <v>97.76402</v>
+      </c>
+      <c r="M93" t="n">
+        <v>97.72792</v>
+      </c>
+      <c r="N93" t="n">
+        <v>97.22396</v>
+      </c>
+      <c r="O93"/>
+      <c r="P93"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>189</v>
+      </c>
+      <c r="B94" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92.45065</v>
+      </c>
+      <c r="D94" t="n">
+        <v>91.83297</v>
+      </c>
+      <c r="E94" t="n">
+        <v>91.4948</v>
+      </c>
+      <c r="F94" t="n">
+        <v>89.82858</v>
+      </c>
+      <c r="G94" t="n">
+        <v>90.80773</v>
+      </c>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="L94"/>
+      <c r="M94"/>
+      <c r="N94"/>
+      <c r="O94"/>
+      <c r="P94"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>191</v>
+      </c>
+      <c r="B95" t="s">
+        <v>192</v>
+      </c>
+      <c r="C95" t="n">
+        <v>99.97021</v>
+      </c>
+      <c r="D95" t="n">
+        <v>99.97465</v>
+      </c>
+      <c r="E95" t="n">
+        <v>99.97513</v>
+      </c>
+      <c r="F95" t="n">
+        <v>99.99562</v>
+      </c>
+      <c r="G95" t="n">
+        <v>99.96565</v>
+      </c>
+      <c r="H95" t="n">
+        <v>99.99859</v>
+      </c>
+      <c r="I95" t="n">
+        <v>99.97621</v>
+      </c>
+      <c r="J95" t="n">
+        <v>99.99917</v>
+      </c>
+      <c r="K95" t="n">
+        <v>99.98512</v>
+      </c>
+      <c r="L95" t="n">
+        <v>99.97681</v>
+      </c>
+      <c r="M95" t="n">
+        <v>99.97144</v>
+      </c>
+      <c r="N95" t="n">
+        <v>99.93983</v>
+      </c>
+      <c r="O95" t="n">
+        <v>99.91707</v>
+      </c>
+      <c r="P95"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>193</v>
+      </c>
+      <c r="B96" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96" t="n">
+        <v>95.0358</v>
+      </c>
+      <c r="D96"/>
+      <c r="E96" t="n">
+        <v>95.34753</v>
+      </c>
+      <c r="F96" t="n">
+        <v>95.38492</v>
+      </c>
+      <c r="G96" t="n">
+        <v>95.09091</v>
+      </c>
+      <c r="H96" t="n">
+        <v>95.31546</v>
+      </c>
+      <c r="I96" t="n">
+        <v>94.77392</v>
+      </c>
+      <c r="J96" t="n">
+        <v>94.68448</v>
+      </c>
+      <c r="K96" t="n">
+        <v>94.29562</v>
+      </c>
+      <c r="L96"/>
+      <c r="M96" t="n">
+        <v>97.35478</v>
+      </c>
+      <c r="N96" t="n">
+        <v>97.54948</v>
+      </c>
+      <c r="O96" t="n">
+        <v>97.11111</v>
+      </c>
+      <c r="P96"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>195</v>
+      </c>
+      <c r="B97" t="s">
+        <v>196</v>
+      </c>
+      <c r="C97" t="n">
+        <v>88.63322</v>
+      </c>
+      <c r="D97" t="n">
+        <v>89.15139</v>
+      </c>
+      <c r="E97" t="n">
+        <v>91.36413</v>
+      </c>
+      <c r="F97" t="n">
+        <v>91.80509</v>
+      </c>
+      <c r="G97" t="n">
+        <v>92.4228</v>
+      </c>
+      <c r="H97" t="n">
+        <v>90.96038</v>
+      </c>
+      <c r="I97" t="n">
+        <v>90.2444</v>
+      </c>
+      <c r="J97" t="n">
+        <v>90.01222</v>
+      </c>
+      <c r="K97" t="n">
+        <v>89.85622</v>
+      </c>
+      <c r="L97" t="n">
+        <v>88.28855</v>
+      </c>
+      <c r="M97" t="n">
+        <v>87.46111</v>
+      </c>
+      <c r="N97" t="n">
+        <v>87.08702</v>
+      </c>
+      <c r="O97" t="n">
+        <v>85.9608</v>
+      </c>
+      <c r="P97" t="n">
+        <v>85.63504</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>197</v>
+      </c>
+      <c r="B98" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98" t="n">
+        <v>65.35795</v>
+      </c>
+      <c r="D98" t="n">
+        <v>66.78227</v>
+      </c>
+      <c r="E98" t="n">
+        <v>61.84775</v>
+      </c>
+      <c r="F98" t="n">
+        <v>74.20194</v>
+      </c>
+      <c r="G98" t="n">
+        <v>73.39233</v>
+      </c>
+      <c r="H98" t="n">
+        <v>74.94346</v>
+      </c>
+      <c r="I98" t="n">
+        <v>74.6725</v>
+      </c>
+      <c r="J98" t="n">
+        <v>85.57756</v>
+      </c>
+      <c r="K98" t="n">
+        <v>81.1797</v>
+      </c>
+      <c r="L98" t="n">
+        <v>81.76461</v>
+      </c>
+      <c r="M98"/>
+      <c r="N98"/>
+      <c r="O98"/>
+      <c r="P98"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>199</v>
+      </c>
+      <c r="B99" t="s">
+        <v>200</v>
+      </c>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99"/>
+      <c r="K99"/>
+      <c r="L99"/>
+      <c r="M99"/>
+      <c r="N99"/>
+      <c r="O99"/>
+      <c r="P99"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" t="s">
+        <v>202</v>
+      </c>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100"/>
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100"/>
+      <c r="O100"/>
+      <c r="P100"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>203</v>
+      </c>
+      <c r="B101" t="s">
+        <v>204</v>
+      </c>
+      <c r="C101" t="n">
+        <v>93.19033</v>
+      </c>
+      <c r="D101" t="n">
+        <v>93.43506</v>
+      </c>
+      <c r="E101"/>
+      <c r="F101" t="n">
+        <v>93.61242</v>
+      </c>
+      <c r="G101" t="n">
+        <v>92.79401</v>
+      </c>
+      <c r="H101" t="n">
+        <v>99.31761</v>
+      </c>
+      <c r="I101"/>
+      <c r="J101" t="n">
+        <v>92.10572</v>
+      </c>
+      <c r="K101"/>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+      <c r="O101"/>
+      <c r="P101"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>205</v>
+      </c>
+      <c r="B102" t="s">
+        <v>206</v>
+      </c>
+      <c r="C102" t="n">
+        <v>85.83326</v>
+      </c>
+      <c r="D102" t="n">
+        <v>86.25493</v>
+      </c>
+      <c r="E102" t="n">
+        <v>86.24218</v>
+      </c>
+      <c r="F102" t="n">
+        <v>85.55965</v>
+      </c>
+      <c r="G102" t="n">
+        <v>90.17227</v>
+      </c>
+      <c r="H102" t="n">
+        <v>87.63588</v>
+      </c>
+      <c r="I102" t="n">
+        <v>88.45284</v>
+      </c>
+      <c r="J102" t="n">
+        <v>86.76474</v>
+      </c>
+      <c r="K102" t="n">
+        <v>86.52809</v>
+      </c>
+      <c r="L102" t="n">
+        <v>86.25387</v>
+      </c>
+      <c r="M102" t="n">
+        <v>87.44792</v>
+      </c>
+      <c r="N102" t="n">
+        <v>88.38781</v>
+      </c>
+      <c r="O102" t="n">
+        <v>90.50725</v>
+      </c>
+      <c r="P102"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>207</v>
+      </c>
+      <c r="B103" t="s">
+        <v>208</v>
+      </c>
+      <c r="C103" t="n">
+        <v>74.89588</v>
+      </c>
+      <c r="D103" t="n">
+        <v>74.06095</v>
+      </c>
+      <c r="E103" t="n">
+        <v>74.97661</v>
+      </c>
+      <c r="F103" t="n">
+        <v>77.28608</v>
+      </c>
+      <c r="G103" t="n">
+        <v>77.69978</v>
+      </c>
+      <c r="H103" t="n">
+        <v>78.70761</v>
+      </c>
+      <c r="I103" t="n">
+        <v>80.03728</v>
+      </c>
+      <c r="J103" t="n">
+        <v>82.44215</v>
+      </c>
+      <c r="K103" t="n">
+        <v>85.23913</v>
+      </c>
+      <c r="L103" t="n">
+        <v>88.48517</v>
+      </c>
+      <c r="M103" t="n">
+        <v>94.35043</v>
+      </c>
+      <c r="N103" t="n">
+        <v>95.34599</v>
+      </c>
+      <c r="O103" t="n">
+        <v>95.87678</v>
+      </c>
+      <c r="P103"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>209</v>
+      </c>
+      <c r="B104" t="s">
+        <v>210</v>
+      </c>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104"/>
+      <c r="K104" t="n">
+        <v>94.58852</v>
+      </c>
+      <c r="L104" t="n">
+        <v>97.22535</v>
+      </c>
+      <c r="M104" t="n">
+        <v>97.34688</v>
+      </c>
+      <c r="N104" t="n">
+        <v>97.49454</v>
+      </c>
+      <c r="O104" t="n">
+        <v>97.67802</v>
+      </c>
+      <c r="P104"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>211</v>
+      </c>
+      <c r="B105" t="s">
+        <v>212</v>
+      </c>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105" t="n">
+        <v>95.85941</v>
+      </c>
+      <c r="G105" t="n">
+        <v>94.00858</v>
+      </c>
+      <c r="H105" t="n">
+        <v>90.00318</v>
+      </c>
+      <c r="I105" t="n">
+        <v>87.71425</v>
+      </c>
+      <c r="J105" t="n">
+        <v>88.41763</v>
+      </c>
+      <c r="K105" t="n">
+        <v>88.59655</v>
+      </c>
+      <c r="L105" t="n">
+        <v>89.43047</v>
+      </c>
+      <c r="M105" t="n">
+        <v>90.64751</v>
+      </c>
+      <c r="N105" t="n">
+        <v>91.25523</v>
+      </c>
+      <c r="O105" t="n">
+        <v>93.24709</v>
+      </c>
+      <c r="P105"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>213</v>
+      </c>
+      <c r="B106" t="s">
+        <v>214</v>
+      </c>
+      <c r="C106" t="n">
+        <v>80.20091</v>
+      </c>
+      <c r="D106" t="n">
+        <v>80.2861</v>
+      </c>
+      <c r="E106" t="n">
+        <v>80.49824</v>
+      </c>
+      <c r="F106" t="n">
+        <v>80.61289</v>
+      </c>
+      <c r="G106" t="n">
+        <v>78.10929</v>
+      </c>
+      <c r="H106" t="n">
+        <v>77.21701</v>
+      </c>
+      <c r="I106" t="n">
+        <v>77.36384</v>
+      </c>
+      <c r="J106" t="n">
+        <v>74.92608</v>
+      </c>
+      <c r="K106" t="n">
+        <v>75.91054</v>
+      </c>
+      <c r="L106" t="n">
+        <v>76.56546</v>
+      </c>
+      <c r="M106" t="n">
+        <v>78.49223</v>
+      </c>
+      <c r="N106" t="n">
+        <v>80.18648</v>
+      </c>
+      <c r="O106" t="n">
+        <v>81.63338</v>
+      </c>
+      <c r="P106"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>215</v>
+      </c>
+      <c r="B107" t="s">
+        <v>216</v>
+      </c>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107"/>
+      <c r="H107"/>
+      <c r="I107" t="n">
+        <v>35.09446</v>
+      </c>
+      <c r="J107"/>
+      <c r="K107" t="n">
+        <v>42.62398</v>
+      </c>
+      <c r="L107" t="n">
+        <v>39.90547</v>
+      </c>
+      <c r="M107"/>
+      <c r="N107" t="n">
+        <v>40.62077</v>
+      </c>
+      <c r="O107"/>
+      <c r="P107"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>217</v>
+      </c>
+      <c r="B108" t="s">
+        <v>218</v>
+      </c>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108"/>
+      <c r="P108"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>219</v>
+      </c>
+      <c r="B109" t="s">
+        <v>220</v>
+      </c>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109"/>
+      <c r="F109" t="n">
+        <v>94.48077</v>
+      </c>
+      <c r="G109" t="n">
+        <v>95.6222</v>
+      </c>
+      <c r="H109"/>
+      <c r="I109" t="n">
+        <v>95.07177</v>
+      </c>
+      <c r="J109" t="n">
+        <v>95.179</v>
+      </c>
+      <c r="K109" t="n">
+        <v>93.49633</v>
+      </c>
+      <c r="L109" t="n">
+        <v>91.85695</v>
+      </c>
+      <c r="M109" t="n">
+        <v>93.53901</v>
+      </c>
+      <c r="N109" t="n">
+        <v>91.97499</v>
+      </c>
+      <c r="O109"/>
+      <c r="P109"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>221</v>
+      </c>
+      <c r="B110" t="s">
+        <v>222</v>
+      </c>
+      <c r="C110" t="n">
+        <v>95.67613</v>
+      </c>
+      <c r="D110" t="n">
+        <v>95.71785</v>
+      </c>
+      <c r="E110" t="n">
+        <v>95.36518</v>
+      </c>
+      <c r="F110" t="n">
+        <v>92.87817</v>
+      </c>
+      <c r="G110" t="n">
+        <v>90.56194</v>
+      </c>
+      <c r="H110" t="n">
+        <v>90.84382</v>
+      </c>
+      <c r="I110" t="n">
+        <v>93.36545</v>
+      </c>
+      <c r="J110" t="n">
+        <v>95.71493</v>
+      </c>
+      <c r="K110" t="n">
+        <v>94.60598</v>
+      </c>
+      <c r="L110" t="n">
+        <v>95.36322</v>
+      </c>
+      <c r="M110" t="n">
+        <v>95.93831</v>
+      </c>
+      <c r="N110" t="n">
+        <v>96.20131</v>
+      </c>
+      <c r="O110" t="n">
+        <v>95.84531</v>
+      </c>
+      <c r="P110"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>223</v>
+      </c>
+      <c r="B111" t="s">
+        <v>224</v>
+      </c>
+      <c r="C111" t="n">
+        <v>95.83192</v>
+      </c>
+      <c r="D111" t="n">
+        <v>95.97279</v>
+      </c>
+      <c r="E111" t="n">
+        <v>96.11579</v>
+      </c>
+      <c r="F111" t="n">
+        <v>94.95477</v>
+      </c>
+      <c r="G111" t="n">
+        <v>95.68756</v>
+      </c>
+      <c r="H111" t="n">
+        <v>96.30985</v>
+      </c>
+      <c r="I111" t="n">
+        <v>96.52635</v>
+      </c>
+      <c r="J111" t="n">
+        <v>96.48968</v>
+      </c>
+      <c r="K111" t="n">
+        <v>95.50303</v>
+      </c>
+      <c r="L111"/>
+      <c r="M111" t="n">
+        <v>92.43057</v>
+      </c>
+      <c r="N111" t="n">
+        <v>92.07406</v>
+      </c>
+      <c r="O111"/>
+      <c r="P111"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>225</v>
+      </c>
+      <c r="B112" t="s">
+        <v>226</v>
+      </c>
+      <c r="C112" t="n">
+        <v>85.5123</v>
+      </c>
+      <c r="D112" t="n">
+        <v>84.55455</v>
+      </c>
+      <c r="E112" t="n">
+        <v>86.994</v>
+      </c>
+      <c r="F112" t="n">
+        <v>88.22894</v>
+      </c>
+      <c r="G112" t="n">
+        <v>89.25609</v>
+      </c>
+      <c r="H112" t="n">
+        <v>89.3686</v>
+      </c>
+      <c r="I112" t="n">
+        <v>88.29709</v>
+      </c>
+      <c r="J112" t="n">
+        <v>88.41754</v>
+      </c>
+      <c r="K112" t="n">
+        <v>87.07079</v>
+      </c>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112"/>
+      <c r="P112"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>227</v>
+      </c>
+      <c r="B113" t="s">
+        <v>228</v>
+      </c>
+      <c r="C113" t="n">
+        <v>89.1878</v>
+      </c>
+      <c r="D113" t="n">
+        <v>87.28803</v>
+      </c>
+      <c r="E113" t="n">
+        <v>86.64392</v>
+      </c>
+      <c r="F113" t="n">
+        <v>85.87641</v>
+      </c>
+      <c r="G113" t="n">
+        <v>86.57312</v>
+      </c>
+      <c r="H113" t="n">
+        <v>87.567</v>
+      </c>
+      <c r="I113" t="n">
+        <v>87.66396</v>
+      </c>
+      <c r="J113" t="n">
+        <v>87.55664</v>
+      </c>
+      <c r="K113" t="n">
+        <v>87.40778</v>
+      </c>
+      <c r="L113" t="n">
+        <v>87.83672</v>
+      </c>
+      <c r="M113" t="n">
+        <v>88.02027</v>
+      </c>
+      <c r="N113"/>
+      <c r="O113" t="n">
+        <v>86.54841</v>
+      </c>
+      <c r="P113"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>229</v>
+      </c>
+      <c r="B114" t="s">
+        <v>230</v>
+      </c>
+      <c r="C114" t="n">
+        <v>64.9494</v>
+      </c>
+      <c r="D114" t="n">
+        <v>66.38847</v>
+      </c>
+      <c r="E114" t="n">
+        <v>67.26867</v>
+      </c>
+      <c r="F114" t="n">
+        <v>77.07133</v>
+      </c>
+      <c r="G114"/>
+      <c r="H114"/>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114"/>
+      <c r="P114"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>231</v>
+      </c>
+      <c r="B115" t="s">
+        <v>232</v>
+      </c>
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="E115" t="n">
+        <v>98.80751</v>
+      </c>
+      <c r="F115"/>
+      <c r="G115" t="n">
+        <v>96.81581</v>
+      </c>
+      <c r="H115" t="n">
+        <v>96.9532</v>
+      </c>
+      <c r="I115" t="n">
+        <v>96.4152</v>
+      </c>
+      <c r="J115" t="n">
+        <v>92.77979</v>
+      </c>
+      <c r="K115" t="n">
+        <v>96.50389</v>
+      </c>
+      <c r="L115" t="n">
+        <v>96.90134</v>
+      </c>
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115"/>
+      <c r="P115"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>233</v>
+      </c>
+      <c r="B116" t="s">
+        <v>234</v>
+      </c>
+      <c r="C116" t="n">
+        <v>97.81434</v>
+      </c>
+      <c r="D116" t="n">
+        <v>97.02752</v>
+      </c>
+      <c r="E116" t="n">
+        <v>95.86903</v>
+      </c>
+      <c r="F116" t="n">
+        <v>96.72562</v>
+      </c>
+      <c r="G116" t="n">
+        <v>97.61885</v>
+      </c>
+      <c r="H116" t="n">
+        <v>97.03121</v>
+      </c>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="L116"/>
+      <c r="M116"/>
+      <c r="N116"/>
+      <c r="O116"/>
+      <c r="P116"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>235</v>
+      </c>
+      <c r="B117" t="s">
+        <v>236</v>
+      </c>
+      <c r="C117" t="n">
+        <v>98.18753</v>
+      </c>
+      <c r="D117" t="n">
+        <v>96.58161</v>
+      </c>
+      <c r="E117" t="n">
+        <v>96.9243</v>
+      </c>
+      <c r="F117"/>
+      <c r="G117" t="n">
+        <v>98.90217</v>
+      </c>
+      <c r="H117" t="n">
+        <v>97.61018</v>
+      </c>
+      <c r="I117" t="n">
+        <v>97.06488</v>
+      </c>
+      <c r="J117" t="n">
+        <v>92.56617</v>
+      </c>
+      <c r="K117" t="n">
+        <v>88.03948</v>
+      </c>
+      <c r="L117" t="n">
+        <v>94.47916</v>
+      </c>
+      <c r="M117"/>
+      <c r="N117"/>
+      <c r="O117"/>
+      <c r="P117"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>237</v>
+      </c>
+      <c r="B118" t="s">
+        <v>238</v>
+      </c>
+      <c r="C118"/>
+      <c r="D118"/>
+      <c r="E118" t="n">
+        <v>55.85586</v>
+      </c>
+      <c r="F118" t="n">
+        <v>55.9354</v>
+      </c>
+      <c r="G118" t="n">
+        <v>55.96439</v>
+      </c>
+      <c r="H118" t="n">
+        <v>61.38336</v>
+      </c>
+      <c r="I118" t="n">
+        <v>62.71232</v>
+      </c>
+      <c r="J118" t="n">
+        <v>64.88032</v>
+      </c>
+      <c r="K118"/>
+      <c r="L118" t="n">
+        <v>68.72308</v>
+      </c>
+      <c r="M118" t="n">
+        <v>69.59055</v>
+      </c>
+      <c r="N118" t="n">
+        <v>70.63298</v>
+      </c>
+      <c r="O118" t="n">
+        <v>68.72776</v>
+      </c>
+      <c r="P118"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>239</v>
+      </c>
+      <c r="B119" t="s">
+        <v>240</v>
+      </c>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119"/>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="L119"/>
+      <c r="M119"/>
+      <c r="N119" t="n">
+        <v>93.98567</v>
+      </c>
+      <c r="O119" t="n">
+        <v>95.0817</v>
+      </c>
+      <c r="P119"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>241</v>
+      </c>
+      <c r="B120" t="s">
+        <v>242</v>
+      </c>
+      <c r="C120"/>
+      <c r="D120"/>
+      <c r="E120" t="n">
+        <v>95.7359</v>
+      </c>
+      <c r="F120"/>
+      <c r="G120"/>
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120"/>
+      <c r="K120"/>
+      <c r="L120"/>
+      <c r="M120"/>
+      <c r="N120" t="n">
+        <v>99.7082</v>
+      </c>
+      <c r="O120"/>
+      <c r="P120"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>243</v>
+      </c>
+      <c r="B121" t="s">
+        <v>244</v>
+      </c>
+      <c r="C121" t="n">
+        <v>59.86309</v>
+      </c>
+      <c r="D121" t="n">
+        <v>63.17699</v>
+      </c>
+      <c r="E121" t="n">
+        <v>62.28019</v>
+      </c>
+      <c r="F121" t="n">
+        <v>65.25716</v>
+      </c>
+      <c r="G121" t="n">
+        <v>72.19833</v>
+      </c>
+      <c r="H121" t="n">
+        <v>70.70575</v>
+      </c>
+      <c r="I121" t="n">
+        <v>73.32163</v>
+      </c>
+      <c r="J121" t="n">
+        <v>74.03653</v>
+      </c>
+      <c r="K121" t="n">
+        <v>70.71776</v>
+      </c>
+      <c r="L121" t="n">
+        <v>70.12807</v>
+      </c>
+      <c r="M121" t="n">
+        <v>70.50849</v>
+      </c>
+      <c r="N121" t="n">
+        <v>70.7192</v>
+      </c>
+      <c r="O121" t="n">
+        <v>69.56434</v>
+      </c>
+      <c r="P121"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>245</v>
+      </c>
+      <c r="B122" t="s">
+        <v>246</v>
+      </c>
+      <c r="C122" t="n">
+        <v>93.22659</v>
+      </c>
+      <c r="D122" t="n">
+        <v>92.80903</v>
+      </c>
+      <c r="E122" t="n">
+        <v>94.44784</v>
+      </c>
+      <c r="F122" t="n">
+        <v>93.87929</v>
+      </c>
+      <c r="G122" t="n">
+        <v>95.65483</v>
+      </c>
+      <c r="H122" t="n">
+        <v>96.35109</v>
+      </c>
+      <c r="I122" t="n">
+        <v>96.27155</v>
+      </c>
+      <c r="J122" t="n">
+        <v>96.83297</v>
+      </c>
+      <c r="K122" t="n">
+        <v>96.99766</v>
+      </c>
+      <c r="L122" t="n">
+        <v>97.40888</v>
+      </c>
+      <c r="M122" t="n">
+        <v>97.32474</v>
+      </c>
+      <c r="N122" t="n">
+        <v>97.39462</v>
+      </c>
+      <c r="O122" t="n">
+        <v>97.80198</v>
+      </c>
+      <c r="P122"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>247</v>
+      </c>
+      <c r="B123" t="s">
+        <v>248</v>
+      </c>
+      <c r="C123" t="n">
+        <v>96.06994</v>
+      </c>
+      <c r="D123" t="n">
+        <v>96.30735</v>
+      </c>
+      <c r="E123" t="n">
+        <v>96.5057</v>
+      </c>
+      <c r="F123" t="n">
+        <v>95.83024</v>
+      </c>
+      <c r="G123" t="n">
+        <v>94.7953</v>
+      </c>
+      <c r="H123" t="n">
+        <v>93.75487</v>
+      </c>
+      <c r="I123" t="n">
+        <v>92.97807</v>
+      </c>
+      <c r="J123" t="n">
+        <v>93.01552</v>
+      </c>
+      <c r="K123" t="n">
+        <v>93.18793</v>
+      </c>
+      <c r="L123" t="n">
+        <v>93.88065</v>
+      </c>
+      <c r="M123" t="n">
+        <v>94.7598</v>
+      </c>
+      <c r="N123" t="n">
+        <v>95.58103</v>
+      </c>
+      <c r="O123" t="n">
+        <v>96.34474</v>
+      </c>
+      <c r="P123"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>249</v>
+      </c>
+      <c r="B124" t="s">
+        <v>250</v>
+      </c>
+      <c r="C124"/>
+      <c r="D124"/>
+      <c r="E124"/>
+      <c r="F124"/>
+      <c r="G124"/>
+      <c r="H124"/>
+      <c r="I124"/>
+      <c r="J124"/>
+      <c r="K124"/>
+      <c r="L124"/>
+      <c r="M124"/>
+      <c r="N124"/>
+      <c r="O124"/>
+      <c r="P124"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>251</v>
+      </c>
+      <c r="B125" t="s">
+        <v>252</v>
+      </c>
+      <c r="C125" t="n">
+        <v>89.1081</v>
+      </c>
+      <c r="D125" t="n">
+        <v>92.52591</v>
+      </c>
+      <c r="E125" t="n">
+        <v>91.36379</v>
+      </c>
+      <c r="F125" t="n">
+        <v>92.66273</v>
+      </c>
+      <c r="G125" t="n">
+        <v>92.37394</v>
+      </c>
+      <c r="H125" t="n">
+        <v>90.98955</v>
+      </c>
+      <c r="I125" t="n">
+        <v>87.78561</v>
+      </c>
+      <c r="J125" t="n">
+        <v>87.5708</v>
+      </c>
+      <c r="K125" t="n">
+        <v>87.71829</v>
+      </c>
+      <c r="L125" t="n">
+        <v>87.51561</v>
+      </c>
+      <c r="M125" t="n">
+        <v>87.59101</v>
+      </c>
+      <c r="N125" t="n">
+        <v>87.81111</v>
+      </c>
+      <c r="O125" t="n">
+        <v>87.92876</v>
+      </c>
+      <c r="P125"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>253</v>
+      </c>
+      <c r="B126" t="s">
+        <v>254</v>
+      </c>
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="E126"/>
+      <c r="F126"/>
+      <c r="G126"/>
+      <c r="H126"/>
+      <c r="I126"/>
+      <c r="J126"/>
+      <c r="K126"/>
+      <c r="L126"/>
+      <c r="M126"/>
+      <c r="N126"/>
+      <c r="O126"/>
+      <c r="P126"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>255</v>
+      </c>
+      <c r="B127" t="s">
+        <v>256</v>
+      </c>
+      <c r="C127" t="n">
+        <v>89.99547</v>
+      </c>
+      <c r="D127" t="n">
+        <v>91.19087</v>
+      </c>
+      <c r="E127" t="n">
+        <v>89.55179</v>
+      </c>
+      <c r="F127" t="n">
+        <v>82.56388</v>
+      </c>
+      <c r="G127" t="n">
+        <v>87.43958</v>
+      </c>
+      <c r="H127" t="n">
+        <v>87.91701</v>
+      </c>
+      <c r="I127" t="n">
+        <v>91.66744</v>
+      </c>
+      <c r="J127" t="n">
+        <v>88.96945</v>
+      </c>
+      <c r="K127" t="n">
+        <v>88.78105</v>
+      </c>
+      <c r="L127" t="n">
+        <v>97.41804</v>
+      </c>
+      <c r="M127" t="n">
+        <v>98.62293</v>
+      </c>
+      <c r="N127" t="n">
+        <v>98.95905</v>
+      </c>
+      <c r="O127" t="n">
+        <v>97.33387</v>
+      </c>
+      <c r="P127"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>257</v>
+      </c>
+      <c r="B128" t="s">
+        <v>258</v>
+      </c>
+      <c r="C128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128" t="n">
+        <v>96.76166</v>
+      </c>
+      <c r="G128"/>
+      <c r="H128" t="n">
+        <v>97.91655</v>
+      </c>
+      <c r="I128" t="n">
+        <v>98.2617</v>
+      </c>
+      <c r="J128" t="n">
+        <v>95.8636</v>
+      </c>
+      <c r="K128" t="n">
+        <v>95.83167</v>
+      </c>
+      <c r="L128"/>
+      <c r="M128"/>
+      <c r="N128" t="n">
+        <v>91.70248</v>
+      </c>
+      <c r="O128" t="n">
+        <v>98.36153</v>
+      </c>
+      <c r="P128"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>259</v>
+      </c>
+      <c r="B129" t="s">
+        <v>260</v>
+      </c>
+      <c r="C129" t="n">
+        <v>75.45039</v>
+      </c>
+      <c r="D129" t="n">
+        <v>79.38258</v>
+      </c>
+      <c r="E129" t="n">
+        <v>83.55651</v>
+      </c>
+      <c r="F129" t="n">
+        <v>84.82509</v>
+      </c>
+      <c r="G129" t="n">
+        <v>84.6588</v>
+      </c>
+      <c r="H129" t="n">
+        <v>85.62047</v>
+      </c>
+      <c r="I129" t="n">
+        <v>86.89428</v>
+      </c>
+      <c r="J129" t="n">
+        <v>88.26456</v>
+      </c>
+      <c r="K129" t="n">
+        <v>89.31597</v>
+      </c>
+      <c r="L129" t="n">
+        <v>89.88547</v>
+      </c>
+      <c r="M129" t="n">
+        <v>93.94116</v>
+      </c>
+      <c r="N129" t="n">
+        <v>96.42326</v>
+      </c>
+      <c r="O129" t="n">
+        <v>96.94384</v>
+      </c>
+      <c r="P129" t="n">
+        <v>97.51302</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>261</v>
+      </c>
+      <c r="B130" t="s">
+        <v>262</v>
+      </c>
+      <c r="C130" t="n">
+        <v>55.71761</v>
+      </c>
+      <c r="D130" t="n">
+        <v>60.2386</v>
+      </c>
+      <c r="E130" t="n">
+        <v>56.11304</v>
+      </c>
+      <c r="F130"/>
+      <c r="G130" t="n">
+        <v>69.93348</v>
+      </c>
+      <c r="H130" t="n">
+        <v>75.46413</v>
+      </c>
+      <c r="I130" t="n">
+        <v>79.73044</v>
+      </c>
+      <c r="J130" t="n">
+        <v>84.82571</v>
+      </c>
+      <c r="K130" t="n">
+        <v>87.94706</v>
+      </c>
+      <c r="L130" t="n">
+        <v>88.48296</v>
+      </c>
+      <c r="M130" t="n">
+        <v>89.19447</v>
+      </c>
+      <c r="N130" t="n">
+        <v>86.31222</v>
+      </c>
+      <c r="O130" t="n">
+        <v>86.24407</v>
+      </c>
+      <c r="P130"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>263</v>
+      </c>
+      <c r="B131" t="s">
+        <v>264</v>
+      </c>
+      <c r="C131"/>
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="F131"/>
+      <c r="G131"/>
+      <c r="H131"/>
+      <c r="I131"/>
+      <c r="J131"/>
+      <c r="K131"/>
+      <c r="L131"/>
+      <c r="M131"/>
+      <c r="N131"/>
+      <c r="O131"/>
+      <c r="P131"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>265</v>
+      </c>
+      <c r="B132" t="s">
+        <v>266</v>
+      </c>
+      <c r="C132" t="n">
+        <v>87.72093</v>
+      </c>
+      <c r="D132" t="n">
+        <v>88.17199</v>
+      </c>
+      <c r="E132" t="n">
+        <v>89.51417</v>
+      </c>
+      <c r="F132" t="n">
+        <v>89.33287</v>
+      </c>
+      <c r="G132" t="n">
+        <v>86.8676</v>
+      </c>
+      <c r="H132" t="n">
+        <v>86.9775</v>
+      </c>
+      <c r="I132" t="n">
+        <v>85.63679</v>
+      </c>
+      <c r="J132" t="n">
+        <v>86.87741</v>
+      </c>
+      <c r="K132" t="n">
+        <v>86.11222</v>
+      </c>
+      <c r="L132" t="n">
+        <v>85.90799</v>
+      </c>
+      <c r="M132" t="n">
+        <v>85.64165</v>
+      </c>
+      <c r="N132"/>
+      <c r="O132" t="n">
+        <v>87.67561</v>
+      </c>
+      <c r="P132"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>267</v>
+      </c>
+      <c r="B133" t="s">
+        <v>268</v>
+      </c>
+      <c r="C133" t="n">
+        <v>76.31063</v>
+      </c>
+      <c r="D133"/>
+      <c r="E133"/>
+      <c r="F133" t="n">
+        <v>84.81887</v>
+      </c>
+      <c r="G133" t="n">
+        <v>84.90606</v>
+      </c>
+      <c r="H133"/>
+      <c r="I133"/>
+      <c r="J133"/>
+      <c r="K133"/>
+      <c r="L133"/>
+      <c r="M133"/>
+      <c r="N133" t="n">
+        <v>96.76529</v>
+      </c>
+      <c r="O133" t="n">
+        <v>97.43277</v>
+      </c>
+      <c r="P133" t="n">
+        <v>98.47754</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>269</v>
+      </c>
+      <c r="B134" t="s">
+        <v>270</v>
+      </c>
+      <c r="C134" t="n">
+        <v>99.28801</v>
+      </c>
+      <c r="D134" t="n">
+        <v>99.27607</v>
+      </c>
+      <c r="E134" t="n">
+        <v>99.26161</v>
+      </c>
+      <c r="F134" t="n">
+        <v>98.39149</v>
+      </c>
+      <c r="G134" t="n">
+        <v>97.75731</v>
+      </c>
+      <c r="H134" t="n">
+        <v>97.79006</v>
+      </c>
+      <c r="I134" t="n">
+        <v>98.45577</v>
+      </c>
+      <c r="J134" t="n">
+        <v>99.29219</v>
+      </c>
+      <c r="K134" t="n">
+        <v>99.37009</v>
+      </c>
+      <c r="L134" t="n">
+        <v>99.505</v>
+      </c>
+      <c r="M134" t="n">
+        <v>99.67809</v>
+      </c>
+      <c r="N134" t="n">
+        <v>99.66802</v>
+      </c>
+      <c r="O134" t="n">
+        <v>98.44991</v>
+      </c>
+      <c r="P134"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>271</v>
+      </c>
+      <c r="B135" t="s">
+        <v>272</v>
+      </c>
+      <c r="C135"/>
+      <c r="D135"/>
+      <c r="E135"/>
+      <c r="F135"/>
+      <c r="G135"/>
+      <c r="H135"/>
+      <c r="I135"/>
+      <c r="J135"/>
+      <c r="K135"/>
+      <c r="L135"/>
+      <c r="M135"/>
+      <c r="N135"/>
+      <c r="O135"/>
+      <c r="P135"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>273</v>
+      </c>
+      <c r="B136" t="s">
+        <v>274</v>
+      </c>
+      <c r="C136" t="n">
+        <v>98.81929</v>
+      </c>
+      <c r="D136" t="n">
+        <v>97.1491</v>
+      </c>
+      <c r="E136" t="n">
+        <v>96.73924</v>
+      </c>
+      <c r="F136" t="n">
+        <v>97.88732</v>
+      </c>
+      <c r="G136" t="n">
+        <v>98.17717</v>
+      </c>
+      <c r="H136" t="n">
+        <v>98.9042</v>
+      </c>
+      <c r="I136" t="n">
+        <v>98.95467</v>
+      </c>
+      <c r="J136" t="n">
+        <v>99.29982</v>
+      </c>
+      <c r="K136" t="n">
+        <v>99.41763</v>
+      </c>
+      <c r="L136" t="n">
+        <v>99.33188</v>
+      </c>
+      <c r="M136" t="n">
+        <v>99.31209</v>
+      </c>
+      <c r="N136" t="n">
+        <v>99.1423</v>
+      </c>
+      <c r="O136" t="n">
+        <v>98.41258</v>
+      </c>
+      <c r="P136"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>275</v>
+      </c>
+      <c r="B137" t="s">
+        <v>276</v>
+      </c>
+      <c r="C137" t="n">
+        <v>78.63251</v>
+      </c>
+      <c r="D137" t="n">
+        <v>80.584</v>
+      </c>
+      <c r="E137" t="n">
+        <v>85.62832</v>
+      </c>
+      <c r="F137"/>
+      <c r="G137" t="n">
+        <v>86.88131</v>
+      </c>
+      <c r="H137" t="n">
+        <v>87.3656</v>
+      </c>
+      <c r="I137" t="n">
+        <v>90.60356</v>
+      </c>
+      <c r="J137" t="n">
+        <v>90.82653</v>
+      </c>
+      <c r="K137" t="n">
+        <v>92.12484</v>
+      </c>
+      <c r="L137"/>
+      <c r="M137" t="n">
+        <v>91.82131</v>
+      </c>
+      <c r="N137"/>
+      <c r="O137"/>
+      <c r="P137"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>277</v>
+      </c>
+      <c r="B138" t="s">
+        <v>278</v>
+      </c>
+      <c r="C138" t="n">
+        <v>27.89883</v>
+      </c>
+      <c r="D138" t="n">
+        <v>31.52249</v>
+      </c>
+      <c r="E138" t="n">
+        <v>35.09052</v>
+      </c>
+      <c r="F138" t="n">
+        <v>38.90975</v>
+      </c>
+      <c r="G138" t="n">
+        <v>42.46452</v>
+      </c>
+      <c r="H138" t="n">
+        <v>42.75672</v>
+      </c>
+      <c r="I138" t="n">
+        <v>43.46163</v>
+      </c>
+      <c r="J138" t="n">
+        <v>44.70873</v>
+      </c>
+      <c r="K138" t="n">
+        <v>48.80749</v>
+      </c>
+      <c r="L138" t="n">
+        <v>52.7175</v>
+      </c>
+      <c r="M138" t="n">
+        <v>55.85196</v>
+      </c>
+      <c r="N138" t="n">
+        <v>60.79466</v>
+      </c>
+      <c r="O138" t="n">
+        <v>62.80259</v>
+      </c>
+      <c r="P138"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>279</v>
+      </c>
+      <c r="B139" t="s">
+        <v>280</v>
+      </c>
+      <c r="C139" t="n">
+        <v>64.86935</v>
+      </c>
+      <c r="D139"/>
+      <c r="E139"/>
+      <c r="F139"/>
+      <c r="G139" t="n">
+        <v>66.12203</v>
+      </c>
+      <c r="H139" t="n">
+        <v>66.5636</v>
+      </c>
+      <c r="I139" t="n">
+        <v>67.05246</v>
+      </c>
+      <c r="J139" t="n">
+        <v>69.99448</v>
+      </c>
+      <c r="K139" t="n">
+        <v>63.11967</v>
+      </c>
+      <c r="L139" t="n">
+        <v>64.0761</v>
+      </c>
+      <c r="M139" t="n">
+        <v>63.90199</v>
+      </c>
+      <c r="N139"/>
+      <c r="O139"/>
+      <c r="P139"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>281</v>
+      </c>
+      <c r="B140" t="s">
+        <v>282</v>
+      </c>
+      <c r="C140"/>
+      <c r="D140"/>
+      <c r="E140"/>
+      <c r="F140"/>
+      <c r="G140"/>
+      <c r="H140"/>
+      <c r="I140"/>
+      <c r="J140"/>
+      <c r="K140"/>
+      <c r="L140"/>
+      <c r="M140"/>
+      <c r="N140"/>
+      <c r="O140"/>
+      <c r="P140"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>283</v>
+      </c>
+      <c r="B141" t="s">
+        <v>284</v>
+      </c>
+      <c r="C141"/>
+      <c r="D141"/>
+      <c r="E141"/>
+      <c r="F141"/>
+      <c r="G141"/>
+      <c r="H141"/>
+      <c r="I141"/>
+      <c r="J141"/>
+      <c r="K141"/>
+      <c r="L141"/>
+      <c r="M141"/>
+      <c r="N141"/>
+      <c r="O141"/>
+      <c r="P141"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>285</v>
+      </c>
+      <c r="B142" t="s">
+        <v>286</v>
+      </c>
+      <c r="C142" t="n">
+        <v>99.71899</v>
+      </c>
+      <c r="D142" t="n">
+        <v>99.77023</v>
+      </c>
+      <c r="E142" t="n">
+        <v>99.74167</v>
+      </c>
+      <c r="F142" t="n">
+        <v>99.85574</v>
+      </c>
+      <c r="G142" t="n">
+        <v>99.45436</v>
+      </c>
+      <c r="H142" t="n">
+        <v>98.60261</v>
+      </c>
+      <c r="I142" t="n">
+        <v>98.63914</v>
+      </c>
+      <c r="J142" t="n">
+        <v>99.12963</v>
+      </c>
+      <c r="K142" t="n">
+        <v>99.22759</v>
+      </c>
+      <c r="L142" t="n">
+        <v>99.00386</v>
+      </c>
+      <c r="M142" t="n">
+        <v>98.8775</v>
+      </c>
+      <c r="N142" t="n">
+        <v>99.27304</v>
+      </c>
+      <c r="O142" t="n">
+        <v>99.43699</v>
+      </c>
+      <c r="P142"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>287</v>
+      </c>
+      <c r="B143" t="s">
+        <v>288</v>
+      </c>
+      <c r="C143" t="n">
+        <v>84.11709</v>
+      </c>
+      <c r="D143" t="n">
+        <v>85.60375</v>
+      </c>
+      <c r="E143" t="n">
+        <v>84.32999</v>
+      </c>
+      <c r="F143" t="n">
+        <v>80.53313</v>
+      </c>
+      <c r="G143"/>
+      <c r="H143"/>
+      <c r="I143"/>
+      <c r="J143"/>
+      <c r="K143"/>
+      <c r="L143" t="n">
+        <v>92.02668</v>
+      </c>
+      <c r="M143"/>
+      <c r="N143" t="n">
+        <v>96.00075</v>
+      </c>
+      <c r="O143" t="n">
+        <v>96.3466</v>
+      </c>
+      <c r="P143"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>289</v>
+      </c>
+      <c r="B144" t="s">
+        <v>290</v>
+      </c>
+      <c r="C144"/>
+      <c r="D144"/>
+      <c r="E144" t="n">
+        <v>56.22407</v>
+      </c>
+      <c r="F144" t="n">
+        <v>58.04454</v>
+      </c>
+      <c r="G144" t="n">
+        <v>63.31721</v>
+      </c>
+      <c r="H144" t="n">
+        <v>65.26311</v>
+      </c>
+      <c r="I144" t="n">
+        <v>63.0132</v>
+      </c>
+      <c r="J144" t="n">
+        <v>67.9307</v>
+      </c>
+      <c r="K144" t="n">
+        <v>69.29392</v>
+      </c>
+      <c r="L144" t="n">
+        <v>71.54664</v>
+      </c>
+      <c r="M144" t="n">
+        <v>73.95107</v>
+      </c>
+      <c r="N144" t="n">
+        <v>71.98469</v>
+      </c>
+      <c r="O144" t="n">
+        <v>72.46411</v>
+      </c>
+      <c r="P144"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>291</v>
+      </c>
+      <c r="B145" t="s">
+        <v>292</v>
+      </c>
+      <c r="C145"/>
+      <c r="D145"/>
+      <c r="E145"/>
+      <c r="F145"/>
+      <c r="G145"/>
+      <c r="H145"/>
+      <c r="I145"/>
+      <c r="J145"/>
+      <c r="K145"/>
+      <c r="L145"/>
+      <c r="M145"/>
+      <c r="N145"/>
+      <c r="O145"/>
+      <c r="P145"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>293</v>
+      </c>
+      <c r="B146" t="s">
+        <v>294</v>
+      </c>
+      <c r="C146" t="n">
+        <v>89.61473</v>
+      </c>
+      <c r="D146" t="n">
+        <v>85.76797</v>
+      </c>
+      <c r="E146" t="n">
+        <v>84.80855</v>
+      </c>
+      <c r="F146" t="n">
+        <v>83.62226</v>
+      </c>
+      <c r="G146" t="n">
+        <v>81.46513</v>
+      </c>
+      <c r="H146" t="n">
+        <v>79.30659</v>
+      </c>
+      <c r="I146" t="n">
+        <v>80.06639</v>
+      </c>
+      <c r="J146" t="n">
+        <v>79.59061</v>
+      </c>
+      <c r="K146" t="n">
+        <v>83.66226</v>
+      </c>
+      <c r="L146" t="n">
+        <v>85.05315</v>
+      </c>
+      <c r="M146" t="n">
+        <v>86.20306</v>
+      </c>
+      <c r="N146" t="n">
+        <v>86.66884</v>
+      </c>
+      <c r="O146" t="n">
+        <v>90.37384</v>
+      </c>
+      <c r="P146"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>295</v>
+      </c>
+      <c r="B147" t="s">
+        <v>296</v>
+      </c>
+      <c r="C147" t="n">
+        <v>93.9694</v>
+      </c>
+      <c r="D147" t="n">
+        <v>95.10059</v>
+      </c>
+      <c r="E147" t="n">
+        <v>97.09266</v>
+      </c>
+      <c r="F147"/>
+      <c r="G147" t="n">
+        <v>96.78368</v>
+      </c>
+      <c r="H147" t="n">
+        <v>95.98195</v>
+      </c>
+      <c r="I147" t="n">
+        <v>96.45983</v>
+      </c>
+      <c r="J147" t="n">
+        <v>96.71311</v>
+      </c>
+      <c r="K147" t="n">
+        <v>94.8432</v>
+      </c>
+      <c r="L147" t="n">
+        <v>91.70777</v>
+      </c>
+      <c r="M147" t="n">
+        <v>92.94477</v>
+      </c>
+      <c r="N147" t="n">
+        <v>91.74421</v>
+      </c>
+      <c r="O147" t="n">
+        <v>91.2298</v>
+      </c>
+      <c r="P147"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>297</v>
+      </c>
+      <c r="B148" t="s">
+        <v>298</v>
+      </c>
+      <c r="C148"/>
+      <c r="D148"/>
+      <c r="E148"/>
+      <c r="F148"/>
+      <c r="G148"/>
+      <c r="H148"/>
+      <c r="I148"/>
+      <c r="J148"/>
+      <c r="K148"/>
+      <c r="L148"/>
+      <c r="M148"/>
+      <c r="N148"/>
+      <c r="O148" t="n">
+        <v>85.63319</v>
+      </c>
+      <c r="P148"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>299</v>
+      </c>
+      <c r="B149" t="s">
+        <v>300</v>
+      </c>
+      <c r="C149" t="n">
+        <v>97.35727</v>
+      </c>
+      <c r="D149" t="n">
+        <v>96.98265</v>
+      </c>
+      <c r="E149" t="n">
+        <v>95.00522</v>
+      </c>
+      <c r="F149" t="n">
+        <v>94.36396</v>
+      </c>
+      <c r="G149" t="n">
+        <v>93.80165</v>
+      </c>
+      <c r="H149" t="n">
+        <v>94.30407</v>
+      </c>
+      <c r="I149" t="n">
+        <v>92.45296</v>
+      </c>
+      <c r="J149" t="n">
+        <v>90.00921</v>
+      </c>
+      <c r="K149" t="n">
+        <v>87.37528</v>
+      </c>
+      <c r="L149" t="n">
+        <v>84.97933</v>
+      </c>
+      <c r="M149" t="n">
+        <v>83.49018</v>
+      </c>
+      <c r="N149" t="n">
+        <v>81.93234</v>
+      </c>
+      <c r="O149"/>
+      <c r="P149"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>301</v>
+      </c>
+      <c r="B150" t="s">
+        <v>302</v>
+      </c>
+      <c r="C150" t="n">
+        <v>97.59719</v>
+      </c>
+      <c r="D150" t="n">
+        <v>97.95915</v>
+      </c>
+      <c r="E150" t="n">
+        <v>97.91068</v>
+      </c>
+      <c r="F150" t="n">
+        <v>99.89232</v>
+      </c>
+      <c r="G150" t="n">
+        <v>97.09084</v>
+      </c>
+      <c r="H150" t="n">
+        <v>96.94769</v>
+      </c>
+      <c r="I150" t="n">
+        <v>96.96792</v>
+      </c>
+      <c r="J150" t="n">
+        <v>96.79883</v>
+      </c>
+      <c r="K150" t="n">
+        <v>94.81247</v>
+      </c>
+      <c r="L150" t="n">
+        <v>93.89928</v>
+      </c>
+      <c r="M150" t="n">
+        <v>94.70826</v>
+      </c>
+      <c r="N150" t="n">
+        <v>93.73255</v>
+      </c>
+      <c r="O150"/>
+      <c r="P150"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>303</v>
+      </c>
+      <c r="B151" t="s">
+        <v>304</v>
+      </c>
+      <c r="C151"/>
+      <c r="D151" t="n">
+        <v>89.74081</v>
+      </c>
+      <c r="E151" t="n">
+        <v>89.92111</v>
+      </c>
+      <c r="F151" t="n">
+        <v>90.27761</v>
+      </c>
+      <c r="G151" t="n">
+        <v>89.78777</v>
+      </c>
+      <c r="H151" t="n">
+        <v>89.02945</v>
+      </c>
+      <c r="I151" t="n">
+        <v>87.31168</v>
+      </c>
+      <c r="J151" t="n">
+        <v>87.26712</v>
+      </c>
+      <c r="K151" t="n">
+        <v>87.55453</v>
+      </c>
+      <c r="L151" t="n">
+        <v>88.21835</v>
+      </c>
+      <c r="M151"/>
+      <c r="N151"/>
+      <c r="O151"/>
+      <c r="P151"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>305</v>
+      </c>
+      <c r="B152" t="s">
+        <v>306</v>
+      </c>
+      <c r="C152" t="n">
+        <v>97.14245</v>
+      </c>
+      <c r="D152" t="n">
+        <v>97.11329</v>
+      </c>
+      <c r="E152" t="n">
+        <v>96.6838</v>
+      </c>
+      <c r="F152" t="n">
+        <v>96.18383</v>
+      </c>
+      <c r="G152" t="n">
+        <v>95.71398</v>
+      </c>
+      <c r="H152" t="n">
+        <v>95.28919</v>
+      </c>
+      <c r="I152" t="n">
+        <v>95.32993</v>
+      </c>
+      <c r="J152" t="n">
+        <v>95.294</v>
+      </c>
+      <c r="K152" t="n">
+        <v>95.33661</v>
+      </c>
+      <c r="L152" t="n">
+        <v>95.91671</v>
+      </c>
+      <c r="M152" t="n">
+        <v>96.30079</v>
+      </c>
+      <c r="N152" t="n">
+        <v>96.3023</v>
+      </c>
+      <c r="O152" t="n">
+        <v>96.64836</v>
+      </c>
+      <c r="P152"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>307</v>
+      </c>
+      <c r="B153" t="s">
+        <v>308</v>
+      </c>
+      <c r="C153" t="n">
+        <v>97.0229</v>
+      </c>
+      <c r="D153"/>
+      <c r="E153" t="n">
+        <v>98.50159</v>
+      </c>
+      <c r="F153"/>
+      <c r="G153" t="n">
+        <v>97.8419</v>
+      </c>
+      <c r="H153" t="n">
+        <v>97.88821</v>
+      </c>
+      <c r="I153" t="n">
+        <v>97.76372</v>
+      </c>
+      <c r="J153"/>
+      <c r="K153"/>
+      <c r="L153"/>
+      <c r="M153" t="n">
+        <v>99.13009</v>
+      </c>
+      <c r="N153"/>
+      <c r="O153" t="n">
+        <v>98.62298</v>
+      </c>
+      <c r="P153"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>309</v>
+      </c>
+      <c r="B154" t="s">
+        <v>310</v>
+      </c>
+      <c r="C154"/>
+      <c r="D154"/>
+      <c r="E154"/>
+      <c r="F154"/>
+      <c r="G154"/>
+      <c r="H154"/>
+      <c r="I154"/>
+      <c r="J154"/>
+      <c r="K154"/>
+      <c r="L154"/>
+      <c r="M154" t="n">
+        <v>87.2505</v>
+      </c>
+      <c r="N154" t="n">
+        <v>80.39738</v>
+      </c>
+      <c r="O154"/>
+      <c r="P154"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>311</v>
+      </c>
+      <c r="B155" t="s">
+        <v>312</v>
+      </c>
+      <c r="C155" t="n">
+        <v>95.40247</v>
+      </c>
+      <c r="D155" t="n">
+        <v>90.9399</v>
+      </c>
+      <c r="E155" t="n">
+        <v>92.10194</v>
+      </c>
+      <c r="F155" t="n">
+        <v>94.45971</v>
+      </c>
+      <c r="G155"/>
+      <c r="H155" t="n">
+        <v>92.39275</v>
+      </c>
+      <c r="I155"/>
+      <c r="J155"/>
+      <c r="K155"/>
+      <c r="L155"/>
+      <c r="M155"/>
+      <c r="N155"/>
+      <c r="O155"/>
+      <c r="P155"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>313</v>
+      </c>
+      <c r="B156" t="s">
+        <v>314</v>
+      </c>
+      <c r="C156" t="n">
+        <v>85.26007</v>
+      </c>
+      <c r="D156" t="n">
+        <v>91.37705</v>
+      </c>
+      <c r="E156" t="n">
+        <v>92.77887</v>
+      </c>
+      <c r="F156" t="n">
+        <v>96.22117</v>
+      </c>
+      <c r="G156" t="n">
+        <v>95.53953</v>
+      </c>
+      <c r="H156" t="n">
+        <v>95.16198</v>
+      </c>
+      <c r="I156" t="n">
+        <v>92.44143</v>
+      </c>
+      <c r="J156" t="n">
+        <v>91.80643</v>
+      </c>
+      <c r="K156" t="n">
+        <v>87.78965</v>
+      </c>
+      <c r="L156" t="n">
+        <v>88.35382</v>
+      </c>
+      <c r="M156" t="n">
+        <v>88.35302</v>
+      </c>
+      <c r="N156" t="n">
+        <v>87.90192</v>
+      </c>
+      <c r="O156" t="n">
+        <v>85.75557</v>
+      </c>
+      <c r="P156"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>315</v>
+      </c>
+      <c r="B157" t="s">
+        <v>316</v>
+      </c>
+      <c r="C157"/>
+      <c r="D157"/>
+      <c r="E157"/>
+      <c r="F157"/>
+      <c r="G157"/>
+      <c r="H157"/>
+      <c r="I157" t="n">
+        <v>89.9276</v>
+      </c>
+      <c r="J157" t="n">
+        <v>90.17376</v>
+      </c>
+      <c r="K157" t="n">
+        <v>92.00991</v>
+      </c>
+      <c r="L157" t="n">
+        <v>93.42365</v>
+      </c>
+      <c r="M157"/>
+      <c r="N157" t="n">
+        <v>95.27947</v>
+      </c>
+      <c r="O157" t="n">
+        <v>96.15993</v>
+      </c>
+      <c r="P157"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>317</v>
+      </c>
+      <c r="B158" t="s">
+        <v>318</v>
+      </c>
+      <c r="C158"/>
+      <c r="D158"/>
+      <c r="E158" t="n">
+        <v>85.35418</v>
+      </c>
+      <c r="F158" t="n">
+        <v>90.45215</v>
+      </c>
+      <c r="G158"/>
+      <c r="H158"/>
+      <c r="I158"/>
+      <c r="J158"/>
+      <c r="K158"/>
+      <c r="L158"/>
+      <c r="M158" t="n">
+        <v>88.57374</v>
+      </c>
+      <c r="N158" t="n">
+        <v>98.39496</v>
+      </c>
+      <c r="O158" t="n">
+        <v>98.70905</v>
+      </c>
+      <c r="P158"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>319</v>
+      </c>
+      <c r="B159" t="s">
+        <v>320</v>
+      </c>
+      <c r="C159" t="n">
+        <v>92.37169</v>
+      </c>
+      <c r="D159" t="n">
+        <v>89.43175</v>
+      </c>
+      <c r="E159" t="n">
+        <v>93.7973</v>
+      </c>
+      <c r="F159" t="n">
+        <v>94.51134</v>
+      </c>
+      <c r="G159" t="n">
+        <v>94.55686</v>
+      </c>
+      <c r="H159" t="n">
+        <v>93.44365</v>
+      </c>
+      <c r="I159"/>
+      <c r="J159" t="n">
+        <v>86.83774</v>
+      </c>
+      <c r="K159" t="n">
+        <v>80.03581</v>
+      </c>
+      <c r="L159" t="n">
+        <v>89.28571</v>
+      </c>
+      <c r="M159" t="n">
+        <v>83.18888</v>
+      </c>
+      <c r="N159" t="n">
+        <v>84.59801</v>
+      </c>
+      <c r="O159" t="n">
+        <v>81.02223</v>
+      </c>
+      <c r="P159"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>321</v>
+      </c>
+      <c r="B160" t="s">
+        <v>322</v>
+      </c>
+      <c r="C160" t="n">
+        <v>96.04474</v>
+      </c>
+      <c r="D160" t="n">
+        <v>97.0106</v>
+      </c>
+      <c r="E160" t="n">
+        <v>96.08941</v>
+      </c>
+      <c r="F160" t="n">
+        <v>95.93754</v>
+      </c>
+      <c r="G160" t="n">
+        <v>94.31424</v>
+      </c>
+      <c r="H160" t="n">
+        <v>91.9407</v>
+      </c>
+      <c r="I160" t="n">
+        <v>94.26032</v>
+      </c>
+      <c r="J160" t="n">
+        <v>93.04284</v>
+      </c>
+      <c r="K160" t="n">
+        <v>90.45945</v>
+      </c>
+      <c r="L160" t="n">
+        <v>88.70605</v>
+      </c>
+      <c r="M160" t="n">
+        <v>86.2603</v>
+      </c>
+      <c r="N160" t="n">
+        <v>84.6723</v>
+      </c>
+      <c r="O160" t="n">
+        <v>81.77491</v>
+      </c>
+      <c r="P160"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>323</v>
+      </c>
+      <c r="B161" t="s">
+        <v>324</v>
+      </c>
+      <c r="C161"/>
+      <c r="D161"/>
+      <c r="E161"/>
+      <c r="F161"/>
+      <c r="G161"/>
+      <c r="H161"/>
+      <c r="I161"/>
+      <c r="J161"/>
+      <c r="K161"/>
+      <c r="L161"/>
+      <c r="M161"/>
+      <c r="N161"/>
+      <c r="O161"/>
+      <c r="P161"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>325</v>
+      </c>
+      <c r="B162" t="s">
+        <v>326</v>
+      </c>
+      <c r="C162" t="n">
+        <v>97.04312</v>
+      </c>
+      <c r="D162" t="n">
+        <v>97.48809</v>
+      </c>
+      <c r="E162" t="n">
+        <v>98.05008</v>
+      </c>
+      <c r="F162" t="n">
+        <v>97.92175</v>
+      </c>
+      <c r="G162" t="n">
+        <v>97.12028</v>
+      </c>
+      <c r="H162" t="n">
+        <v>96.07571</v>
+      </c>
+      <c r="I162"/>
+      <c r="J162" t="n">
+        <v>95.40891</v>
+      </c>
+      <c r="K162" t="n">
+        <v>94.72486</v>
+      </c>
+      <c r="L162" t="n">
+        <v>94.62802</v>
+      </c>
+      <c r="M162" t="n">
+        <v>93.94276</v>
+      </c>
+      <c r="N162" t="n">
+        <v>92.31974</v>
+      </c>
+      <c r="O162" t="n">
+        <v>94.78603</v>
+      </c>
+      <c r="P162"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>327</v>
+      </c>
+      <c r="B163" t="s">
+        <v>328</v>
+      </c>
+      <c r="C163" t="n">
+        <v>89.34666</v>
+      </c>
+      <c r="D163" t="n">
+        <v>86.45957</v>
+      </c>
+      <c r="E163"/>
+      <c r="F163"/>
+      <c r="G163"/>
+      <c r="H163"/>
+      <c r="I163"/>
+      <c r="J163" t="n">
+        <v>98.37024</v>
+      </c>
+      <c r="K163"/>
+      <c r="L163" t="n">
+        <v>98.27874</v>
+      </c>
+      <c r="M163" t="n">
+        <v>95.36435</v>
+      </c>
+      <c r="N163" t="n">
+        <v>93.84516</v>
+      </c>
+      <c r="O163" t="n">
+        <v>94.80324</v>
+      </c>
+      <c r="P163"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>329</v>
+      </c>
+      <c r="B164" t="s">
+        <v>330</v>
+      </c>
+      <c r="C164"/>
+      <c r="D164"/>
+      <c r="E164"/>
+      <c r="F164"/>
+      <c r="G164"/>
+      <c r="H164"/>
+      <c r="I164"/>
+      <c r="J164"/>
+      <c r="K164"/>
+      <c r="L164" t="n">
+        <v>91.99763</v>
+      </c>
+      <c r="M164" t="n">
+        <v>92.20281</v>
+      </c>
+      <c r="N164"/>
+      <c r="O164" t="n">
+        <v>92.70895</v>
+      </c>
+      <c r="P164"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>331</v>
+      </c>
+      <c r="B165" t="s">
+        <v>332</v>
+      </c>
+      <c r="C165"/>
+      <c r="D165"/>
+      <c r="E165" t="n">
+        <v>94.66858</v>
+      </c>
+      <c r="F165" t="n">
+        <v>97.14781</v>
+      </c>
+      <c r="G165" t="n">
+        <v>97.62006</v>
+      </c>
+      <c r="H165" t="n">
+        <v>96.42781</v>
+      </c>
+      <c r="I165"/>
+      <c r="J165" t="n">
+        <v>96.86113</v>
+      </c>
+      <c r="K165" t="n">
+        <v>98.5274</v>
+      </c>
+      <c r="L165" t="n">
+        <v>97.54983</v>
+      </c>
+      <c r="M165" t="n">
+        <v>98.47309</v>
+      </c>
+      <c r="N165"/>
+      <c r="O165"/>
+      <c r="P165" t="n">
+        <v>96.37139</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>333</v>
+      </c>
+      <c r="B166" t="s">
+        <v>334</v>
+      </c>
+      <c r="C166"/>
+      <c r="D166"/>
+      <c r="E166"/>
+      <c r="F166"/>
+      <c r="G166"/>
+      <c r="H166"/>
+      <c r="I166"/>
+      <c r="J166"/>
+      <c r="K166"/>
+      <c r="L166"/>
+      <c r="M166" t="n">
+        <v>91.91023</v>
+      </c>
+      <c r="N166" t="n">
+        <v>91.69042</v>
+      </c>
+      <c r="O166" t="n">
+        <v>93.4481</v>
+      </c>
+      <c r="P166" t="n">
+        <v>96.48658</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>335</v>
+      </c>
+      <c r="B167" t="s">
+        <v>336</v>
+      </c>
+      <c r="C167" t="n">
+        <v>57.40095</v>
+      </c>
+      <c r="D167"/>
+      <c r="E167"/>
+      <c r="F167" t="n">
+        <v>64.08888</v>
+      </c>
+      <c r="G167" t="n">
+        <v>68.46191</v>
+      </c>
+      <c r="H167" t="n">
+        <v>70.37307</v>
+      </c>
+      <c r="I167" t="n">
+        <v>71.42183</v>
+      </c>
+      <c r="J167" t="n">
+        <v>72.62398</v>
+      </c>
+      <c r="K167" t="n">
+        <v>74.16419</v>
+      </c>
+      <c r="L167" t="n">
+        <v>73.80063</v>
+      </c>
+      <c r="M167" t="n">
+        <v>73.3892</v>
+      </c>
+      <c r="N167" t="n">
+        <v>73.3096</v>
+      </c>
+      <c r="O167" t="n">
+        <v>73.34614</v>
+      </c>
+      <c r="P167"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>337</v>
+      </c>
+      <c r="B168" t="s">
+        <v>338</v>
+      </c>
+      <c r="C168"/>
+      <c r="D168"/>
+      <c r="E168"/>
+      <c r="F168"/>
+      <c r="G168"/>
+      <c r="H168" t="n">
+        <v>99.70359</v>
+      </c>
+      <c r="I168" t="n">
+        <v>99.86248</v>
+      </c>
+      <c r="J168" t="n">
+        <v>98.34468</v>
+      </c>
+      <c r="K168" t="n">
+        <v>96.99485</v>
+      </c>
+      <c r="L168" t="n">
+        <v>94.22315</v>
+      </c>
+      <c r="M168" t="n">
+        <v>92.74722</v>
+      </c>
+      <c r="N168" t="n">
+        <v>93.15476</v>
+      </c>
+      <c r="O168" t="n">
+        <v>91.3701</v>
+      </c>
+      <c r="P168"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>339</v>
+      </c>
+      <c r="B169" t="s">
+        <v>340</v>
+      </c>
+      <c r="C169" t="n">
+        <v>85.18156</v>
+      </c>
+      <c r="D169" t="n">
+        <v>88.32342</v>
+      </c>
+      <c r="E169" t="n">
+        <v>94.55387</v>
+      </c>
+      <c r="F169" t="n">
+        <v>95.24073</v>
+      </c>
+      <c r="G169" t="n">
+        <v>99.51214</v>
+      </c>
+      <c r="H169"/>
+      <c r="I169"/>
+      <c r="J169" t="n">
+        <v>94.25153</v>
+      </c>
+      <c r="K169" t="n">
+        <v>93.57471</v>
+      </c>
+      <c r="L169" t="n">
+        <v>93.69388</v>
+      </c>
+      <c r="M169"/>
+      <c r="N169" t="n">
+        <v>93.83314</v>
+      </c>
+      <c r="O169"/>
+      <c r="P169"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>341</v>
+      </c>
+      <c r="B170" t="s">
+        <v>342</v>
+      </c>
+      <c r="C170"/>
+      <c r="D170"/>
+      <c r="E170"/>
+      <c r="F170"/>
+      <c r="G170"/>
+      <c r="H170"/>
+      <c r="I170"/>
+      <c r="J170"/>
+      <c r="K170"/>
+      <c r="L170"/>
+      <c r="M170"/>
+      <c r="N170"/>
+      <c r="O170"/>
+      <c r="P170"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>343</v>
+      </c>
+      <c r="B171" t="s">
+        <v>344</v>
+      </c>
+      <c r="C171"/>
+      <c r="D171"/>
+      <c r="E171"/>
+      <c r="F171"/>
+      <c r="G171"/>
+      <c r="H171"/>
+      <c r="I171"/>
+      <c r="J171"/>
+      <c r="K171"/>
+      <c r="L171"/>
+      <c r="M171"/>
+      <c r="N171"/>
+      <c r="O171"/>
+      <c r="P171"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>345</v>
+      </c>
+      <c r="B172" t="s">
+        <v>346</v>
+      </c>
+      <c r="C172"/>
+      <c r="D172"/>
+      <c r="E172"/>
+      <c r="F172"/>
+      <c r="G172"/>
+      <c r="H172"/>
+      <c r="I172"/>
+      <c r="J172"/>
+      <c r="K172"/>
+      <c r="L172"/>
+      <c r="M172"/>
+      <c r="N172"/>
+      <c r="O172"/>
+      <c r="P172"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>347</v>
+      </c>
+      <c r="B173" t="s">
+        <v>348</v>
+      </c>
+      <c r="C173"/>
+      <c r="D173"/>
+      <c r="E173"/>
+      <c r="F173"/>
+      <c r="G173"/>
+      <c r="H173"/>
+      <c r="I173"/>
+      <c r="J173"/>
+      <c r="K173"/>
+      <c r="L173"/>
+      <c r="M173"/>
+      <c r="N173"/>
+      <c r="O173"/>
+      <c r="P173"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>349</v>
+      </c>
+      <c r="B174" t="s">
+        <v>350</v>
+      </c>
+      <c r="C174" t="n">
+        <v>93.23972</v>
+      </c>
+      <c r="D174"/>
+      <c r="E174"/>
+      <c r="F174"/>
+      <c r="G174"/>
+      <c r="H174" t="n">
+        <v>96.24084</v>
+      </c>
+      <c r="I174" t="n">
+        <v>95.40652</v>
+      </c>
+      <c r="J174" t="n">
+        <v>96.44367</v>
+      </c>
+      <c r="K174" t="n">
+        <v>96.79204</v>
+      </c>
+      <c r="L174" t="n">
+        <v>96.94665</v>
+      </c>
+      <c r="M174" t="n">
+        <v>97.16326</v>
+      </c>
+      <c r="N174" t="n">
+        <v>97.15375</v>
+      </c>
+      <c r="O174" t="n">
+        <v>97.66707</v>
+      </c>
+      <c r="P174"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>351</v>
+      </c>
+      <c r="B175" t="s">
+        <v>352</v>
+      </c>
+      <c r="C175"/>
+      <c r="D175"/>
+      <c r="E175"/>
+      <c r="F175"/>
+      <c r="G175"/>
+      <c r="H175" t="n">
+        <v>75.52366</v>
+      </c>
+      <c r="I175" t="n">
+        <v>80.03561</v>
+      </c>
+      <c r="J175" t="n">
+        <v>80.72798</v>
+      </c>
+      <c r="K175"/>
+      <c r="L175"/>
+      <c r="M175"/>
+      <c r="N175"/>
+      <c r="O175"/>
+      <c r="P175"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>353</v>
+      </c>
+      <c r="B176" t="s">
+        <v>354</v>
+      </c>
+      <c r="C176"/>
+      <c r="D176"/>
+      <c r="E176"/>
+      <c r="F176"/>
+      <c r="G176"/>
+      <c r="H176"/>
+      <c r="I176"/>
+      <c r="J176"/>
+      <c r="K176"/>
+      <c r="L176"/>
+      <c r="M176"/>
+      <c r="N176"/>
+      <c r="O176"/>
+      <c r="P176"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>355</v>
+      </c>
+      <c r="B177" t="s">
+        <v>356</v>
+      </c>
+      <c r="C177" t="n">
+        <v>90.19781</v>
+      </c>
+      <c r="D177" t="n">
+        <v>90.14853</v>
+      </c>
+      <c r="E177" t="n">
+        <v>89.94712</v>
+      </c>
+      <c r="F177" t="n">
+        <v>90.77877</v>
+      </c>
+      <c r="G177" t="n">
+        <v>90.23409</v>
+      </c>
+      <c r="H177" t="n">
+        <v>89.55526</v>
+      </c>
+      <c r="I177" t="n">
+        <v>89.76926</v>
+      </c>
+      <c r="J177" t="n">
+        <v>91.17409</v>
+      </c>
+      <c r="K177" t="n">
+        <v>90.49907</v>
+      </c>
+      <c r="L177" t="n">
+        <v>89.11599</v>
+      </c>
+      <c r="M177"/>
+      <c r="N177"/>
+      <c r="O177" t="n">
+        <v>84.99597</v>
+      </c>
+      <c r="P177"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>357</v>
+      </c>
+      <c r="B178" t="s">
+        <v>358</v>
+      </c>
+      <c r="C178" t="n">
+        <v>99.58617</v>
+      </c>
+      <c r="D178" t="n">
+        <v>99.48478</v>
+      </c>
+      <c r="E178" t="n">
+        <v>99.21803</v>
+      </c>
+      <c r="F178" t="n">
+        <v>99.57069</v>
+      </c>
+      <c r="G178" t="n">
+        <v>99.19153</v>
+      </c>
+      <c r="H178" t="n">
+        <v>99.07675</v>
+      </c>
+      <c r="I178" t="n">
+        <v>99.10377</v>
+      </c>
+      <c r="J178" t="n">
+        <v>99.15316</v>
+      </c>
+      <c r="K178" t="n">
+        <v>99.17584</v>
+      </c>
+      <c r="L178" t="n">
+        <v>99.30888</v>
+      </c>
+      <c r="M178" t="n">
+        <v>98.61965</v>
+      </c>
+      <c r="N178" t="n">
+        <v>98.86819</v>
+      </c>
+      <c r="O178" t="n">
+        <v>99.1236</v>
+      </c>
+      <c r="P178"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>359</v>
+      </c>
+      <c r="B179" t="s">
+        <v>360</v>
+      </c>
+      <c r="C179"/>
+      <c r="D179"/>
+      <c r="E179"/>
+      <c r="F179"/>
+      <c r="G179"/>
+      <c r="H179"/>
+      <c r="I179"/>
+      <c r="J179"/>
+      <c r="K179"/>
+      <c r="L179"/>
+      <c r="M179"/>
+      <c r="N179" t="n">
+        <v>41.30411</v>
+      </c>
+      <c r="O179"/>
+      <c r="P179"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>361</v>
+      </c>
+      <c r="B180" t="s">
+        <v>362</v>
+      </c>
+      <c r="C180" t="n">
+        <v>99.94146</v>
+      </c>
+      <c r="D180" t="n">
+        <v>99.88714</v>
+      </c>
+      <c r="E180" t="n">
+        <v>99.88405</v>
+      </c>
+      <c r="F180" t="n">
+        <v>99.79796</v>
+      </c>
+      <c r="G180" t="n">
+        <v>99.7611</v>
+      </c>
+      <c r="H180" t="n">
+        <v>99.62227</v>
+      </c>
+      <c r="I180" t="n">
+        <v>99.66427</v>
+      </c>
+      <c r="J180" t="n">
+        <v>99.74279</v>
+      </c>
+      <c r="K180" t="n">
+        <v>99.75302</v>
+      </c>
+      <c r="L180" t="n">
+        <v>99.81788</v>
+      </c>
+      <c r="M180" t="n">
+        <v>99.70552</v>
+      </c>
+      <c r="N180" t="n">
+        <v>99.66333</v>
+      </c>
+      <c r="O180" t="n">
+        <v>99.70918</v>
+      </c>
+      <c r="P180"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>363</v>
+      </c>
+      <c r="B181" t="s">
+        <v>364</v>
+      </c>
+      <c r="C181"/>
+      <c r="D181" t="n">
+        <v>99.68819</v>
+      </c>
+      <c r="E181" t="n">
+        <v>99.75276</v>
+      </c>
+      <c r="F181" t="n">
+        <v>98.23297</v>
+      </c>
+      <c r="G181" t="n">
+        <v>96.08765</v>
+      </c>
+      <c r="H181" t="n">
+        <v>95.51935</v>
+      </c>
+      <c r="I181" t="n">
+        <v>95.02982</v>
+      </c>
+      <c r="J181" t="n">
+        <v>94.96004</v>
+      </c>
+      <c r="K181" t="n">
+        <v>94.60926</v>
+      </c>
+      <c r="L181" t="n">
+        <v>92.58995</v>
+      </c>
+      <c r="M181" t="n">
+        <v>94.30483</v>
+      </c>
+      <c r="N181" t="n">
+        <v>94.0331</v>
+      </c>
+      <c r="O181" t="n">
+        <v>93.79381</v>
+      </c>
+      <c r="P181"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>365</v>
+      </c>
+      <c r="B182" t="s">
+        <v>366</v>
+      </c>
+      <c r="C182"/>
+      <c r="D182"/>
+      <c r="E182"/>
+      <c r="F182"/>
+      <c r="G182"/>
+      <c r="H182"/>
+      <c r="I182"/>
+      <c r="J182"/>
+      <c r="K182"/>
+      <c r="L182"/>
+      <c r="M182"/>
+      <c r="N182"/>
+      <c r="O182"/>
+      <c r="P182"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>367</v>
+      </c>
+      <c r="B183" t="s">
+        <v>368</v>
+      </c>
+      <c r="C183"/>
+      <c r="D183" t="n">
+        <v>91.06766</v>
+      </c>
+      <c r="E183" t="n">
+        <v>90.46241</v>
+      </c>
+      <c r="F183"/>
+      <c r="G183"/>
+      <c r="H183" t="n">
+        <v>90.07117</v>
+      </c>
+      <c r="I183" t="n">
+        <v>89.11051</v>
+      </c>
+      <c r="J183" t="n">
+        <v>84.63104</v>
+      </c>
+      <c r="K183" t="n">
+        <v>88.73666</v>
+      </c>
+      <c r="L183" t="n">
+        <v>90.77675</v>
+      </c>
+      <c r="M183"/>
+      <c r="N183" t="n">
+        <v>92.24329</v>
+      </c>
+      <c r="O183"/>
+      <c r="P183"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>369</v>
+      </c>
+      <c r="B184" t="s">
+        <v>370</v>
+      </c>
+      <c r="C184" t="n">
+        <v>72.09778</v>
+      </c>
+      <c r="D184" t="n">
+        <v>72.48037</v>
+      </c>
+      <c r="E184" t="n">
+        <v>72.38299</v>
+      </c>
+      <c r="F184" t="n">
+        <v>72.5745</v>
+      </c>
+      <c r="G184" t="n">
+        <v>75.15201</v>
+      </c>
+      <c r="H184" t="n">
+        <v>76.14411</v>
+      </c>
+      <c r="I184" t="n">
+        <v>82.15229</v>
+      </c>
+      <c r="J184" t="n">
+        <v>84.73733</v>
+      </c>
+      <c r="K184"/>
+      <c r="L184"/>
+      <c r="M184"/>
+      <c r="N184"/>
+      <c r="O184"/>
+      <c r="P184"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>371</v>
+      </c>
+      <c r="B185" t="s">
+        <v>372</v>
+      </c>
+      <c r="C185" t="n">
+        <v>99.42551</v>
+      </c>
+      <c r="D185" t="n">
+        <v>99.7246</v>
+      </c>
+      <c r="E185" t="n">
+        <v>99.52148</v>
+      </c>
+      <c r="F185" t="n">
+        <v>99.16749</v>
+      </c>
+      <c r="G185" t="n">
+        <v>96.96117</v>
+      </c>
+      <c r="H185" t="n">
+        <v>95.46892</v>
+      </c>
+      <c r="I185" t="n">
+        <v>95.14267</v>
+      </c>
+      <c r="J185" t="n">
+        <v>96.25885</v>
+      </c>
+      <c r="K185" t="n">
+        <v>98.41359</v>
+      </c>
+      <c r="L185" t="n">
+        <v>99.34996</v>
+      </c>
+      <c r="M185" t="n">
+        <v>99.39628</v>
+      </c>
+      <c r="N185" t="n">
+        <v>99.47389</v>
+      </c>
+      <c r="O185" t="n">
+        <v>99.48713</v>
+      </c>
+      <c r="P185"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>373</v>
+      </c>
+      <c r="B186" t="s">
+        <v>374</v>
+      </c>
+      <c r="C186" t="n">
+        <v>95.57406</v>
+      </c>
+      <c r="D186" t="n">
+        <v>95.29014</v>
+      </c>
+      <c r="E186" t="n">
+        <v>95.17534</v>
+      </c>
+      <c r="F186" t="n">
+        <v>94.94693</v>
+      </c>
+      <c r="G186" t="n">
+        <v>94.54745</v>
+      </c>
+      <c r="H186" t="n">
+        <v>93.50036</v>
+      </c>
+      <c r="I186" t="n">
+        <v>93.05577</v>
+      </c>
+      <c r="J186" t="n">
+        <v>92.98386</v>
+      </c>
+      <c r="K186" t="n">
+        <v>93.58974</v>
+      </c>
+      <c r="L186" t="n">
+        <v>93.7037</v>
+      </c>
+      <c r="M186" t="n">
+        <v>93.6583</v>
+      </c>
+      <c r="N186" t="n">
+        <v>93.64007</v>
+      </c>
+      <c r="O186" t="n">
+        <v>93.37542</v>
+      </c>
+      <c r="P186"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>375</v>
+      </c>
+      <c r="B187" t="s">
+        <v>376</v>
+      </c>
+      <c r="C187" t="n">
+        <v>93.87026</v>
+      </c>
+      <c r="D187" t="n">
+        <v>94.567</v>
+      </c>
+      <c r="E187" t="n">
+        <v>94.8641</v>
+      </c>
+      <c r="F187" t="n">
+        <v>91.65736</v>
+      </c>
+      <c r="G187" t="n">
+        <v>92.45148</v>
+      </c>
+      <c r="H187" t="n">
+        <v>92.52519</v>
+      </c>
+      <c r="I187" t="n">
+        <v>89.92416</v>
+      </c>
+      <c r="J187" t="n">
+        <v>91.0215</v>
+      </c>
+      <c r="K187" t="n">
+        <v>91.80557</v>
+      </c>
+      <c r="L187" t="n">
+        <v>92.90726</v>
+      </c>
+      <c r="M187" t="n">
+        <v>93.09819</v>
+      </c>
+      <c r="N187"/>
+      <c r="O187"/>
+      <c r="P187"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>377</v>
+      </c>
+      <c r="B188" t="s">
+        <v>378</v>
+      </c>
+      <c r="C188" t="n">
+        <v>93.67305</v>
+      </c>
+      <c r="D188" t="n">
+        <v>93.29824</v>
+      </c>
+      <c r="E188" t="n">
+        <v>95.86068</v>
+      </c>
+      <c r="F188" t="n">
+        <v>96.94485</v>
+      </c>
+      <c r="G188" t="n">
+        <v>96.88812</v>
+      </c>
+      <c r="H188" t="n">
+        <v>97.43046</v>
+      </c>
+      <c r="I188" t="n">
+        <v>97.28319</v>
+      </c>
+      <c r="J188" t="n">
+        <v>96.10859</v>
+      </c>
+      <c r="K188" t="n">
+        <v>97.66174</v>
+      </c>
+      <c r="L188" t="n">
+        <v>97.29364</v>
+      </c>
+      <c r="M188" t="n">
+        <v>97.69991</v>
+      </c>
+      <c r="N188" t="n">
+        <v>97.31381</v>
+      </c>
+      <c r="O188" t="n">
+        <v>98.38232</v>
+      </c>
+      <c r="P188"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>379</v>
+      </c>
+      <c r="B189" t="s">
+        <v>380</v>
+      </c>
+      <c r="C189" t="n">
+        <v>53.00334</v>
+      </c>
+      <c r="D189" t="n">
+        <v>57.79153</v>
+      </c>
+      <c r="E189" t="n">
+        <v>72.88328</v>
+      </c>
+      <c r="F189" t="n">
+        <v>81.48613</v>
+      </c>
+      <c r="G189" t="n">
+        <v>85.9695</v>
+      </c>
+      <c r="H189" t="n">
+        <v>90.49106</v>
+      </c>
+      <c r="I189" t="n">
+        <v>95.99299</v>
+      </c>
+      <c r="J189"/>
+      <c r="K189" t="n">
+        <v>97.59406</v>
+      </c>
+      <c r="L189"/>
+      <c r="M189"/>
+      <c r="N189"/>
+      <c r="O189"/>
+      <c r="P189"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>381</v>
+      </c>
+      <c r="B190" t="s">
+        <v>382</v>
+      </c>
+      <c r="C190"/>
+      <c r="D190"/>
+      <c r="E190"/>
+      <c r="F190"/>
+      <c r="G190"/>
+      <c r="H190"/>
+      <c r="I190" t="n">
+        <v>93.85293</v>
+      </c>
+      <c r="J190" t="n">
+        <v>94.21941</v>
+      </c>
+      <c r="K190" t="n">
+        <v>94.63296</v>
+      </c>
+      <c r="L190" t="n">
+        <v>95.60995</v>
+      </c>
+      <c r="M190"/>
+      <c r="N190"/>
+      <c r="O190"/>
+      <c r="P190"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>383</v>
+      </c>
+      <c r="B191" t="s">
+        <v>384</v>
+      </c>
+      <c r="C191"/>
+      <c r="D191"/>
+      <c r="E191"/>
+      <c r="F191"/>
+      <c r="G191"/>
+      <c r="H191"/>
+      <c r="I191"/>
+      <c r="J191"/>
+      <c r="K191" t="n">
+        <v>70.50015</v>
+      </c>
+      <c r="L191" t="n">
+        <v>77.29942</v>
+      </c>
+      <c r="M191" t="n">
+        <v>85.01481</v>
+      </c>
+      <c r="N191" t="n">
+        <v>91.11958</v>
+      </c>
+      <c r="O191"/>
+      <c r="P191"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>385</v>
+      </c>
+      <c r="B192" t="s">
+        <v>386</v>
+      </c>
+      <c r="C192" t="n">
+        <v>83.29333</v>
+      </c>
+      <c r="D192" t="n">
+        <v>85.45472</v>
+      </c>
+      <c r="E192" t="n">
+        <v>88.2755</v>
+      </c>
+      <c r="F192" t="n">
+        <v>86.3035</v>
+      </c>
+      <c r="G192" t="n">
+        <v>88.75133</v>
+      </c>
+      <c r="H192" t="n">
+        <v>88.37891</v>
+      </c>
+      <c r="I192" t="n">
+        <v>90.36021</v>
+      </c>
+      <c r="J192" t="n">
+        <v>89.03069</v>
+      </c>
+      <c r="K192" t="n">
+        <v>90.43752</v>
+      </c>
+      <c r="L192"/>
+      <c r="M192"/>
+      <c r="N192"/>
+      <c r="O192"/>
+      <c r="P192"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>387</v>
+      </c>
+      <c r="B193" t="s">
+        <v>388</v>
+      </c>
+      <c r="C193"/>
+      <c r="D193" t="n">
+        <v>98.64381</v>
+      </c>
+      <c r="E193"/>
+      <c r="F193"/>
+      <c r="G193" t="n">
+        <v>95.45508</v>
+      </c>
+      <c r="H193" t="n">
+        <v>98.82868</v>
+      </c>
+      <c r="I193" t="n">
+        <v>98.69563</v>
+      </c>
+      <c r="J193"/>
+      <c r="K193"/>
+      <c r="L193"/>
+      <c r="M193"/>
+      <c r="N193"/>
+      <c r="O193" t="n">
+        <v>89.82505</v>
+      </c>
+      <c r="P193"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>389</v>
+      </c>
+      <c r="B194" t="s">
+        <v>390</v>
+      </c>
+      <c r="C194" t="n">
+        <v>93.85632</v>
+      </c>
+      <c r="D194" t="n">
+        <v>93.063</v>
+      </c>
+      <c r="E194" t="n">
+        <v>89.87859</v>
+      </c>
+      <c r="F194" t="n">
+        <v>90.99373</v>
+      </c>
+      <c r="G194" t="n">
+        <v>91.68451</v>
+      </c>
+      <c r="H194" t="n">
+        <v>88.70078</v>
+      </c>
+      <c r="I194"/>
+      <c r="J194" t="n">
+        <v>93.50271</v>
+      </c>
+      <c r="K194" t="n">
+        <v>94.3281</v>
+      </c>
+      <c r="L194" t="n">
+        <v>95.16174</v>
+      </c>
+      <c r="M194" t="n">
+        <v>95.18178</v>
+      </c>
+      <c r="N194"/>
+      <c r="O194"/>
+      <c r="P194"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>391</v>
+      </c>
+      <c r="B195" t="s">
+        <v>392</v>
+      </c>
+      <c r="C195" t="n">
+        <v>96.27408</v>
+      </c>
+      <c r="D195" t="n">
+        <v>96.64355</v>
+      </c>
+      <c r="E195" t="n">
+        <v>97.4057</v>
+      </c>
+      <c r="F195" t="n">
+        <v>97.37177</v>
+      </c>
+      <c r="G195" t="n">
+        <v>97.40614</v>
+      </c>
+      <c r="H195" t="n">
+        <v>97.3546</v>
+      </c>
+      <c r="I195" t="n">
+        <v>97.3725</v>
+      </c>
+      <c r="J195" t="n">
+        <v>97.29514</v>
+      </c>
+      <c r="K195" t="n">
+        <v>98.15158</v>
+      </c>
+      <c r="L195" t="n">
+        <v>98.79719</v>
+      </c>
+      <c r="M195" t="n">
+        <v>99.10294</v>
+      </c>
+      <c r="N195" t="n">
+        <v>99.80001</v>
+      </c>
+      <c r="O195" t="n">
+        <v>98.86935</v>
+      </c>
+      <c r="P195"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>393</v>
+      </c>
+      <c r="B196" t="s">
+        <v>394</v>
+      </c>
+      <c r="C196" t="n">
+        <v>95.83562</v>
+      </c>
+      <c r="D196" t="n">
+        <v>96.37778</v>
+      </c>
+      <c r="E196" t="n">
+        <v>96.70993</v>
+      </c>
+      <c r="F196" t="n">
+        <v>97.14768</v>
+      </c>
+      <c r="G196" t="n">
+        <v>97.47519</v>
+      </c>
+      <c r="H196" t="n">
+        <v>97.78758</v>
+      </c>
+      <c r="I196" t="n">
+        <v>98.19209</v>
+      </c>
+      <c r="J196" t="n">
+        <v>98.6103</v>
+      </c>
+      <c r="K196" t="n">
+        <v>98.86166</v>
+      </c>
+      <c r="L196" t="n">
+        <v>96.48663</v>
+      </c>
+      <c r="M196" t="n">
+        <v>97.14829</v>
+      </c>
+      <c r="N196" t="n">
+        <v>96.21806</v>
+      </c>
+      <c r="O196" t="n">
+        <v>94.04068</v>
+      </c>
+      <c r="P196"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>395</v>
+      </c>
+      <c r="B197" t="s">
+        <v>396</v>
+      </c>
+      <c r="C197"/>
+      <c r="D197"/>
+      <c r="E197"/>
+      <c r="F197"/>
+      <c r="G197"/>
+      <c r="H197"/>
+      <c r="I197"/>
+      <c r="J197"/>
+      <c r="K197"/>
+      <c r="L197"/>
+      <c r="M197"/>
+      <c r="N197"/>
+      <c r="O197"/>
+      <c r="P197"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>397</v>
+      </c>
+      <c r="B198" t="s">
+        <v>398</v>
+      </c>
+      <c r="C198"/>
+      <c r="D198"/>
+      <c r="E198" t="n">
+        <v>87.95066</v>
+      </c>
+      <c r="F198" t="n">
+        <v>72.31559</v>
+      </c>
+      <c r="G198" t="n">
+        <v>81.46838</v>
+      </c>
+      <c r="H198" t="n">
+        <v>77.95307</v>
+      </c>
+      <c r="I198"/>
+      <c r="J198"/>
+      <c r="K198"/>
+      <c r="L198"/>
+      <c r="M198"/>
+      <c r="N198"/>
+      <c r="O198"/>
+      <c r="P198"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>399</v>
+      </c>
+      <c r="B199" t="s">
+        <v>400</v>
+      </c>
+      <c r="C199"/>
+      <c r="D199"/>
+      <c r="E199"/>
+      <c r="F199"/>
+      <c r="G199"/>
+      <c r="H199"/>
+      <c r="I199"/>
+      <c r="J199"/>
+      <c r="K199"/>
+      <c r="L199"/>
+      <c r="M199"/>
+      <c r="N199"/>
+      <c r="O199"/>
+      <c r="P199"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>401</v>
+      </c>
+      <c r="B200" t="s">
+        <v>402</v>
+      </c>
+      <c r="C200"/>
+      <c r="D200"/>
+      <c r="E200"/>
+      <c r="F200" t="n">
+        <v>84.12497</v>
+      </c>
+      <c r="G200" t="n">
+        <v>86.99029</v>
+      </c>
+      <c r="H200" t="n">
+        <v>88.34973</v>
+      </c>
+      <c r="I200" t="n">
+        <v>86.94729</v>
+      </c>
+      <c r="J200" t="n">
+        <v>90.47655</v>
+      </c>
+      <c r="K200"/>
+      <c r="L200" t="n">
+        <v>87.26387</v>
+      </c>
+      <c r="M200" t="n">
+        <v>87.95232</v>
+      </c>
+      <c r="N200" t="n">
+        <v>88.78775</v>
+      </c>
+      <c r="O200" t="n">
+        <v>91.18603</v>
+      </c>
+      <c r="P200"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>403</v>
+      </c>
+      <c r="B201" t="s">
+        <v>404</v>
+      </c>
+      <c r="C201"/>
+      <c r="D201"/>
+      <c r="E201"/>
+      <c r="F201"/>
+      <c r="G201"/>
+      <c r="H201"/>
+      <c r="I201"/>
+      <c r="J201"/>
+      <c r="K201"/>
+      <c r="L201" t="n">
+        <v>91.28761</v>
+      </c>
+      <c r="M201" t="n">
+        <v>88.09892</v>
+      </c>
+      <c r="N201" t="n">
+        <v>90.91658</v>
+      </c>
+      <c r="O201"/>
+      <c r="P201"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>405</v>
+      </c>
+      <c r="B202" t="s">
+        <v>406</v>
+      </c>
+      <c r="C202"/>
+      <c r="D202"/>
+      <c r="E202" t="n">
+        <v>91.89082</v>
+      </c>
+      <c r="F202" t="n">
+        <v>88.13285</v>
+      </c>
+      <c r="G202" t="n">
+        <v>88.16186</v>
+      </c>
+      <c r="H202" t="n">
+        <v>90.07267</v>
+      </c>
+      <c r="I202" t="n">
+        <v>89.14837</v>
+      </c>
+      <c r="J202" t="n">
+        <v>88.84819</v>
+      </c>
+      <c r="K202" t="n">
+        <v>89.03739</v>
+      </c>
+      <c r="L202" t="n">
+        <v>90.12964</v>
+      </c>
+      <c r="M202" t="n">
+        <v>93.6544</v>
+      </c>
+      <c r="N202" t="n">
+        <v>96.95903</v>
+      </c>
+      <c r="O202" t="n">
+        <v>97.92538</v>
+      </c>
+      <c r="P202"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>407</v>
+      </c>
+      <c r="B203" t="s">
+        <v>408</v>
+      </c>
+      <c r="C203" t="n">
+        <v>99.9512</v>
+      </c>
+      <c r="D203" t="n">
+        <v>99.94393</v>
+      </c>
+      <c r="E203" t="n">
+        <v>99.94273</v>
+      </c>
+      <c r="F203" t="n">
+        <v>99.92726</v>
+      </c>
+      <c r="G203" t="n">
+        <v>98.2001</v>
+      </c>
+      <c r="H203" t="n">
+        <v>98.77175</v>
+      </c>
+      <c r="I203" t="n">
+        <v>98.53668</v>
+      </c>
+      <c r="J203" t="n">
+        <v>97.24107</v>
+      </c>
+      <c r="K203" t="n">
+        <v>99.51223</v>
+      </c>
+      <c r="L203" t="n">
+        <v>99.53821</v>
+      </c>
+      <c r="M203" t="n">
+        <v>99.46062</v>
+      </c>
+      <c r="N203" t="n">
+        <v>99.65832</v>
+      </c>
+      <c r="O203" t="n">
+        <v>99.81512</v>
+      </c>
+      <c r="P203"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>409</v>
+      </c>
+      <c r="B204" t="s">
+        <v>410</v>
+      </c>
+      <c r="C204"/>
+      <c r="D204"/>
+      <c r="E204"/>
+      <c r="F204"/>
+      <c r="G204"/>
+      <c r="H204" t="n">
+        <v>97.36265</v>
+      </c>
+      <c r="I204" t="n">
+        <v>99.72568</v>
+      </c>
+      <c r="J204" t="n">
+        <v>97.79915</v>
+      </c>
+      <c r="K204" t="n">
+        <v>98.8807</v>
+      </c>
+      <c r="L204" t="n">
+        <v>99.07448</v>
+      </c>
+      <c r="M204" t="n">
+        <v>99.53355</v>
+      </c>
+      <c r="N204"/>
+      <c r="O204"/>
+      <c r="P204"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>411</v>
+      </c>
+      <c r="B205" t="s">
+        <v>412</v>
+      </c>
+      <c r="C205" t="n">
+        <v>95.72964</v>
+      </c>
+      <c r="D205" t="n">
+        <v>95.85254</v>
+      </c>
+      <c r="E205" t="n">
+        <v>93.97737</v>
+      </c>
+      <c r="F205" t="n">
+        <v>93.68899</v>
+      </c>
+      <c r="G205" t="n">
+        <v>92.31477</v>
+      </c>
+      <c r="H205" t="n">
+        <v>92.61824</v>
+      </c>
+      <c r="I205" t="n">
+        <v>93.7433</v>
+      </c>
+      <c r="J205" t="n">
+        <v>94.82371</v>
+      </c>
+      <c r="K205" t="n">
+        <v>95.1727</v>
+      </c>
+      <c r="L205" t="n">
+        <v>93.73208</v>
+      </c>
+      <c r="M205" t="n">
+        <v>92.55912</v>
+      </c>
+      <c r="N205" t="n">
+        <v>91.87551</v>
+      </c>
+      <c r="O205" t="n">
+        <v>91.82453</v>
+      </c>
+      <c r="P205"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>413</v>
+      </c>
+      <c r="B206" t="s">
+        <v>414</v>
+      </c>
+      <c r="C206"/>
+      <c r="D206"/>
+      <c r="E206"/>
+      <c r="F206"/>
+      <c r="G206"/>
+      <c r="H206"/>
+      <c r="I206"/>
+      <c r="J206" t="n">
+        <v>90.13673</v>
+      </c>
+      <c r="K206" t="n">
+        <v>88.51969</v>
+      </c>
+      <c r="L206" t="n">
+        <v>87.73563</v>
+      </c>
+      <c r="M206" t="n">
+        <v>88.32274</v>
+      </c>
+      <c r="N206" t="n">
+        <v>88.54244</v>
+      </c>
+      <c r="O206"/>
+      <c r="P206"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>415</v>
+      </c>
+      <c r="B207" t="s">
+        <v>416</v>
+      </c>
+      <c r="C207" t="n">
+        <v>98.58111</v>
+      </c>
+      <c r="D207" t="n">
+        <v>98.8263</v>
+      </c>
+      <c r="E207" t="n">
+        <v>98.40765</v>
+      </c>
+      <c r="F207" t="n">
+        <v>98.51425</v>
+      </c>
+      <c r="G207" t="n">
+        <v>96.39713</v>
+      </c>
+      <c r="H207" t="n">
+        <v>98.91435</v>
+      </c>
+      <c r="I207"/>
+      <c r="J207"/>
+      <c r="K207"/>
+      <c r="L207"/>
+      <c r="M207"/>
+      <c r="N207"/>
+      <c r="O207"/>
+      <c r="P207"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>417</v>
+      </c>
+      <c r="B208" t="s">
+        <v>418</v>
+      </c>
+      <c r="C208" t="n">
+        <v>87.2699</v>
+      </c>
+      <c r="D208" t="n">
+        <v>89.93876</v>
+      </c>
+      <c r="E208" t="n">
+        <v>93.06624</v>
+      </c>
+      <c r="F208" t="n">
+        <v>91.76616</v>
+      </c>
+      <c r="G208" t="n">
+        <v>91.97624</v>
+      </c>
+      <c r="H208" t="n">
+        <v>91.00602</v>
+      </c>
+      <c r="I208" t="n">
+        <v>91.06921</v>
+      </c>
+      <c r="J208" t="n">
+        <v>92.16482</v>
+      </c>
+      <c r="K208" t="n">
+        <v>90.05838</v>
+      </c>
+      <c r="L208" t="n">
+        <v>91.90532</v>
+      </c>
+      <c r="M208" t="n">
+        <v>92.26338</v>
+      </c>
+      <c r="N208" t="n">
+        <v>92.44694</v>
+      </c>
+      <c r="O208" t="n">
+        <v>92.27759</v>
+      </c>
+      <c r="P208"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>419</v>
+      </c>
+      <c r="B209" t="s">
+        <v>420</v>
+      </c>
+      <c r="C209" t="n">
+        <v>95.8121</v>
+      </c>
+      <c r="D209" t="n">
+        <v>94.08117</v>
+      </c>
+      <c r="E209" t="n">
+        <v>91.52534</v>
+      </c>
+      <c r="F209"/>
+      <c r="G209"/>
+      <c r="H209" t="n">
+        <v>90.29661</v>
+      </c>
+      <c r="I209" t="n">
+        <v>92.18419</v>
+      </c>
+      <c r="J209"/>
+      <c r="K209" t="n">
+        <v>98.5308</v>
+      </c>
+      <c r="L209" t="n">
+        <v>98.5813</v>
+      </c>
+      <c r="M209" t="n">
+        <v>98.01475</v>
+      </c>
+      <c r="N209" t="n">
+        <v>99.32474</v>
+      </c>
+      <c r="O209" t="n">
+        <v>98.05641</v>
+      </c>
+      <c r="P209"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>421</v>
+      </c>
+      <c r="B210" t="s">
+        <v>422</v>
+      </c>
+      <c r="C210"/>
+      <c r="D210"/>
+      <c r="E210"/>
+      <c r="F210"/>
+      <c r="G210"/>
+      <c r="H210"/>
+      <c r="I210"/>
+      <c r="J210"/>
+      <c r="K210"/>
+      <c r="L210"/>
+      <c r="M210"/>
+      <c r="N210"/>
+      <c r="O210"/>
+      <c r="P210"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>423</v>
+      </c>
+      <c r="B211" t="s">
+        <v>424</v>
+      </c>
+      <c r="C211"/>
+      <c r="D211" t="n">
+        <v>65.84151</v>
+      </c>
+      <c r="E211"/>
+      <c r="F211" t="n">
+        <v>71.94642</v>
+      </c>
+      <c r="G211" t="n">
+        <v>74.71457</v>
+      </c>
+      <c r="H211" t="n">
+        <v>76.86367</v>
+      </c>
+      <c r="I211"/>
+      <c r="J211"/>
+      <c r="K211" t="n">
+        <v>76.46039</v>
+      </c>
+      <c r="L211"/>
+      <c r="M211" t="n">
+        <v>81.75454</v>
+      </c>
+      <c r="N211"/>
+      <c r="O211" t="n">
+        <v>86.27468</v>
+      </c>
+      <c r="P211"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>425</v>
+      </c>
+      <c r="B212" t="s">
+        <v>426</v>
+      </c>
+      <c r="C212" t="n">
+        <v>70.67359</v>
+      </c>
+      <c r="D212" t="n">
+        <v>70.46635</v>
+      </c>
+      <c r="E212" t="n">
+        <v>72.54633</v>
+      </c>
+      <c r="F212"/>
+      <c r="G212" t="n">
+        <v>85.87208</v>
+      </c>
+      <c r="H212" t="n">
+        <v>93.94097</v>
+      </c>
+      <c r="I212" t="n">
+        <v>92.86218</v>
+      </c>
+      <c r="J212" t="n">
+        <v>93.74712</v>
+      </c>
+      <c r="K212" t="n">
+        <v>95.40018</v>
+      </c>
+      <c r="L212" t="n">
+        <v>90.50065</v>
+      </c>
+      <c r="M212" t="n">
+        <v>88.31129</v>
+      </c>
+      <c r="N212" t="n">
+        <v>91.93221</v>
+      </c>
+      <c r="O212" t="n">
+        <v>93.71627</v>
+      </c>
+      <c r="P212"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>427</v>
+      </c>
+      <c r="B213" t="s">
+        <v>428</v>
+      </c>
+      <c r="C213" t="n">
+        <v>84.80853</v>
+      </c>
+      <c r="D213" t="n">
+        <v>86.92252</v>
+      </c>
+      <c r="E213" t="n">
+        <v>83.75991</v>
+      </c>
+      <c r="F213" t="n">
+        <v>82.78259</v>
+      </c>
+      <c r="G213"/>
+      <c r="H213"/>
+      <c r="I213"/>
+      <c r="J213"/>
+      <c r="K213"/>
+      <c r="L213"/>
+      <c r="M213"/>
+      <c r="N213"/>
+      <c r="O213"/>
+      <c r="P213"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/user-data/primary-school-enrolment/primary-school-enrolment.xlsx
+++ b/user-data/primary-school-enrolment/primary-school-enrolment.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="457">
   <si>
     <t>id</t>
   </si>
@@ -1376,7 +1376,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1809,6 +1812,11 @@
         <v>455</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>456</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/primary-school-enrolment/primary-school-enrolment.xlsx
+++ b/user-data/primary-school-enrolment/primary-school-enrolment.xlsx
@@ -71,7 +71,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -179,7 +179,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -216,12 +216,6 @@
   </si>
   <si>
     <t>Burundi</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
   </si>
   <si>
     <t>KH</t>
@@ -302,6 +296,12 @@
     <t>Costa Rica</t>
   </si>
   <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
     <t>HR</t>
   </si>
   <si>
@@ -317,7 +317,7 @@
     <t>CW</t>
   </si>
   <si>
-    <t>CuraÃ§ao</t>
+    <t>Curacao</t>
   </si>
   <si>
     <t>CY</t>
@@ -995,7 +995,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -1013,7 +1013,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SA</t>
@@ -1187,7 +1187,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -1211,7 +1211,7 @@
     <t>TC</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
+    <t>Turks &amp; Caicos Islands</t>
   </si>
   <si>
     <t>TV</t>
@@ -1232,16 +1232,16 @@
     <t>Uganda</t>
   </si>
   <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
     <t>UA</t>
   </si>
   <si>
     <t>Ukraine</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
   </si>
   <si>
     <t>UY</t>
@@ -1385,7 +1385,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -8391,10 +8391,10 @@
         <v>2000</v>
       </c>
       <c r="D436" t="n">
-        <v>58.25738</v>
+        <v>91.96241</v>
       </c>
       <c r="E436" t="n">
-        <v>58.25738</v>
+        <v>91.96241</v>
       </c>
     </row>
     <row r="437">
@@ -8408,11 +8408,9 @@
         <v>2001</v>
       </c>
       <c r="D437" t="n">
-        <v>62.86219</v>
-      </c>
-      <c r="E437" t="n">
-        <v>62.86219</v>
-      </c>
+        <v>93.7592833333</v>
+      </c>
+      <c r="E437"/>
     </row>
     <row r="438">
       <c r="A438" t="s">
@@ -8425,11 +8423,9 @@
         <v>2002</v>
       </c>
       <c r="D438" t="n">
-        <v>63.35843</v>
-      </c>
-      <c r="E438" t="n">
-        <v>63.35843</v>
-      </c>
+        <v>95.5561566667</v>
+      </c>
+      <c r="E438"/>
     </row>
     <row r="439">
       <c r="A439" t="s">
@@ -8442,10 +8438,10 @@
         <v>2003</v>
       </c>
       <c r="D439" t="n">
-        <v>60.05406</v>
+        <v>97.35303</v>
       </c>
       <c r="E439" t="n">
-        <v>60.05406</v>
+        <v>97.35303</v>
       </c>
     </row>
     <row r="440">
@@ -8459,7 +8455,7 @@
         <v>2004</v>
       </c>
       <c r="D440" t="n">
-        <v>60.354615</v>
+        <v>97.66138</v>
       </c>
       <c r="E440"/>
     </row>
@@ -8474,7 +8470,7 @@
         <v>2005</v>
       </c>
       <c r="D441" t="n">
-        <v>60.65517</v>
+        <v>97.96973</v>
       </c>
       <c r="E441"/>
     </row>
@@ -8489,9 +8485,11 @@
         <v>2006</v>
       </c>
       <c r="D442" t="n">
-        <v>60.955725</v>
-      </c>
-      <c r="E442"/>
+        <v>98.27808</v>
+      </c>
+      <c r="E442" t="n">
+        <v>98.27808</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="s">
@@ -8504,9 +8502,11 @@
         <v>2007</v>
       </c>
       <c r="D443" t="n">
-        <v>61.25628</v>
-      </c>
-      <c r="E443"/>
+        <v>98.31492</v>
+      </c>
+      <c r="E443" t="n">
+        <v>98.31492</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="s">
@@ -8519,9 +8519,11 @@
         <v>2008</v>
       </c>
       <c r="D444" t="n">
-        <v>61.556835</v>
-      </c>
-      <c r="E444"/>
+        <v>98.1952</v>
+      </c>
+      <c r="E444" t="n">
+        <v>98.1952</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="s">
@@ -8534,11 +8536,9 @@
         <v>2009</v>
       </c>
       <c r="D445" t="n">
-        <v>61.85739</v>
-      </c>
-      <c r="E445" t="n">
-        <v>61.85739</v>
-      </c>
+        <v>98.19431</v>
+      </c>
+      <c r="E445"/>
     </row>
     <row r="446">
       <c r="A446" t="s">
@@ -8550,8 +8550,12 @@
       <c r="C446" t="n">
         <v>2010</v>
       </c>
-      <c r="D446"/>
-      <c r="E446"/>
+      <c r="D446" t="n">
+        <v>98.19342</v>
+      </c>
+      <c r="E446" t="n">
+        <v>98.19342</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="s">
@@ -8563,8 +8567,12 @@
       <c r="C447" t="n">
         <v>2011</v>
       </c>
-      <c r="D447"/>
-      <c r="E447"/>
+      <c r="D447" t="n">
+        <v>98.28255</v>
+      </c>
+      <c r="E447" t="n">
+        <v>98.28255</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="s">
@@ -8576,8 +8584,12 @@
       <c r="C448" t="n">
         <v>2012</v>
       </c>
-      <c r="D448"/>
-      <c r="E448"/>
+      <c r="D448" t="n">
+        <v>98.38292</v>
+      </c>
+      <c r="E448" t="n">
+        <v>98.38292</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="s">
@@ -8602,12 +8614,8 @@
       <c r="C450" t="n">
         <v>2000</v>
       </c>
-      <c r="D450" t="n">
-        <v>91.96241</v>
-      </c>
-      <c r="E450" t="n">
-        <v>91.96241</v>
-      </c>
+      <c r="D450"/>
+      <c r="E450"/>
     </row>
     <row r="451">
       <c r="A451" t="s">
@@ -8619,9 +8627,7 @@
       <c r="C451" t="n">
         <v>2001</v>
       </c>
-      <c r="D451" t="n">
-        <v>93.7592833333</v>
-      </c>
+      <c r="D451"/>
       <c r="E451"/>
     </row>
     <row r="452">
@@ -8634,9 +8640,7 @@
       <c r="C452" t="n">
         <v>2002</v>
       </c>
-      <c r="D452" t="n">
-        <v>95.5561566667</v>
-      </c>
+      <c r="D452"/>
       <c r="E452"/>
     </row>
     <row r="453">
@@ -8649,12 +8653,8 @@
       <c r="C453" t="n">
         <v>2003</v>
       </c>
-      <c r="D453" t="n">
-        <v>97.35303</v>
-      </c>
-      <c r="E453" t="n">
-        <v>97.35303</v>
-      </c>
+      <c r="D453"/>
+      <c r="E453"/>
     </row>
     <row r="454">
       <c r="A454" t="s">
@@ -8666,9 +8666,7 @@
       <c r="C454" t="n">
         <v>2004</v>
       </c>
-      <c r="D454" t="n">
-        <v>97.66138</v>
-      </c>
+      <c r="D454"/>
       <c r="E454"/>
     </row>
     <row r="455">
@@ -8681,9 +8679,7 @@
       <c r="C455" t="n">
         <v>2005</v>
       </c>
-      <c r="D455" t="n">
-        <v>97.96973</v>
-      </c>
+      <c r="D455"/>
       <c r="E455"/>
     </row>
     <row r="456">
@@ -8696,12 +8692,8 @@
       <c r="C456" t="n">
         <v>2006</v>
       </c>
-      <c r="D456" t="n">
-        <v>98.27808</v>
-      </c>
-      <c r="E456" t="n">
-        <v>98.27808</v>
-      </c>
+      <c r="D456"/>
+      <c r="E456"/>
     </row>
     <row r="457">
       <c r="A457" t="s">
@@ -8713,12 +8705,8 @@
       <c r="C457" t="n">
         <v>2007</v>
       </c>
-      <c r="D457" t="n">
-        <v>98.31492</v>
-      </c>
-      <c r="E457" t="n">
-        <v>98.31492</v>
-      </c>
+      <c r="D457"/>
+      <c r="E457"/>
     </row>
     <row r="458">
       <c r="A458" t="s">
@@ -8731,10 +8719,10 @@
         <v>2008</v>
       </c>
       <c r="D458" t="n">
-        <v>98.1952</v>
+        <v>80.83794</v>
       </c>
       <c r="E458" t="n">
-        <v>98.1952</v>
+        <v>80.83794</v>
       </c>
     </row>
     <row r="459">
@@ -8748,9 +8736,11 @@
         <v>2009</v>
       </c>
       <c r="D459" t="n">
-        <v>98.19431</v>
-      </c>
-      <c r="E459"/>
+        <v>83.53246</v>
+      </c>
+      <c r="E459" t="n">
+        <v>83.53246</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="s">
@@ -8763,11 +8753,9 @@
         <v>2010</v>
       </c>
       <c r="D460" t="n">
-        <v>98.19342</v>
-      </c>
-      <c r="E460" t="n">
-        <v>98.19342</v>
-      </c>
+        <v>86.19718</v>
+      </c>
+      <c r="E460"/>
     </row>
     <row r="461">
       <c r="A461" t="s">
@@ -8780,11 +8768,9 @@
         <v>2011</v>
       </c>
       <c r="D461" t="n">
-        <v>98.28255</v>
-      </c>
-      <c r="E461" t="n">
-        <v>98.28255</v>
-      </c>
+        <v>88.8619</v>
+      </c>
+      <c r="E461"/>
     </row>
     <row r="462">
       <c r="A462" t="s">
@@ -8797,10 +8783,10 @@
         <v>2012</v>
       </c>
       <c r="D462" t="n">
-        <v>98.38292</v>
+        <v>91.52662</v>
       </c>
       <c r="E462" t="n">
-        <v>98.38292</v>
+        <v>91.52662</v>
       </c>
     </row>
     <row r="463">
@@ -8826,8 +8812,12 @@
       <c r="C464" t="n">
         <v>2000</v>
       </c>
-      <c r="D464"/>
-      <c r="E464"/>
+      <c r="D464" t="n">
+        <v>99.92271</v>
+      </c>
+      <c r="E464" t="n">
+        <v>99.92271</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="s">
@@ -8930,12 +8920,8 @@
       <c r="C472" t="n">
         <v>2008</v>
       </c>
-      <c r="D472" t="n">
-        <v>80.83794</v>
-      </c>
-      <c r="E472" t="n">
-        <v>80.83794</v>
-      </c>
+      <c r="D472"/>
+      <c r="E472"/>
     </row>
     <row r="473">
       <c r="A473" t="s">
@@ -8947,12 +8933,8 @@
       <c r="C473" t="n">
         <v>2009</v>
       </c>
-      <c r="D473" t="n">
-        <v>83.53246</v>
-      </c>
-      <c r="E473" t="n">
-        <v>83.53246</v>
-      </c>
+      <c r="D473"/>
+      <c r="E473"/>
     </row>
     <row r="474">
       <c r="A474" t="s">
@@ -8964,9 +8946,7 @@
       <c r="C474" t="n">
         <v>2010</v>
       </c>
-      <c r="D474" t="n">
-        <v>86.19718</v>
-      </c>
+      <c r="D474"/>
       <c r="E474"/>
     </row>
     <row r="475">
@@ -8979,9 +8959,7 @@
       <c r="C475" t="n">
         <v>2011</v>
       </c>
-      <c r="D475" t="n">
-        <v>88.8619</v>
-      </c>
+      <c r="D475"/>
       <c r="E475"/>
     </row>
     <row r="476">
@@ -8994,12 +8972,8 @@
       <c r="C476" t="n">
         <v>2012</v>
       </c>
-      <c r="D476" t="n">
-        <v>91.52662</v>
-      </c>
-      <c r="E476" t="n">
-        <v>91.52662</v>
-      </c>
+      <c r="D476"/>
+      <c r="E476"/>
     </row>
     <row r="477">
       <c r="A477" t="s">
@@ -9025,10 +8999,10 @@
         <v>2000</v>
       </c>
       <c r="D478" t="n">
-        <v>99.92271</v>
+        <v>98.98001</v>
       </c>
       <c r="E478" t="n">
-        <v>99.92271</v>
+        <v>98.98001</v>
       </c>
     </row>
     <row r="479">
@@ -9041,8 +9015,12 @@
       <c r="C479" t="n">
         <v>2001</v>
       </c>
-      <c r="D479"/>
-      <c r="E479"/>
+      <c r="D479" t="n">
+        <v>98.92341</v>
+      </c>
+      <c r="E479" t="n">
+        <v>98.92341</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="s">
@@ -9054,8 +9032,12 @@
       <c r="C480" t="n">
         <v>2002</v>
       </c>
-      <c r="D480"/>
-      <c r="E480"/>
+      <c r="D480" t="n">
+        <v>98.31639</v>
+      </c>
+      <c r="E480" t="n">
+        <v>98.31639</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="s">
@@ -9067,8 +9049,12 @@
       <c r="C481" t="n">
         <v>2003</v>
       </c>
-      <c r="D481"/>
-      <c r="E481"/>
+      <c r="D481" t="n">
+        <v>98.05741</v>
+      </c>
+      <c r="E481" t="n">
+        <v>98.05741</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="s">
@@ -9080,8 +9066,12 @@
       <c r="C482" t="n">
         <v>2004</v>
       </c>
-      <c r="D482"/>
-      <c r="E482"/>
+      <c r="D482" t="n">
+        <v>96.4574</v>
+      </c>
+      <c r="E482" t="n">
+        <v>96.4574</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="s">
@@ -9093,8 +9083,12 @@
       <c r="C483" t="n">
         <v>2005</v>
       </c>
-      <c r="D483"/>
-      <c r="E483"/>
+      <c r="D483" t="n">
+        <v>95.32889</v>
+      </c>
+      <c r="E483" t="n">
+        <v>95.32889</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="s">
@@ -9106,8 +9100,12 @@
       <c r="C484" t="n">
         <v>2006</v>
       </c>
-      <c r="D484"/>
-      <c r="E484"/>
+      <c r="D484" t="n">
+        <v>94.32571</v>
+      </c>
+      <c r="E484" t="n">
+        <v>94.32571</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="s">
@@ -9119,8 +9117,12 @@
       <c r="C485" t="n">
         <v>2007</v>
       </c>
-      <c r="D485"/>
-      <c r="E485"/>
+      <c r="D485" t="n">
+        <v>93.31173</v>
+      </c>
+      <c r="E485" t="n">
+        <v>93.31173</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="s">
@@ -9132,8 +9134,12 @@
       <c r="C486" t="n">
         <v>2008</v>
       </c>
-      <c r="D486"/>
-      <c r="E486"/>
+      <c r="D486" t="n">
+        <v>92.91988</v>
+      </c>
+      <c r="E486" t="n">
+        <v>92.91988</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="s">
@@ -9145,8 +9151,12 @@
       <c r="C487" t="n">
         <v>2009</v>
       </c>
-      <c r="D487"/>
-      <c r="E487"/>
+      <c r="D487" t="n">
+        <v>93.47367</v>
+      </c>
+      <c r="E487" t="n">
+        <v>93.47367</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="s">
@@ -9158,8 +9168,12 @@
       <c r="C488" t="n">
         <v>2010</v>
       </c>
-      <c r="D488"/>
-      <c r="E488"/>
+      <c r="D488" t="n">
+        <v>94.48524</v>
+      </c>
+      <c r="E488" t="n">
+        <v>94.48524</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="s">
@@ -9171,8 +9185,12 @@
       <c r="C489" t="n">
         <v>2011</v>
       </c>
-      <c r="D489"/>
-      <c r="E489"/>
+      <c r="D489" t="n">
+        <v>95.36997</v>
+      </c>
+      <c r="E489" t="n">
+        <v>95.36997</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="s">
@@ -9184,8 +9202,12 @@
       <c r="C490" t="n">
         <v>2012</v>
       </c>
-      <c r="D490"/>
-      <c r="E490"/>
+      <c r="D490" t="n">
+        <v>97.16424</v>
+      </c>
+      <c r="E490" t="n">
+        <v>97.16424</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="s">
@@ -9210,12 +9232,8 @@
       <c r="C492" t="n">
         <v>2000</v>
       </c>
-      <c r="D492" t="n">
-        <v>98.98001</v>
-      </c>
-      <c r="E492" t="n">
-        <v>98.98001</v>
-      </c>
+      <c r="D492"/>
+      <c r="E492"/>
     </row>
     <row r="493">
       <c r="A493" t="s">
@@ -9227,12 +9245,8 @@
       <c r="C493" t="n">
         <v>2001</v>
       </c>
-      <c r="D493" t="n">
-        <v>98.92341</v>
-      </c>
-      <c r="E493" t="n">
-        <v>98.92341</v>
-      </c>
+      <c r="D493"/>
+      <c r="E493"/>
     </row>
     <row r="494">
       <c r="A494" t="s">
@@ -9244,12 +9258,8 @@
       <c r="C494" t="n">
         <v>2002</v>
       </c>
-      <c r="D494" t="n">
-        <v>98.31639</v>
-      </c>
-      <c r="E494" t="n">
-        <v>98.31639</v>
-      </c>
+      <c r="D494"/>
+      <c r="E494"/>
     </row>
     <row r="495">
       <c r="A495" t="s">
@@ -9261,12 +9271,8 @@
       <c r="C495" t="n">
         <v>2003</v>
       </c>
-      <c r="D495" t="n">
-        <v>98.05741</v>
-      </c>
-      <c r="E495" t="n">
-        <v>98.05741</v>
-      </c>
+      <c r="D495"/>
+      <c r="E495"/>
     </row>
     <row r="496">
       <c r="A496" t="s">
@@ -9278,12 +9284,8 @@
       <c r="C496" t="n">
         <v>2004</v>
       </c>
-      <c r="D496" t="n">
-        <v>96.4574</v>
-      </c>
-      <c r="E496" t="n">
-        <v>96.4574</v>
-      </c>
+      <c r="D496"/>
+      <c r="E496"/>
     </row>
     <row r="497">
       <c r="A497" t="s">
@@ -9296,10 +9298,10 @@
         <v>2005</v>
       </c>
       <c r="D497" t="n">
-        <v>95.32889</v>
+        <v>49.48069</v>
       </c>
       <c r="E497" t="n">
-        <v>95.32889</v>
+        <v>49.48069</v>
       </c>
     </row>
     <row r="498">
@@ -9313,10 +9315,10 @@
         <v>2006</v>
       </c>
       <c r="D498" t="n">
-        <v>94.32571</v>
+        <v>49.81202</v>
       </c>
       <c r="E498" t="n">
-        <v>94.32571</v>
+        <v>49.81202</v>
       </c>
     </row>
     <row r="499">
@@ -9330,10 +9332,10 @@
         <v>2007</v>
       </c>
       <c r="D499" t="n">
-        <v>93.31173</v>
+        <v>58.44265</v>
       </c>
       <c r="E499" t="n">
-        <v>93.31173</v>
+        <v>58.44265</v>
       </c>
     </row>
     <row r="500">
@@ -9347,10 +9349,10 @@
         <v>2008</v>
       </c>
       <c r="D500" t="n">
-        <v>92.91988</v>
+        <v>67.80253</v>
       </c>
       <c r="E500" t="n">
-        <v>92.91988</v>
+        <v>67.80253</v>
       </c>
     </row>
     <row r="501">
@@ -9364,10 +9366,10 @@
         <v>2009</v>
       </c>
       <c r="D501" t="n">
-        <v>93.47367</v>
+        <v>68.32898</v>
       </c>
       <c r="E501" t="n">
-        <v>93.47367</v>
+        <v>68.32898</v>
       </c>
     </row>
     <row r="502">
@@ -9381,10 +9383,10 @@
         <v>2010</v>
       </c>
       <c r="D502" t="n">
-        <v>94.48524</v>
+        <v>70.77495</v>
       </c>
       <c r="E502" t="n">
-        <v>94.48524</v>
+        <v>70.77495</v>
       </c>
     </row>
     <row r="503">
@@ -9398,10 +9400,10 @@
         <v>2011</v>
       </c>
       <c r="D503" t="n">
-        <v>95.36997</v>
+        <v>68.7282</v>
       </c>
       <c r="E503" t="n">
-        <v>95.36997</v>
+        <v>68.7282</v>
       </c>
     </row>
     <row r="504">
@@ -9415,10 +9417,10 @@
         <v>2012</v>
       </c>
       <c r="D504" t="n">
-        <v>97.16424</v>
+        <v>71.87684</v>
       </c>
       <c r="E504" t="n">
-        <v>97.16424</v>
+        <v>71.87684</v>
       </c>
     </row>
     <row r="505">
@@ -9444,8 +9446,12 @@
       <c r="C506" t="n">
         <v>2000</v>
       </c>
-      <c r="D506"/>
-      <c r="E506"/>
+      <c r="D506" t="n">
+        <v>94.37348</v>
+      </c>
+      <c r="E506" t="n">
+        <v>94.37348</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="s">
@@ -9509,12 +9515,8 @@
       <c r="C511" t="n">
         <v>2005</v>
       </c>
-      <c r="D511" t="n">
-        <v>49.48069</v>
-      </c>
-      <c r="E511" t="n">
-        <v>49.48069</v>
-      </c>
+      <c r="D511"/>
+      <c r="E511"/>
     </row>
     <row r="512">
       <c r="A512" t="s">
@@ -9526,12 +9528,8 @@
       <c r="C512" t="n">
         <v>2006</v>
       </c>
-      <c r="D512" t="n">
-        <v>49.81202</v>
-      </c>
-      <c r="E512" t="n">
-        <v>49.81202</v>
-      </c>
+      <c r="D512"/>
+      <c r="E512"/>
     </row>
     <row r="513">
       <c r="A513" t="s">
@@ -9543,12 +9541,8 @@
       <c r="C513" t="n">
         <v>2007</v>
       </c>
-      <c r="D513" t="n">
-        <v>58.44265</v>
-      </c>
-      <c r="E513" t="n">
-        <v>58.44265</v>
-      </c>
+      <c r="D513"/>
+      <c r="E513"/>
     </row>
     <row r="514">
       <c r="A514" t="s">
@@ -9560,12 +9554,8 @@
       <c r="C514" t="n">
         <v>2008</v>
       </c>
-      <c r="D514" t="n">
-        <v>67.80253</v>
-      </c>
-      <c r="E514" t="n">
-        <v>67.80253</v>
-      </c>
+      <c r="D514"/>
+      <c r="E514"/>
     </row>
     <row r="515">
       <c r="A515" t="s">
@@ -9577,12 +9567,8 @@
       <c r="C515" t="n">
         <v>2009</v>
       </c>
-      <c r="D515" t="n">
-        <v>68.32898</v>
-      </c>
-      <c r="E515" t="n">
-        <v>68.32898</v>
-      </c>
+      <c r="D515"/>
+      <c r="E515"/>
     </row>
     <row r="516">
       <c r="A516" t="s">
@@ -9594,12 +9580,8 @@
       <c r="C516" t="n">
         <v>2010</v>
       </c>
-      <c r="D516" t="n">
-        <v>70.77495</v>
-      </c>
-      <c r="E516" t="n">
-        <v>70.77495</v>
-      </c>
+      <c r="D516"/>
+      <c r="E516"/>
     </row>
     <row r="517">
       <c r="A517" t="s">
@@ -9611,12 +9593,8 @@
       <c r="C517" t="n">
         <v>2011</v>
       </c>
-      <c r="D517" t="n">
-        <v>68.7282</v>
-      </c>
-      <c r="E517" t="n">
-        <v>68.7282</v>
-      </c>
+      <c r="D517"/>
+      <c r="E517"/>
     </row>
     <row r="518">
       <c r="A518" t="s">
@@ -9628,12 +9606,8 @@
       <c r="C518" t="n">
         <v>2012</v>
       </c>
-      <c r="D518" t="n">
-        <v>71.87684</v>
-      </c>
-      <c r="E518" t="n">
-        <v>71.87684</v>
-      </c>
+      <c r="D518"/>
+      <c r="E518"/>
     </row>
     <row r="519">
       <c r="A519" t="s">
@@ -9659,10 +9633,10 @@
         <v>2000</v>
       </c>
       <c r="D520" t="n">
-        <v>94.37348</v>
+        <v>51.62139</v>
       </c>
       <c r="E520" t="n">
-        <v>94.37348</v>
+        <v>51.62139</v>
       </c>
     </row>
     <row r="521">
@@ -9675,8 +9649,12 @@
       <c r="C521" t="n">
         <v>2001</v>
       </c>
-      <c r="D521"/>
-      <c r="E521"/>
+      <c r="D521" t="n">
+        <v>52.8479</v>
+      </c>
+      <c r="E521" t="n">
+        <v>52.8479</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="s">
@@ -9688,8 +9666,12 @@
       <c r="C522" t="n">
         <v>2002</v>
       </c>
-      <c r="D522"/>
-      <c r="E522"/>
+      <c r="D522" t="n">
+        <v>56.25016</v>
+      </c>
+      <c r="E522" t="n">
+        <v>56.25016</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="s">
@@ -9701,8 +9683,12 @@
       <c r="C523" t="n">
         <v>2003</v>
       </c>
-      <c r="D523"/>
-      <c r="E523"/>
+      <c r="D523" t="n">
+        <v>57.75562</v>
+      </c>
+      <c r="E523" t="n">
+        <v>57.75562</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="s">
@@ -9714,7 +9700,9 @@
       <c r="C524" t="n">
         <v>2004</v>
       </c>
-      <c r="D524"/>
+      <c r="D524" t="n">
+        <v>58.41829</v>
+      </c>
       <c r="E524"/>
     </row>
     <row r="525">
@@ -9727,7 +9715,9 @@
       <c r="C525" t="n">
         <v>2005</v>
       </c>
-      <c r="D525"/>
+      <c r="D525" t="n">
+        <v>59.08096</v>
+      </c>
       <c r="E525"/>
     </row>
     <row r="526">
@@ -9740,7 +9730,9 @@
       <c r="C526" t="n">
         <v>2006</v>
       </c>
-      <c r="D526"/>
+      <c r="D526" t="n">
+        <v>59.74363</v>
+      </c>
       <c r="E526"/>
     </row>
     <row r="527">
@@ -9753,7 +9745,9 @@
       <c r="C527" t="n">
         <v>2007</v>
       </c>
-      <c r="D527"/>
+      <c r="D527" t="n">
+        <v>60.4063</v>
+      </c>
       <c r="E527"/>
     </row>
     <row r="528">
@@ -9766,7 +9760,9 @@
       <c r="C528" t="n">
         <v>2008</v>
       </c>
-      <c r="D528"/>
+      <c r="D528" t="n">
+        <v>61.06897</v>
+      </c>
       <c r="E528"/>
     </row>
     <row r="529">
@@ -9779,7 +9775,9 @@
       <c r="C529" t="n">
         <v>2009</v>
       </c>
-      <c r="D529"/>
+      <c r="D529" t="n">
+        <v>61.73164</v>
+      </c>
       <c r="E529"/>
     </row>
     <row r="530">
@@ -9792,7 +9790,9 @@
       <c r="C530" t="n">
         <v>2010</v>
       </c>
-      <c r="D530"/>
+      <c r="D530" t="n">
+        <v>62.39431</v>
+      </c>
       <c r="E530"/>
     </row>
     <row r="531">
@@ -9805,8 +9805,12 @@
       <c r="C531" t="n">
         <v>2011</v>
       </c>
-      <c r="D531"/>
-      <c r="E531"/>
+      <c r="D531" t="n">
+        <v>63.05698</v>
+      </c>
+      <c r="E531" t="n">
+        <v>63.05698</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="s">
@@ -9844,12 +9848,8 @@
       <c r="C534" t="n">
         <v>2000</v>
       </c>
-      <c r="D534" t="n">
-        <v>51.62139</v>
-      </c>
-      <c r="E534" t="n">
-        <v>51.62139</v>
-      </c>
+      <c r="D534"/>
+      <c r="E534"/>
     </row>
     <row r="535">
       <c r="A535" t="s">
@@ -9861,12 +9861,8 @@
       <c r="C535" t="n">
         <v>2001</v>
       </c>
-      <c r="D535" t="n">
-        <v>52.8479</v>
-      </c>
-      <c r="E535" t="n">
-        <v>52.8479</v>
-      </c>
+      <c r="D535"/>
+      <c r="E535"/>
     </row>
     <row r="536">
       <c r="A536" t="s">
@@ -9878,12 +9874,8 @@
       <c r="C536" t="n">
         <v>2002</v>
       </c>
-      <c r="D536" t="n">
-        <v>56.25016</v>
-      </c>
-      <c r="E536" t="n">
-        <v>56.25016</v>
-      </c>
+      <c r="D536"/>
+      <c r="E536"/>
     </row>
     <row r="537">
       <c r="A537" t="s">
@@ -9895,12 +9887,8 @@
       <c r="C537" t="n">
         <v>2003</v>
       </c>
-      <c r="D537" t="n">
-        <v>57.75562</v>
-      </c>
-      <c r="E537" t="n">
-        <v>57.75562</v>
-      </c>
+      <c r="D537"/>
+      <c r="E537"/>
     </row>
     <row r="538">
       <c r="A538" t="s">
@@ -9912,9 +9900,7 @@
       <c r="C538" t="n">
         <v>2004</v>
       </c>
-      <c r="D538" t="n">
-        <v>58.41829</v>
-      </c>
+      <c r="D538"/>
       <c r="E538"/>
     </row>
     <row r="539">
@@ -9927,9 +9913,7 @@
       <c r="C539" t="n">
         <v>2005</v>
       </c>
-      <c r="D539" t="n">
-        <v>59.08096</v>
-      </c>
+      <c r="D539"/>
       <c r="E539"/>
     </row>
     <row r="540">
@@ -9942,9 +9926,7 @@
       <c r="C540" t="n">
         <v>2006</v>
       </c>
-      <c r="D540" t="n">
-        <v>59.74363</v>
-      </c>
+      <c r="D540"/>
       <c r="E540"/>
     </row>
     <row r="541">
@@ -9958,9 +9940,11 @@
         <v>2007</v>
       </c>
       <c r="D541" t="n">
-        <v>60.4063</v>
-      </c>
-      <c r="E541"/>
+        <v>94.77564</v>
+      </c>
+      <c r="E541" t="n">
+        <v>94.77564</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="s">
@@ -9973,9 +9957,11 @@
         <v>2008</v>
       </c>
       <c r="D542" t="n">
-        <v>61.06897</v>
-      </c>
-      <c r="E542"/>
+        <v>95.19827</v>
+      </c>
+      <c r="E542" t="n">
+        <v>95.19827</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="s">
@@ -9988,9 +9974,11 @@
         <v>2009</v>
       </c>
       <c r="D543" t="n">
-        <v>61.73164</v>
-      </c>
-      <c r="E543"/>
+        <v>93.28308</v>
+      </c>
+      <c r="E543" t="n">
+        <v>93.28308</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="s">
@@ -10003,9 +9991,11 @@
         <v>2010</v>
       </c>
       <c r="D544" t="n">
-        <v>62.39431</v>
-      </c>
-      <c r="E544"/>
+        <v>94.06249</v>
+      </c>
+      <c r="E544" t="n">
+        <v>94.06249</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="s">
@@ -10018,10 +10008,10 @@
         <v>2011</v>
       </c>
       <c r="D545" t="n">
-        <v>63.05698</v>
+        <v>93.05685</v>
       </c>
       <c r="E545" t="n">
-        <v>63.05698</v>
+        <v>93.05685</v>
       </c>
     </row>
     <row r="546">
@@ -10034,8 +10024,12 @@
       <c r="C546" t="n">
         <v>2012</v>
       </c>
-      <c r="D546"/>
-      <c r="E546"/>
+      <c r="D546" t="n">
+        <v>92.65345</v>
+      </c>
+      <c r="E546" t="n">
+        <v>92.65345</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="s">
@@ -10151,12 +10145,8 @@
       <c r="C555" t="n">
         <v>2007</v>
       </c>
-      <c r="D555" t="n">
-        <v>94.77564</v>
-      </c>
-      <c r="E555" t="n">
-        <v>94.77564</v>
-      </c>
+      <c r="D555"/>
+      <c r="E555"/>
     </row>
     <row r="556">
       <c r="A556" t="s">
@@ -10168,12 +10158,8 @@
       <c r="C556" t="n">
         <v>2008</v>
       </c>
-      <c r="D556" t="n">
-        <v>95.19827</v>
-      </c>
-      <c r="E556" t="n">
-        <v>95.19827</v>
-      </c>
+      <c r="D556"/>
+      <c r="E556"/>
     </row>
     <row r="557">
       <c r="A557" t="s">
@@ -10185,12 +10171,8 @@
       <c r="C557" t="n">
         <v>2009</v>
       </c>
-      <c r="D557" t="n">
-        <v>93.28308</v>
-      </c>
-      <c r="E557" t="n">
-        <v>93.28308</v>
-      </c>
+      <c r="D557"/>
+      <c r="E557"/>
     </row>
     <row r="558">
       <c r="A558" t="s">
@@ -10202,12 +10184,8 @@
       <c r="C558" t="n">
         <v>2010</v>
       </c>
-      <c r="D558" t="n">
-        <v>94.06249</v>
-      </c>
-      <c r="E558" t="n">
-        <v>94.06249</v>
-      </c>
+      <c r="D558"/>
+      <c r="E558"/>
     </row>
     <row r="559">
       <c r="A559" t="s">
@@ -10219,12 +10197,8 @@
       <c r="C559" t="n">
         <v>2011</v>
       </c>
-      <c r="D559" t="n">
-        <v>93.05685</v>
-      </c>
-      <c r="E559" t="n">
-        <v>93.05685</v>
-      </c>
+      <c r="D559"/>
+      <c r="E559"/>
     </row>
     <row r="560">
       <c r="A560" t="s">
@@ -10236,12 +10210,8 @@
       <c r="C560" t="n">
         <v>2012</v>
       </c>
-      <c r="D560" t="n">
-        <v>92.65345</v>
-      </c>
-      <c r="E560" t="n">
-        <v>92.65345</v>
-      </c>
+      <c r="D560"/>
+      <c r="E560"/>
     </row>
     <row r="561">
       <c r="A561" t="s">
@@ -10266,8 +10236,12 @@
       <c r="C562" t="n">
         <v>2000</v>
       </c>
-      <c r="D562"/>
-      <c r="E562"/>
+      <c r="D562" t="n">
+        <v>93.59526</v>
+      </c>
+      <c r="E562" t="n">
+        <v>93.59526</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="s">
@@ -10279,8 +10253,12 @@
       <c r="C563" t="n">
         <v>2001</v>
       </c>
-      <c r="D563"/>
-      <c r="E563"/>
+      <c r="D563" t="n">
+        <v>91.86605</v>
+      </c>
+      <c r="E563" t="n">
+        <v>91.86605</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="s">
@@ -10292,8 +10270,12 @@
       <c r="C564" t="n">
         <v>2002</v>
       </c>
-      <c r="D564"/>
-      <c r="E564"/>
+      <c r="D564" t="n">
+        <v>92.68469</v>
+      </c>
+      <c r="E564" t="n">
+        <v>92.68469</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="s">
@@ -10305,7 +10287,9 @@
       <c r="C565" t="n">
         <v>2003</v>
       </c>
-      <c r="D565"/>
+      <c r="D565" t="n">
+        <v>92.71176</v>
+      </c>
       <c r="E565"/>
     </row>
     <row r="566">
@@ -10318,7 +10302,9 @@
       <c r="C566" t="n">
         <v>2004</v>
       </c>
-      <c r="D566"/>
+      <c r="D566" t="n">
+        <v>92.73883</v>
+      </c>
       <c r="E566"/>
     </row>
     <row r="567">
@@ -10331,8 +10317,12 @@
       <c r="C567" t="n">
         <v>2005</v>
       </c>
-      <c r="D567"/>
-      <c r="E567"/>
+      <c r="D567" t="n">
+        <v>92.7659</v>
+      </c>
+      <c r="E567" t="n">
+        <v>92.7659</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="s">
@@ -10344,8 +10334,12 @@
       <c r="C568" t="n">
         <v>2006</v>
       </c>
-      <c r="D568"/>
-      <c r="E568"/>
+      <c r="D568" t="n">
+        <v>91.38509</v>
+      </c>
+      <c r="E568" t="n">
+        <v>91.38509</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="s">
@@ -10357,8 +10351,12 @@
       <c r="C569" t="n">
         <v>2007</v>
       </c>
-      <c r="D569"/>
-      <c r="E569"/>
+      <c r="D569" t="n">
+        <v>90.09421</v>
+      </c>
+      <c r="E569" t="n">
+        <v>90.09421</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="s">
@@ -10370,8 +10368,12 @@
       <c r="C570" t="n">
         <v>2008</v>
       </c>
-      <c r="D570"/>
-      <c r="E570"/>
+      <c r="D570" t="n">
+        <v>89.80885</v>
+      </c>
+      <c r="E570" t="n">
+        <v>89.80885</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="s">
@@ -10383,8 +10385,12 @@
       <c r="C571" t="n">
         <v>2009</v>
       </c>
-      <c r="D571"/>
-      <c r="E571"/>
+      <c r="D571" t="n">
+        <v>89.36882</v>
+      </c>
+      <c r="E571" t="n">
+        <v>89.36882</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="s">
@@ -10396,8 +10402,12 @@
       <c r="C572" t="n">
         <v>2010</v>
       </c>
-      <c r="D572"/>
-      <c r="E572"/>
+      <c r="D572" t="n">
+        <v>87.72414</v>
+      </c>
+      <c r="E572" t="n">
+        <v>87.72414</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="s">
@@ -10409,8 +10419,12 @@
       <c r="C573" t="n">
         <v>2011</v>
       </c>
-      <c r="D573"/>
-      <c r="E573"/>
+      <c r="D573" t="n">
+        <v>86.74964</v>
+      </c>
+      <c r="E573" t="n">
+        <v>86.74964</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="s">
@@ -10422,8 +10436,12 @@
       <c r="C574" t="n">
         <v>2012</v>
       </c>
-      <c r="D574"/>
-      <c r="E574"/>
+      <c r="D574" t="n">
+        <v>83.8614</v>
+      </c>
+      <c r="E574" t="n">
+        <v>83.8614</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="s">
@@ -10449,10 +10467,10 @@
         <v>2000</v>
       </c>
       <c r="D576" t="n">
-        <v>93.59526</v>
+        <v>76.38125</v>
       </c>
       <c r="E576" t="n">
-        <v>93.59526</v>
+        <v>76.38125</v>
       </c>
     </row>
     <row r="577">
@@ -10466,11 +10484,9 @@
         <v>2001</v>
       </c>
       <c r="D577" t="n">
-        <v>91.86605</v>
-      </c>
-      <c r="E577" t="n">
-        <v>91.86605</v>
-      </c>
+        <v>77.3742557143</v>
+      </c>
+      <c r="E577"/>
     </row>
     <row r="578">
       <c r="A578" t="s">
@@ -10483,11 +10499,9 @@
         <v>2002</v>
       </c>
       <c r="D578" t="n">
-        <v>92.68469</v>
-      </c>
-      <c r="E578" t="n">
-        <v>92.68469</v>
-      </c>
+        <v>78.3672614286</v>
+      </c>
+      <c r="E578"/>
     </row>
     <row r="579">
       <c r="A579" t="s">
@@ -10500,7 +10514,7 @@
         <v>2003</v>
       </c>
       <c r="D579" t="n">
-        <v>92.71176</v>
+        <v>79.3602671429</v>
       </c>
       <c r="E579"/>
     </row>
@@ -10515,7 +10529,7 @@
         <v>2004</v>
       </c>
       <c r="D580" t="n">
-        <v>92.73883</v>
+        <v>80.3532728571</v>
       </c>
       <c r="E580"/>
     </row>
@@ -10530,11 +10544,9 @@
         <v>2005</v>
       </c>
       <c r="D581" t="n">
-        <v>92.7659</v>
-      </c>
-      <c r="E581" t="n">
-        <v>92.7659</v>
-      </c>
+        <v>81.3462785714</v>
+      </c>
+      <c r="E581"/>
     </row>
     <row r="582">
       <c r="A582" t="s">
@@ -10547,11 +10559,9 @@
         <v>2006</v>
       </c>
       <c r="D582" t="n">
-        <v>91.38509</v>
-      </c>
-      <c r="E582" t="n">
-        <v>91.38509</v>
-      </c>
+        <v>82.3392842857</v>
+      </c>
+      <c r="E582"/>
     </row>
     <row r="583">
       <c r="A583" t="s">
@@ -10564,10 +10574,10 @@
         <v>2007</v>
       </c>
       <c r="D583" t="n">
-        <v>90.09421</v>
+        <v>83.33229</v>
       </c>
       <c r="E583" t="n">
-        <v>90.09421</v>
+        <v>83.33229</v>
       </c>
     </row>
     <row r="584">
@@ -10580,12 +10590,8 @@
       <c r="C584" t="n">
         <v>2008</v>
       </c>
-      <c r="D584" t="n">
-        <v>89.80885</v>
-      </c>
-      <c r="E584" t="n">
-        <v>89.80885</v>
-      </c>
+      <c r="D584"/>
+      <c r="E584"/>
     </row>
     <row r="585">
       <c r="A585" t="s">
@@ -10597,12 +10603,8 @@
       <c r="C585" t="n">
         <v>2009</v>
       </c>
-      <c r="D585" t="n">
-        <v>89.36882</v>
-      </c>
-      <c r="E585" t="n">
-        <v>89.36882</v>
-      </c>
+      <c r="D585"/>
+      <c r="E585"/>
     </row>
     <row r="586">
       <c r="A586" t="s">
@@ -10614,12 +10616,8 @@
       <c r="C586" t="n">
         <v>2010</v>
       </c>
-      <c r="D586" t="n">
-        <v>87.72414</v>
-      </c>
-      <c r="E586" t="n">
-        <v>87.72414</v>
-      </c>
+      <c r="D586"/>
+      <c r="E586"/>
     </row>
     <row r="587">
       <c r="A587" t="s">
@@ -10631,12 +10629,8 @@
       <c r="C587" t="n">
         <v>2011</v>
       </c>
-      <c r="D587" t="n">
-        <v>86.74964</v>
-      </c>
-      <c r="E587" t="n">
-        <v>86.74964</v>
-      </c>
+      <c r="D587"/>
+      <c r="E587"/>
     </row>
     <row r="588">
       <c r="A588" t="s">
@@ -10648,12 +10642,8 @@
       <c r="C588" t="n">
         <v>2012</v>
       </c>
-      <c r="D588" t="n">
-        <v>83.8614</v>
-      </c>
-      <c r="E588" t="n">
-        <v>83.8614</v>
-      </c>
+      <c r="D588"/>
+      <c r="E588"/>
     </row>
     <row r="589">
       <c r="A589" t="s">
@@ -10678,12 +10668,8 @@
       <c r="C590" t="n">
         <v>2000</v>
       </c>
-      <c r="D590" t="n">
-        <v>76.38125</v>
-      </c>
-      <c r="E590" t="n">
-        <v>76.38125</v>
-      </c>
+      <c r="D590"/>
+      <c r="E590"/>
     </row>
     <row r="591">
       <c r="A591" t="s">
@@ -10695,9 +10681,7 @@
       <c r="C591" t="n">
         <v>2001</v>
       </c>
-      <c r="D591" t="n">
-        <v>77.3742557143</v>
-      </c>
+      <c r="D591"/>
       <c r="E591"/>
     </row>
     <row r="592">
@@ -10710,9 +10694,7 @@
       <c r="C592" t="n">
         <v>2002</v>
       </c>
-      <c r="D592" t="n">
-        <v>78.3672614286</v>
-      </c>
+      <c r="D592"/>
       <c r="E592"/>
     </row>
     <row r="593">
@@ -10725,9 +10707,7 @@
       <c r="C593" t="n">
         <v>2003</v>
       </c>
-      <c r="D593" t="n">
-        <v>79.3602671429</v>
-      </c>
+      <c r="D593"/>
       <c r="E593"/>
     </row>
     <row r="594">
@@ -10740,9 +10720,7 @@
       <c r="C594" t="n">
         <v>2004</v>
       </c>
-      <c r="D594" t="n">
-        <v>80.3532728571</v>
-      </c>
+      <c r="D594"/>
       <c r="E594"/>
     </row>
     <row r="595">
@@ -10756,9 +10734,11 @@
         <v>2005</v>
       </c>
       <c r="D595" t="n">
-        <v>81.3462785714</v>
-      </c>
-      <c r="E595"/>
+        <v>52.65096</v>
+      </c>
+      <c r="E595" t="n">
+        <v>52.65096</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="s">
@@ -10771,9 +10751,11 @@
         <v>2006</v>
       </c>
       <c r="D596" t="n">
-        <v>82.3392842857</v>
-      </c>
-      <c r="E596"/>
+        <v>56.08426</v>
+      </c>
+      <c r="E596" t="n">
+        <v>56.08426</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" t="s">
@@ -10786,11 +10768,9 @@
         <v>2007</v>
       </c>
       <c r="D597" t="n">
-        <v>83.33229</v>
-      </c>
-      <c r="E597" t="n">
-        <v>83.33229</v>
-      </c>
+        <v>64.02123</v>
+      </c>
+      <c r="E597"/>
     </row>
     <row r="598">
       <c r="A598" t="s">
@@ -10802,7 +10782,9 @@
       <c r="C598" t="n">
         <v>2008</v>
       </c>
-      <c r="D598"/>
+      <c r="D598" t="n">
+        <v>71.9582</v>
+      </c>
       <c r="E598"/>
     </row>
     <row r="599">
@@ -10815,7 +10797,9 @@
       <c r="C599" t="n">
         <v>2009</v>
       </c>
-      <c r="D599"/>
+      <c r="D599" t="n">
+        <v>79.89517</v>
+      </c>
       <c r="E599"/>
     </row>
     <row r="600">
@@ -10828,8 +10812,12 @@
       <c r="C600" t="n">
         <v>2010</v>
       </c>
-      <c r="D600"/>
-      <c r="E600"/>
+      <c r="D600" t="n">
+        <v>87.83214</v>
+      </c>
+      <c r="E600" t="n">
+        <v>87.83214</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" t="s">
@@ -10841,7 +10829,9 @@
       <c r="C601" t="n">
         <v>2011</v>
       </c>
-      <c r="D601"/>
+      <c r="D601" t="n">
+        <v>89.00125</v>
+      </c>
       <c r="E601"/>
     </row>
     <row r="602">
@@ -10854,8 +10844,12 @@
       <c r="C602" t="n">
         <v>2012</v>
       </c>
-      <c r="D602"/>
-      <c r="E602"/>
+      <c r="D602" t="n">
+        <v>90.17036</v>
+      </c>
+      <c r="E602" t="n">
+        <v>90.17036</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" t="s">
@@ -10945,12 +10939,8 @@
       <c r="C609" t="n">
         <v>2005</v>
       </c>
-      <c r="D609" t="n">
-        <v>52.65096</v>
-      </c>
-      <c r="E609" t="n">
-        <v>52.65096</v>
-      </c>
+      <c r="D609"/>
+      <c r="E609"/>
     </row>
     <row r="610">
       <c r="A610" t="s">
@@ -10962,12 +10952,8 @@
       <c r="C610" t="n">
         <v>2006</v>
       </c>
-      <c r="D610" t="n">
-        <v>56.08426</v>
-      </c>
-      <c r="E610" t="n">
-        <v>56.08426</v>
-      </c>
+      <c r="D610"/>
+      <c r="E610"/>
     </row>
     <row r="611">
       <c r="A611" t="s">
@@ -10979,9 +10965,7 @@
       <c r="C611" t="n">
         <v>2007</v>
       </c>
-      <c r="D611" t="n">
-        <v>64.02123</v>
-      </c>
+      <c r="D611"/>
       <c r="E611"/>
     </row>
     <row r="612">
@@ -10994,9 +10978,7 @@
       <c r="C612" t="n">
         <v>2008</v>
       </c>
-      <c r="D612" t="n">
-        <v>71.9582</v>
-      </c>
+      <c r="D612"/>
       <c r="E612"/>
     </row>
     <row r="613">
@@ -11009,9 +10991,7 @@
       <c r="C613" t="n">
         <v>2009</v>
       </c>
-      <c r="D613" t="n">
-        <v>79.89517</v>
-      </c>
+      <c r="D613"/>
       <c r="E613"/>
     </row>
     <row r="614">
@@ -11024,12 +11004,8 @@
       <c r="C614" t="n">
         <v>2010</v>
       </c>
-      <c r="D614" t="n">
-        <v>87.83214</v>
-      </c>
-      <c r="E614" t="n">
-        <v>87.83214</v>
-      </c>
+      <c r="D614"/>
+      <c r="E614"/>
     </row>
     <row r="615">
       <c r="A615" t="s">
@@ -11042,9 +11018,11 @@
         <v>2011</v>
       </c>
       <c r="D615" t="n">
-        <v>89.00125</v>
-      </c>
-      <c r="E615"/>
+        <v>94.05556</v>
+      </c>
+      <c r="E615" t="n">
+        <v>94.05556</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" t="s">
@@ -11057,10 +11035,10 @@
         <v>2012</v>
       </c>
       <c r="D616" t="n">
-        <v>90.17036</v>
+        <v>91.97587</v>
       </c>
       <c r="E616" t="n">
-        <v>90.17036</v>
+        <v>91.97587</v>
       </c>
     </row>
     <row r="617">
@@ -11086,8 +11064,12 @@
       <c r="C618" t="n">
         <v>2000</v>
       </c>
-      <c r="D618"/>
-      <c r="E618"/>
+      <c r="D618" t="n">
+        <v>58.25738</v>
+      </c>
+      <c r="E618" t="n">
+        <v>58.25738</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" t="s">
@@ -11099,8 +11081,12 @@
       <c r="C619" t="n">
         <v>2001</v>
       </c>
-      <c r="D619"/>
-      <c r="E619"/>
+      <c r="D619" t="n">
+        <v>62.86219</v>
+      </c>
+      <c r="E619" t="n">
+        <v>62.86219</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" t="s">
@@ -11112,8 +11098,12 @@
       <c r="C620" t="n">
         <v>2002</v>
       </c>
-      <c r="D620"/>
-      <c r="E620"/>
+      <c r="D620" t="n">
+        <v>63.35843</v>
+      </c>
+      <c r="E620" t="n">
+        <v>63.35843</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" t="s">
@@ -11125,8 +11115,12 @@
       <c r="C621" t="n">
         <v>2003</v>
       </c>
-      <c r="D621"/>
-      <c r="E621"/>
+      <c r="D621" t="n">
+        <v>60.05406</v>
+      </c>
+      <c r="E621" t="n">
+        <v>60.05406</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" t="s">
@@ -11138,7 +11132,9 @@
       <c r="C622" t="n">
         <v>2004</v>
       </c>
-      <c r="D622"/>
+      <c r="D622" t="n">
+        <v>60.354615</v>
+      </c>
       <c r="E622"/>
     </row>
     <row r="623">
@@ -11151,7 +11147,9 @@
       <c r="C623" t="n">
         <v>2005</v>
       </c>
-      <c r="D623"/>
+      <c r="D623" t="n">
+        <v>60.65517</v>
+      </c>
       <c r="E623"/>
     </row>
     <row r="624">
@@ -11164,7 +11162,9 @@
       <c r="C624" t="n">
         <v>2006</v>
       </c>
-      <c r="D624"/>
+      <c r="D624" t="n">
+        <v>60.955725</v>
+      </c>
       <c r="E624"/>
     </row>
     <row r="625">
@@ -11177,7 +11177,9 @@
       <c r="C625" t="n">
         <v>2007</v>
       </c>
-      <c r="D625"/>
+      <c r="D625" t="n">
+        <v>61.25628</v>
+      </c>
       <c r="E625"/>
     </row>
     <row r="626">
@@ -11190,7 +11192,9 @@
       <c r="C626" t="n">
         <v>2008</v>
       </c>
-      <c r="D626"/>
+      <c r="D626" t="n">
+        <v>61.556835</v>
+      </c>
       <c r="E626"/>
     </row>
     <row r="627">
@@ -11203,8 +11207,12 @@
       <c r="C627" t="n">
         <v>2009</v>
       </c>
-      <c r="D627"/>
-      <c r="E627"/>
+      <c r="D627" t="n">
+        <v>61.85739</v>
+      </c>
+      <c r="E627" t="n">
+        <v>61.85739</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" t="s">
@@ -11229,12 +11237,8 @@
       <c r="C629" t="n">
         <v>2011</v>
       </c>
-      <c r="D629" t="n">
-        <v>94.05556</v>
-      </c>
-      <c r="E629" t="n">
-        <v>94.05556</v>
-      </c>
+      <c r="D629"/>
+      <c r="E629"/>
     </row>
     <row r="630">
       <c r="A630" t="s">
@@ -11246,12 +11250,8 @@
       <c r="C630" t="n">
         <v>2012</v>
       </c>
-      <c r="D630" t="n">
-        <v>91.97587</v>
-      </c>
-      <c r="E630" t="n">
-        <v>91.97587</v>
-      </c>
+      <c r="D630"/>
+      <c r="E630"/>
     </row>
     <row r="631">
       <c r="A631" t="s">
@@ -44712,8 +44712,12 @@
       <c r="C2802" t="n">
         <v>2000</v>
       </c>
-      <c r="D2802"/>
-      <c r="E2802"/>
+      <c r="D2802" t="n">
+        <v>99.9512</v>
+      </c>
+      <c r="E2802" t="n">
+        <v>99.9512</v>
+      </c>
     </row>
     <row r="2803">
       <c r="A2803" t="s">
@@ -44725,8 +44729,12 @@
       <c r="C2803" t="n">
         <v>2001</v>
       </c>
-      <c r="D2803"/>
-      <c r="E2803"/>
+      <c r="D2803" t="n">
+        <v>99.94393</v>
+      </c>
+      <c r="E2803" t="n">
+        <v>99.94393</v>
+      </c>
     </row>
     <row r="2804">
       <c r="A2804" t="s">
@@ -44739,10 +44747,10 @@
         <v>2002</v>
       </c>
       <c r="D2804" t="n">
-        <v>91.89082</v>
+        <v>99.94273</v>
       </c>
       <c r="E2804" t="n">
-        <v>91.89082</v>
+        <v>99.94273</v>
       </c>
     </row>
     <row r="2805">
@@ -44756,10 +44764,10 @@
         <v>2003</v>
       </c>
       <c r="D2805" t="n">
-        <v>88.13285</v>
+        <v>99.92726</v>
       </c>
       <c r="E2805" t="n">
-        <v>88.13285</v>
+        <v>99.92726</v>
       </c>
     </row>
     <row r="2806">
@@ -44773,10 +44781,10 @@
         <v>2004</v>
       </c>
       <c r="D2806" t="n">
-        <v>88.16186</v>
+        <v>98.2001</v>
       </c>
       <c r="E2806" t="n">
-        <v>88.16186</v>
+        <v>98.2001</v>
       </c>
     </row>
     <row r="2807">
@@ -44790,10 +44798,10 @@
         <v>2005</v>
       </c>
       <c r="D2807" t="n">
-        <v>90.07267</v>
+        <v>98.77175</v>
       </c>
       <c r="E2807" t="n">
-        <v>90.07267</v>
+        <v>98.77175</v>
       </c>
     </row>
     <row r="2808">
@@ -44807,10 +44815,10 @@
         <v>2006</v>
       </c>
       <c r="D2808" t="n">
-        <v>89.14837</v>
+        <v>98.53668</v>
       </c>
       <c r="E2808" t="n">
-        <v>89.14837</v>
+        <v>98.53668</v>
       </c>
     </row>
     <row r="2809">
@@ -44824,10 +44832,10 @@
         <v>2007</v>
       </c>
       <c r="D2809" t="n">
-        <v>88.84819</v>
+        <v>97.24107</v>
       </c>
       <c r="E2809" t="n">
-        <v>88.84819</v>
+        <v>97.24107</v>
       </c>
     </row>
     <row r="2810">
@@ -44841,10 +44849,10 @@
         <v>2008</v>
       </c>
       <c r="D2810" t="n">
-        <v>89.03739</v>
+        <v>99.51223</v>
       </c>
       <c r="E2810" t="n">
-        <v>89.03739</v>
+        <v>99.51223</v>
       </c>
     </row>
     <row r="2811">
@@ -44858,10 +44866,10 @@
         <v>2009</v>
       </c>
       <c r="D2811" t="n">
-        <v>90.12964</v>
+        <v>99.53821</v>
       </c>
       <c r="E2811" t="n">
-        <v>90.12964</v>
+        <v>99.53821</v>
       </c>
     </row>
     <row r="2812">
@@ -44875,10 +44883,10 @@
         <v>2010</v>
       </c>
       <c r="D2812" t="n">
-        <v>93.6544</v>
+        <v>99.46062</v>
       </c>
       <c r="E2812" t="n">
-        <v>93.6544</v>
+        <v>99.46062</v>
       </c>
     </row>
     <row r="2813">
@@ -44892,10 +44900,10 @@
         <v>2011</v>
       </c>
       <c r="D2813" t="n">
-        <v>96.95903</v>
+        <v>99.65832</v>
       </c>
       <c r="E2813" t="n">
-        <v>96.95903</v>
+        <v>99.65832</v>
       </c>
     </row>
     <row r="2814">
@@ -44909,10 +44917,10 @@
         <v>2012</v>
       </c>
       <c r="D2814" t="n">
-        <v>97.92538</v>
+        <v>99.81512</v>
       </c>
       <c r="E2814" t="n">
-        <v>97.92538</v>
+        <v>99.81512</v>
       </c>
     </row>
     <row r="2815">
@@ -44938,12 +44946,8 @@
       <c r="C2816" t="n">
         <v>2000</v>
       </c>
-      <c r="D2816" t="n">
-        <v>99.9512</v>
-      </c>
-      <c r="E2816" t="n">
-        <v>99.9512</v>
-      </c>
+      <c r="D2816"/>
+      <c r="E2816"/>
     </row>
     <row r="2817">
       <c r="A2817" t="s">
@@ -44955,12 +44959,8 @@
       <c r="C2817" t="n">
         <v>2001</v>
       </c>
-      <c r="D2817" t="n">
-        <v>99.94393</v>
-      </c>
-      <c r="E2817" t="n">
-        <v>99.94393</v>
-      </c>
+      <c r="D2817"/>
+      <c r="E2817"/>
     </row>
     <row r="2818">
       <c r="A2818" t="s">
@@ -44973,10 +44973,10 @@
         <v>2002</v>
       </c>
       <c r="D2818" t="n">
-        <v>99.94273</v>
+        <v>91.89082</v>
       </c>
       <c r="E2818" t="n">
-        <v>99.94273</v>
+        <v>91.89082</v>
       </c>
     </row>
     <row r="2819">
@@ -44990,10 +44990,10 @@
         <v>2003</v>
       </c>
       <c r="D2819" t="n">
-        <v>99.92726</v>
+        <v>88.13285</v>
       </c>
       <c r="E2819" t="n">
-        <v>99.92726</v>
+        <v>88.13285</v>
       </c>
     </row>
     <row r="2820">
@@ -45007,10 +45007,10 @@
         <v>2004</v>
       </c>
       <c r="D2820" t="n">
-        <v>98.2001</v>
+        <v>88.16186</v>
       </c>
       <c r="E2820" t="n">
-        <v>98.2001</v>
+        <v>88.16186</v>
       </c>
     </row>
     <row r="2821">
@@ -45024,10 +45024,10 @@
         <v>2005</v>
       </c>
       <c r="D2821" t="n">
-        <v>98.77175</v>
+        <v>90.07267</v>
       </c>
       <c r="E2821" t="n">
-        <v>98.77175</v>
+        <v>90.07267</v>
       </c>
     </row>
     <row r="2822">
@@ -45041,10 +45041,10 @@
         <v>2006</v>
       </c>
       <c r="D2822" t="n">
-        <v>98.53668</v>
+        <v>89.14837</v>
       </c>
       <c r="E2822" t="n">
-        <v>98.53668</v>
+        <v>89.14837</v>
       </c>
     </row>
     <row r="2823">
@@ -45058,10 +45058,10 @@
         <v>2007</v>
       </c>
       <c r="D2823" t="n">
-        <v>97.24107</v>
+        <v>88.84819</v>
       </c>
       <c r="E2823" t="n">
-        <v>97.24107</v>
+        <v>88.84819</v>
       </c>
     </row>
     <row r="2824">
@@ -45075,10 +45075,10 @@
         <v>2008</v>
       </c>
       <c r="D2824" t="n">
-        <v>99.51223</v>
+        <v>89.03739</v>
       </c>
       <c r="E2824" t="n">
-        <v>99.51223</v>
+        <v>89.03739</v>
       </c>
     </row>
     <row r="2825">
@@ -45092,10 +45092,10 @@
         <v>2009</v>
       </c>
       <c r="D2825" t="n">
-        <v>99.53821</v>
+        <v>90.12964</v>
       </c>
       <c r="E2825" t="n">
-        <v>99.53821</v>
+        <v>90.12964</v>
       </c>
     </row>
     <row r="2826">
@@ -45109,10 +45109,10 @@
         <v>2010</v>
       </c>
       <c r="D2826" t="n">
-        <v>99.46062</v>
+        <v>93.6544</v>
       </c>
       <c r="E2826" t="n">
-        <v>99.46062</v>
+        <v>93.6544</v>
       </c>
     </row>
     <row r="2827">
@@ -45126,10 +45126,10 @@
         <v>2011</v>
       </c>
       <c r="D2827" t="n">
-        <v>99.65832</v>
+        <v>96.95903</v>
       </c>
       <c r="E2827" t="n">
-        <v>99.65832</v>
+        <v>96.95903</v>
       </c>
     </row>
     <row r="2828">
@@ -45143,10 +45143,10 @@
         <v>2012</v>
       </c>
       <c r="D2828" t="n">
-        <v>99.81512</v>
+        <v>97.92538</v>
       </c>
       <c r="E2828" t="n">
-        <v>99.81512</v>
+        <v>97.92538</v>
       </c>
     </row>
     <row r="2829">
@@ -48518,38 +48518,44 @@
         <v>68</v>
       </c>
       <c r="C33" t="n">
-        <v>58.25738</v>
+        <v>91.96241</v>
       </c>
       <c r="D33" t="n">
-        <v>62.86219</v>
+        <v>93.7592833333</v>
       </c>
       <c r="E33" t="n">
-        <v>63.35843</v>
+        <v>95.5561566667</v>
       </c>
       <c r="F33" t="n">
-        <v>60.05406</v>
+        <v>97.35303</v>
       </c>
       <c r="G33" t="n">
-        <v>60.354615</v>
+        <v>97.66138</v>
       </c>
       <c r="H33" t="n">
-        <v>60.65517</v>
+        <v>97.96973</v>
       </c>
       <c r="I33" t="n">
-        <v>60.955725</v>
+        <v>98.27808</v>
       </c>
       <c r="J33" t="n">
-        <v>61.25628</v>
+        <v>98.31492</v>
       </c>
       <c r="K33" t="n">
-        <v>61.556835</v>
+        <v>98.1952</v>
       </c>
       <c r="L33" t="n">
-        <v>61.85739</v>
-      </c>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
+        <v>98.19431</v>
+      </c>
+      <c r="M33" t="n">
+        <v>98.19342</v>
+      </c>
+      <c r="N33" t="n">
+        <v>98.28255</v>
+      </c>
+      <c r="O33" t="n">
+        <v>98.38292</v>
+      </c>
       <c r="P33"/>
     </row>
     <row r="34">
@@ -48559,44 +48565,28 @@
       <c r="B34" t="s">
         <v>70</v>
       </c>
-      <c r="C34" t="n">
-        <v>91.96241</v>
-      </c>
-      <c r="D34" t="n">
-        <v>93.7592833333</v>
-      </c>
-      <c r="E34" t="n">
-        <v>95.5561566667</v>
-      </c>
-      <c r="F34" t="n">
-        <v>97.35303</v>
-      </c>
-      <c r="G34" t="n">
-        <v>97.66138</v>
-      </c>
-      <c r="H34" t="n">
-        <v>97.96973</v>
-      </c>
-      <c r="I34" t="n">
-        <v>98.27808</v>
-      </c>
-      <c r="J34" t="n">
-        <v>98.31492</v>
-      </c>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
       <c r="K34" t="n">
-        <v>98.1952</v>
+        <v>80.83794</v>
       </c>
       <c r="L34" t="n">
-        <v>98.19431</v>
+        <v>83.53246</v>
       </c>
       <c r="M34" t="n">
-        <v>98.19342</v>
+        <v>86.19718</v>
       </c>
       <c r="N34" t="n">
-        <v>98.28255</v>
+        <v>88.8619</v>
       </c>
       <c r="O34" t="n">
-        <v>98.38292</v>
+        <v>91.52662</v>
       </c>
       <c r="P34"/>
     </row>
@@ -48607,7 +48597,9 @@
       <c r="B35" t="s">
         <v>72</v>
       </c>
-      <c r="C35"/>
+      <c r="C35" t="n">
+        <v>99.92271</v>
+      </c>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
@@ -48615,21 +48607,11 @@
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
-      <c r="K35" t="n">
-        <v>80.83794</v>
-      </c>
-      <c r="L35" t="n">
-        <v>83.53246</v>
-      </c>
-      <c r="M35" t="n">
-        <v>86.19718</v>
-      </c>
-      <c r="N35" t="n">
-        <v>88.8619</v>
-      </c>
-      <c r="O35" t="n">
-        <v>91.52662</v>
-      </c>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
       <c r="P35"/>
     </row>
     <row r="36">
@@ -48640,20 +48622,44 @@
         <v>74</v>
       </c>
       <c r="C36" t="n">
-        <v>99.92271</v>
-      </c>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
+        <v>98.98001</v>
+      </c>
+      <c r="D36" t="n">
+        <v>98.92341</v>
+      </c>
+      <c r="E36" t="n">
+        <v>98.31639</v>
+      </c>
+      <c r="F36" t="n">
+        <v>98.05741</v>
+      </c>
+      <c r="G36" t="n">
+        <v>96.4574</v>
+      </c>
+      <c r="H36" t="n">
+        <v>95.32889</v>
+      </c>
+      <c r="I36" t="n">
+        <v>94.32571</v>
+      </c>
+      <c r="J36" t="n">
+        <v>93.31173</v>
+      </c>
+      <c r="K36" t="n">
+        <v>92.91988</v>
+      </c>
+      <c r="L36" t="n">
+        <v>93.47367</v>
+      </c>
+      <c r="M36" t="n">
+        <v>94.48524</v>
+      </c>
+      <c r="N36" t="n">
+        <v>95.36997</v>
+      </c>
+      <c r="O36" t="n">
+        <v>97.16424</v>
+      </c>
       <c r="P36"/>
     </row>
     <row r="37">
@@ -48663,44 +48669,34 @@
       <c r="B37" t="s">
         <v>76</v>
       </c>
-      <c r="C37" t="n">
-        <v>98.98001</v>
-      </c>
-      <c r="D37" t="n">
-        <v>98.92341</v>
-      </c>
-      <c r="E37" t="n">
-        <v>98.31639</v>
-      </c>
-      <c r="F37" t="n">
-        <v>98.05741</v>
-      </c>
-      <c r="G37" t="n">
-        <v>96.4574</v>
-      </c>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
       <c r="H37" t="n">
-        <v>95.32889</v>
+        <v>49.48069</v>
       </c>
       <c r="I37" t="n">
-        <v>94.32571</v>
+        <v>49.81202</v>
       </c>
       <c r="J37" t="n">
-        <v>93.31173</v>
+        <v>58.44265</v>
       </c>
       <c r="K37" t="n">
-        <v>92.91988</v>
+        <v>67.80253</v>
       </c>
       <c r="L37" t="n">
-        <v>93.47367</v>
+        <v>68.32898</v>
       </c>
       <c r="M37" t="n">
-        <v>94.48524</v>
+        <v>70.77495</v>
       </c>
       <c r="N37" t="n">
-        <v>95.36997</v>
+        <v>68.7282</v>
       </c>
       <c r="O37" t="n">
-        <v>97.16424</v>
+        <v>71.87684</v>
       </c>
       <c r="P37"/>
     </row>
@@ -48711,35 +48707,21 @@
       <c r="B38" t="s">
         <v>78</v>
       </c>
-      <c r="C38"/>
+      <c r="C38" t="n">
+        <v>94.37348</v>
+      </c>
       <c r="D38"/>
       <c r="E38"/>
       <c r="F38"/>
       <c r="G38"/>
-      <c r="H38" t="n">
-        <v>49.48069</v>
-      </c>
-      <c r="I38" t="n">
-        <v>49.81202</v>
-      </c>
-      <c r="J38" t="n">
-        <v>58.44265</v>
-      </c>
-      <c r="K38" t="n">
-        <v>67.80253</v>
-      </c>
-      <c r="L38" t="n">
-        <v>68.32898</v>
-      </c>
-      <c r="M38" t="n">
-        <v>70.77495</v>
-      </c>
-      <c r="N38" t="n">
-        <v>68.7282</v>
-      </c>
-      <c r="O38" t="n">
-        <v>71.87684</v>
-      </c>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
       <c r="P38"/>
     </row>
     <row r="39">
@@ -48750,19 +48732,41 @@
         <v>80</v>
       </c>
       <c r="C39" t="n">
-        <v>94.37348</v>
-      </c>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
+        <v>51.62139</v>
+      </c>
+      <c r="D39" t="n">
+        <v>52.8479</v>
+      </c>
+      <c r="E39" t="n">
+        <v>56.25016</v>
+      </c>
+      <c r="F39" t="n">
+        <v>57.75562</v>
+      </c>
+      <c r="G39" t="n">
+        <v>58.41829</v>
+      </c>
+      <c r="H39" t="n">
+        <v>59.08096</v>
+      </c>
+      <c r="I39" t="n">
+        <v>59.74363</v>
+      </c>
+      <c r="J39" t="n">
+        <v>60.4063</v>
+      </c>
+      <c r="K39" t="n">
+        <v>61.06897</v>
+      </c>
+      <c r="L39" t="n">
+        <v>61.73164</v>
+      </c>
+      <c r="M39" t="n">
+        <v>62.39431</v>
+      </c>
+      <c r="N39" t="n">
+        <v>63.05698</v>
+      </c>
       <c r="O39"/>
       <c r="P39"/>
     </row>
@@ -48773,43 +48777,31 @@
       <c r="B40" t="s">
         <v>82</v>
       </c>
-      <c r="C40" t="n">
-        <v>51.62139</v>
-      </c>
-      <c r="D40" t="n">
-        <v>52.8479</v>
-      </c>
-      <c r="E40" t="n">
-        <v>56.25016</v>
-      </c>
-      <c r="F40" t="n">
-        <v>57.75562</v>
-      </c>
-      <c r="G40" t="n">
-        <v>58.41829</v>
-      </c>
-      <c r="H40" t="n">
-        <v>59.08096</v>
-      </c>
-      <c r="I40" t="n">
-        <v>59.74363</v>
-      </c>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
       <c r="J40" t="n">
-        <v>60.4063</v>
+        <v>94.77564</v>
       </c>
       <c r="K40" t="n">
-        <v>61.06897</v>
+        <v>95.19827</v>
       </c>
       <c r="L40" t="n">
-        <v>61.73164</v>
+        <v>93.28308</v>
       </c>
       <c r="M40" t="n">
-        <v>62.39431</v>
+        <v>94.06249</v>
       </c>
       <c r="N40" t="n">
-        <v>63.05698</v>
-      </c>
-      <c r="O40"/>
+        <v>93.05685</v>
+      </c>
+      <c r="O40" t="n">
+        <v>92.65345</v>
+      </c>
       <c r="P40"/>
     </row>
     <row r="41">
@@ -48826,24 +48818,12 @@
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
-      <c r="J41" t="n">
-        <v>94.77564</v>
-      </c>
-      <c r="K41" t="n">
-        <v>95.19827</v>
-      </c>
-      <c r="L41" t="n">
-        <v>93.28308</v>
-      </c>
-      <c r="M41" t="n">
-        <v>94.06249</v>
-      </c>
-      <c r="N41" t="n">
-        <v>93.05685</v>
-      </c>
-      <c r="O41" t="n">
-        <v>92.65345</v>
-      </c>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
       <c r="P41"/>
     </row>
     <row r="42">
@@ -48853,19 +48833,45 @@
       <c r="B42" t="s">
         <v>86</v>
       </c>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
-      <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42"/>
-      <c r="M42"/>
-      <c r="N42"/>
-      <c r="O42"/>
+      <c r="C42" t="n">
+        <v>93.59526</v>
+      </c>
+      <c r="D42" t="n">
+        <v>91.86605</v>
+      </c>
+      <c r="E42" t="n">
+        <v>92.68469</v>
+      </c>
+      <c r="F42" t="n">
+        <v>92.71176</v>
+      </c>
+      <c r="G42" t="n">
+        <v>92.73883</v>
+      </c>
+      <c r="H42" t="n">
+        <v>92.7659</v>
+      </c>
+      <c r="I42" t="n">
+        <v>91.38509</v>
+      </c>
+      <c r="J42" t="n">
+        <v>90.09421</v>
+      </c>
+      <c r="K42" t="n">
+        <v>89.80885</v>
+      </c>
+      <c r="L42" t="n">
+        <v>89.36882</v>
+      </c>
+      <c r="M42" t="n">
+        <v>87.72414</v>
+      </c>
+      <c r="N42" t="n">
+        <v>86.74964</v>
+      </c>
+      <c r="O42" t="n">
+        <v>83.8614</v>
+      </c>
       <c r="P42"/>
     </row>
     <row r="43">
@@ -48876,44 +48882,34 @@
         <v>88</v>
       </c>
       <c r="C43" t="n">
-        <v>93.59526</v>
+        <v>76.38125</v>
       </c>
       <c r="D43" t="n">
-        <v>91.86605</v>
+        <v>77.3742557143</v>
       </c>
       <c r="E43" t="n">
-        <v>92.68469</v>
+        <v>78.3672614286</v>
       </c>
       <c r="F43" t="n">
-        <v>92.71176</v>
+        <v>79.3602671429</v>
       </c>
       <c r="G43" t="n">
-        <v>92.73883</v>
+        <v>80.3532728571</v>
       </c>
       <c r="H43" t="n">
-        <v>92.7659</v>
+        <v>81.3462785714</v>
       </c>
       <c r="I43" t="n">
-        <v>91.38509</v>
+        <v>82.3392842857</v>
       </c>
       <c r="J43" t="n">
-        <v>90.09421</v>
-      </c>
-      <c r="K43" t="n">
-        <v>89.80885</v>
-      </c>
-      <c r="L43" t="n">
-        <v>89.36882</v>
-      </c>
-      <c r="M43" t="n">
-        <v>87.72414</v>
-      </c>
-      <c r="N43" t="n">
-        <v>86.74964</v>
-      </c>
-      <c r="O43" t="n">
-        <v>83.8614</v>
-      </c>
+        <v>83.33229</v>
+      </c>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
       <c r="P43"/>
     </row>
     <row r="44">
@@ -48923,35 +48919,35 @@
       <c r="B44" t="s">
         <v>90</v>
       </c>
-      <c r="C44" t="n">
-        <v>76.38125</v>
-      </c>
-      <c r="D44" t="n">
-        <v>77.3742557143</v>
-      </c>
-      <c r="E44" t="n">
-        <v>78.3672614286</v>
-      </c>
-      <c r="F44" t="n">
-        <v>79.3602671429</v>
-      </c>
-      <c r="G44" t="n">
-        <v>80.3532728571</v>
-      </c>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
       <c r="H44" t="n">
-        <v>81.3462785714</v>
+        <v>52.65096</v>
       </c>
       <c r="I44" t="n">
-        <v>82.3392842857</v>
+        <v>56.08426</v>
       </c>
       <c r="J44" t="n">
-        <v>83.33229</v>
-      </c>
-      <c r="K44"/>
-      <c r="L44"/>
-      <c r="M44"/>
-      <c r="N44"/>
-      <c r="O44"/>
+        <v>64.02123</v>
+      </c>
+      <c r="K44" t="n">
+        <v>71.9582</v>
+      </c>
+      <c r="L44" t="n">
+        <v>79.89517</v>
+      </c>
+      <c r="M44" t="n">
+        <v>87.83214</v>
+      </c>
+      <c r="N44" t="n">
+        <v>89.00125</v>
+      </c>
+      <c r="O44" t="n">
+        <v>90.17036</v>
+      </c>
       <c r="P44"/>
     </row>
     <row r="45">
@@ -48966,29 +48962,17 @@
       <c r="E45"/>
       <c r="F45"/>
       <c r="G45"/>
-      <c r="H45" t="n">
-        <v>52.65096</v>
-      </c>
-      <c r="I45" t="n">
-        <v>56.08426</v>
-      </c>
-      <c r="J45" t="n">
-        <v>64.02123</v>
-      </c>
-      <c r="K45" t="n">
-        <v>71.9582</v>
-      </c>
-      <c r="L45" t="n">
-        <v>79.89517</v>
-      </c>
-      <c r="M45" t="n">
-        <v>87.83214</v>
-      </c>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
       <c r="N45" t="n">
-        <v>89.00125</v>
+        <v>94.05556</v>
       </c>
       <c r="O45" t="n">
-        <v>90.17036</v>
+        <v>91.97587</v>
       </c>
       <c r="P45"/>
     </row>
@@ -48999,23 +48983,39 @@
       <c r="B46" t="s">
         <v>94</v>
       </c>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
+      <c r="C46" t="n">
+        <v>58.25738</v>
+      </c>
+      <c r="D46" t="n">
+        <v>62.86219</v>
+      </c>
+      <c r="E46" t="n">
+        <v>63.35843</v>
+      </c>
+      <c r="F46" t="n">
+        <v>60.05406</v>
+      </c>
+      <c r="G46" t="n">
+        <v>60.354615</v>
+      </c>
+      <c r="H46" t="n">
+        <v>60.65517</v>
+      </c>
+      <c r="I46" t="n">
+        <v>60.955725</v>
+      </c>
+      <c r="J46" t="n">
+        <v>61.25628</v>
+      </c>
+      <c r="K46" t="n">
+        <v>61.556835</v>
+      </c>
+      <c r="L46" t="n">
+        <v>61.85739</v>
+      </c>
       <c r="M46"/>
-      <c r="N46" t="n">
-        <v>94.05556</v>
-      </c>
-      <c r="O46" t="n">
-        <v>91.97587</v>
-      </c>
+      <c r="N46"/>
+      <c r="O46"/>
       <c r="P46"/>
     </row>
     <row r="47">
@@ -55191,40 +55191,44 @@
       <c r="B202" t="s">
         <v>406</v>
       </c>
-      <c r="C202"/>
-      <c r="D202"/>
+      <c r="C202" t="n">
+        <v>99.9512</v>
+      </c>
+      <c r="D202" t="n">
+        <v>99.94393</v>
+      </c>
       <c r="E202" t="n">
-        <v>91.89082</v>
+        <v>99.94273</v>
       </c>
       <c r="F202" t="n">
-        <v>88.13285</v>
+        <v>99.92726</v>
       </c>
       <c r="G202" t="n">
-        <v>88.16186</v>
+        <v>98.2001</v>
       </c>
       <c r="H202" t="n">
-        <v>90.07267</v>
+        <v>98.77175</v>
       </c>
       <c r="I202" t="n">
-        <v>89.14837</v>
+        <v>98.53668</v>
       </c>
       <c r="J202" t="n">
-        <v>88.84819</v>
+        <v>97.24107</v>
       </c>
       <c r="K202" t="n">
-        <v>89.03739</v>
+        <v>99.51223</v>
       </c>
       <c r="L202" t="n">
-        <v>90.12964</v>
+        <v>99.53821</v>
       </c>
       <c r="M202" t="n">
-        <v>93.6544</v>
+        <v>99.46062</v>
       </c>
       <c r="N202" t="n">
-        <v>96.95903</v>
+        <v>99.65832</v>
       </c>
       <c r="O202" t="n">
-        <v>97.92538</v>
+        <v>99.81512</v>
       </c>
       <c r="P202"/>
     </row>
@@ -55235,44 +55239,40 @@
       <c r="B203" t="s">
         <v>408</v>
       </c>
-      <c r="C203" t="n">
-        <v>99.9512</v>
-      </c>
-      <c r="D203" t="n">
-        <v>99.94393</v>
-      </c>
+      <c r="C203"/>
+      <c r="D203"/>
       <c r="E203" t="n">
-        <v>99.94273</v>
+        <v>91.89082</v>
       </c>
       <c r="F203" t="n">
-        <v>99.92726</v>
+        <v>88.13285</v>
       </c>
       <c r="G203" t="n">
-        <v>98.2001</v>
+        <v>88.16186</v>
       </c>
       <c r="H203" t="n">
-        <v>98.77175</v>
+        <v>90.07267</v>
       </c>
       <c r="I203" t="n">
-        <v>98.53668</v>
+        <v>89.14837</v>
       </c>
       <c r="J203" t="n">
-        <v>97.24107</v>
+        <v>88.84819</v>
       </c>
       <c r="K203" t="n">
-        <v>99.51223</v>
+        <v>89.03739</v>
       </c>
       <c r="L203" t="n">
-        <v>99.53821</v>
+        <v>90.12964</v>
       </c>
       <c r="M203" t="n">
-        <v>99.46062</v>
+        <v>93.6544</v>
       </c>
       <c r="N203" t="n">
-        <v>99.65832</v>
+        <v>96.95903</v>
       </c>
       <c r="O203" t="n">
-        <v>99.81512</v>
+        <v>97.92538</v>
       </c>
       <c r="P203"/>
     </row>
@@ -56850,28 +56850,34 @@
         <v>68</v>
       </c>
       <c r="C33" t="n">
-        <v>58.25738</v>
-      </c>
-      <c r="D33" t="n">
-        <v>62.86219</v>
-      </c>
-      <c r="E33" t="n">
-        <v>63.35843</v>
-      </c>
+        <v>91.96241</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33"/>
       <c r="F33" t="n">
-        <v>60.05406</v>
+        <v>97.35303</v>
       </c>
       <c r="G33"/>
       <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33" t="n">
-        <v>61.85739</v>
-      </c>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
+      <c r="I33" t="n">
+        <v>98.27808</v>
+      </c>
+      <c r="J33" t="n">
+        <v>98.31492</v>
+      </c>
+      <c r="K33" t="n">
+        <v>98.1952</v>
+      </c>
+      <c r="L33"/>
+      <c r="M33" t="n">
+        <v>98.19342</v>
+      </c>
+      <c r="N33" t="n">
+        <v>98.28255</v>
+      </c>
+      <c r="O33" t="n">
+        <v>98.38292</v>
+      </c>
       <c r="P33"/>
     </row>
     <row r="34">
@@ -56881,34 +56887,24 @@
       <c r="B34" t="s">
         <v>70</v>
       </c>
-      <c r="C34" t="n">
-        <v>91.96241</v>
-      </c>
+      <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
-      <c r="F34" t="n">
-        <v>97.35303</v>
-      </c>
+      <c r="F34"/>
       <c r="G34"/>
       <c r="H34"/>
-      <c r="I34" t="n">
-        <v>98.27808</v>
-      </c>
-      <c r="J34" t="n">
-        <v>98.31492</v>
-      </c>
+      <c r="I34"/>
+      <c r="J34"/>
       <c r="K34" t="n">
-        <v>98.1952</v>
-      </c>
-      <c r="L34"/>
-      <c r="M34" t="n">
-        <v>98.19342</v>
-      </c>
-      <c r="N34" t="n">
-        <v>98.28255</v>
-      </c>
+        <v>80.83794</v>
+      </c>
+      <c r="L34" t="n">
+        <v>83.53246</v>
+      </c>
+      <c r="M34"/>
+      <c r="N34"/>
       <c r="O34" t="n">
-        <v>98.38292</v>
+        <v>91.52662</v>
       </c>
       <c r="P34"/>
     </row>
@@ -56919,7 +56915,9 @@
       <c r="B35" t="s">
         <v>72</v>
       </c>
-      <c r="C35"/>
+      <c r="C35" t="n">
+        <v>99.92271</v>
+      </c>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
@@ -56927,17 +56925,11 @@
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
-      <c r="K35" t="n">
-        <v>80.83794</v>
-      </c>
-      <c r="L35" t="n">
-        <v>83.53246</v>
-      </c>
+      <c r="K35"/>
+      <c r="L35"/>
       <c r="M35"/>
       <c r="N35"/>
-      <c r="O35" t="n">
-        <v>91.52662</v>
-      </c>
+      <c r="O35"/>
       <c r="P35"/>
     </row>
     <row r="36">
@@ -56948,20 +56940,44 @@
         <v>74</v>
       </c>
       <c r="C36" t="n">
-        <v>99.92271</v>
-      </c>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
+        <v>98.98001</v>
+      </c>
+      <c r="D36" t="n">
+        <v>98.92341</v>
+      </c>
+      <c r="E36" t="n">
+        <v>98.31639</v>
+      </c>
+      <c r="F36" t="n">
+        <v>98.05741</v>
+      </c>
+      <c r="G36" t="n">
+        <v>96.4574</v>
+      </c>
+      <c r="H36" t="n">
+        <v>95.32889</v>
+      </c>
+      <c r="I36" t="n">
+        <v>94.32571</v>
+      </c>
+      <c r="J36" t="n">
+        <v>93.31173</v>
+      </c>
+      <c r="K36" t="n">
+        <v>92.91988</v>
+      </c>
+      <c r="L36" t="n">
+        <v>93.47367</v>
+      </c>
+      <c r="M36" t="n">
+        <v>94.48524</v>
+      </c>
+      <c r="N36" t="n">
+        <v>95.36997</v>
+      </c>
+      <c r="O36" t="n">
+        <v>97.16424</v>
+      </c>
       <c r="P36"/>
     </row>
     <row r="37">
@@ -56971,44 +56987,34 @@
       <c r="B37" t="s">
         <v>76</v>
       </c>
-      <c r="C37" t="n">
-        <v>98.98001</v>
-      </c>
-      <c r="D37" t="n">
-        <v>98.92341</v>
-      </c>
-      <c r="E37" t="n">
-        <v>98.31639</v>
-      </c>
-      <c r="F37" t="n">
-        <v>98.05741</v>
-      </c>
-      <c r="G37" t="n">
-        <v>96.4574</v>
-      </c>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
       <c r="H37" t="n">
-        <v>95.32889</v>
+        <v>49.48069</v>
       </c>
       <c r="I37" t="n">
-        <v>94.32571</v>
+        <v>49.81202</v>
       </c>
       <c r="J37" t="n">
-        <v>93.31173</v>
+        <v>58.44265</v>
       </c>
       <c r="K37" t="n">
-        <v>92.91988</v>
+        <v>67.80253</v>
       </c>
       <c r="L37" t="n">
-        <v>93.47367</v>
+        <v>68.32898</v>
       </c>
       <c r="M37" t="n">
-        <v>94.48524</v>
+        <v>70.77495</v>
       </c>
       <c r="N37" t="n">
-        <v>95.36997</v>
+        <v>68.7282</v>
       </c>
       <c r="O37" t="n">
-        <v>97.16424</v>
+        <v>71.87684</v>
       </c>
       <c r="P37"/>
     </row>
@@ -57019,35 +57025,21 @@
       <c r="B38" t="s">
         <v>78</v>
       </c>
-      <c r="C38"/>
+      <c r="C38" t="n">
+        <v>94.37348</v>
+      </c>
       <c r="D38"/>
       <c r="E38"/>
       <c r="F38"/>
       <c r="G38"/>
-      <c r="H38" t="n">
-        <v>49.48069</v>
-      </c>
-      <c r="I38" t="n">
-        <v>49.81202</v>
-      </c>
-      <c r="J38" t="n">
-        <v>58.44265</v>
-      </c>
-      <c r="K38" t="n">
-        <v>67.80253</v>
-      </c>
-      <c r="L38" t="n">
-        <v>68.32898</v>
-      </c>
-      <c r="M38" t="n">
-        <v>70.77495</v>
-      </c>
-      <c r="N38" t="n">
-        <v>68.7282</v>
-      </c>
-      <c r="O38" t="n">
-        <v>71.87684</v>
-      </c>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
       <c r="P38"/>
     </row>
     <row r="39">
@@ -57058,11 +57050,17 @@
         <v>80</v>
       </c>
       <c r="C39" t="n">
-        <v>94.37348</v>
-      </c>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
+        <v>51.62139</v>
+      </c>
+      <c r="D39" t="n">
+        <v>52.8479</v>
+      </c>
+      <c r="E39" t="n">
+        <v>56.25016</v>
+      </c>
+      <c r="F39" t="n">
+        <v>57.75562</v>
+      </c>
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
@@ -57070,7 +57068,9 @@
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39"/>
-      <c r="N39"/>
+      <c r="N39" t="n">
+        <v>63.05698</v>
+      </c>
       <c r="O39"/>
       <c r="P39"/>
     </row>
@@ -57081,29 +57081,31 @@
       <c r="B40" t="s">
         <v>82</v>
       </c>
-      <c r="C40" t="n">
-        <v>51.62139</v>
-      </c>
-      <c r="D40" t="n">
-        <v>52.8479</v>
-      </c>
-      <c r="E40" t="n">
-        <v>56.25016</v>
-      </c>
-      <c r="F40" t="n">
-        <v>57.75562</v>
-      </c>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
+      <c r="J40" t="n">
+        <v>94.77564</v>
+      </c>
+      <c r="K40" t="n">
+        <v>95.19827</v>
+      </c>
+      <c r="L40" t="n">
+        <v>93.28308</v>
+      </c>
+      <c r="M40" t="n">
+        <v>94.06249</v>
+      </c>
       <c r="N40" t="n">
-        <v>63.05698</v>
-      </c>
-      <c r="O40"/>
+        <v>93.05685</v>
+      </c>
+      <c r="O40" t="n">
+        <v>92.65345</v>
+      </c>
       <c r="P40"/>
     </row>
     <row r="41">
@@ -57120,24 +57122,12 @@
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
-      <c r="J41" t="n">
-        <v>94.77564</v>
-      </c>
-      <c r="K41" t="n">
-        <v>95.19827</v>
-      </c>
-      <c r="L41" t="n">
-        <v>93.28308</v>
-      </c>
-      <c r="M41" t="n">
-        <v>94.06249</v>
-      </c>
-      <c r="N41" t="n">
-        <v>93.05685</v>
-      </c>
-      <c r="O41" t="n">
-        <v>92.65345</v>
-      </c>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
       <c r="P41"/>
     </row>
     <row r="42">
@@ -57147,19 +57137,41 @@
       <c r="B42" t="s">
         <v>86</v>
       </c>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
+      <c r="C42" t="n">
+        <v>93.59526</v>
+      </c>
+      <c r="D42" t="n">
+        <v>91.86605</v>
+      </c>
+      <c r="E42" t="n">
+        <v>92.68469</v>
+      </c>
       <c r="F42"/>
       <c r="G42"/>
-      <c r="H42"/>
-      <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42"/>
-      <c r="M42"/>
-      <c r="N42"/>
-      <c r="O42"/>
+      <c r="H42" t="n">
+        <v>92.7659</v>
+      </c>
+      <c r="I42" t="n">
+        <v>91.38509</v>
+      </c>
+      <c r="J42" t="n">
+        <v>90.09421</v>
+      </c>
+      <c r="K42" t="n">
+        <v>89.80885</v>
+      </c>
+      <c r="L42" t="n">
+        <v>89.36882</v>
+      </c>
+      <c r="M42" t="n">
+        <v>87.72414</v>
+      </c>
+      <c r="N42" t="n">
+        <v>86.74964</v>
+      </c>
+      <c r="O42" t="n">
+        <v>83.8614</v>
+      </c>
       <c r="P42"/>
     </row>
     <row r="43">
@@ -57170,40 +57182,22 @@
         <v>88</v>
       </c>
       <c r="C43" t="n">
-        <v>93.59526</v>
-      </c>
-      <c r="D43" t="n">
-        <v>91.86605</v>
-      </c>
-      <c r="E43" t="n">
-        <v>92.68469</v>
-      </c>
+        <v>76.38125</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43"/>
       <c r="F43"/>
       <c r="G43"/>
-      <c r="H43" t="n">
-        <v>92.7659</v>
-      </c>
-      <c r="I43" t="n">
-        <v>91.38509</v>
-      </c>
+      <c r="H43"/>
+      <c r="I43"/>
       <c r="J43" t="n">
-        <v>90.09421</v>
-      </c>
-      <c r="K43" t="n">
-        <v>89.80885</v>
-      </c>
-      <c r="L43" t="n">
-        <v>89.36882</v>
-      </c>
-      <c r="M43" t="n">
-        <v>87.72414</v>
-      </c>
-      <c r="N43" t="n">
-        <v>86.74964</v>
-      </c>
-      <c r="O43" t="n">
-        <v>83.8614</v>
-      </c>
+        <v>83.33229</v>
+      </c>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
       <c r="P43"/>
     </row>
     <row r="44">
@@ -57213,23 +57207,27 @@
       <c r="B44" t="s">
         <v>90</v>
       </c>
-      <c r="C44" t="n">
-        <v>76.38125</v>
-      </c>
+      <c r="C44"/>
       <c r="D44"/>
       <c r="E44"/>
       <c r="F44"/>
       <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
-      <c r="J44" t="n">
-        <v>83.33229</v>
-      </c>
+      <c r="H44" t="n">
+        <v>52.65096</v>
+      </c>
+      <c r="I44" t="n">
+        <v>56.08426</v>
+      </c>
+      <c r="J44"/>
       <c r="K44"/>
       <c r="L44"/>
-      <c r="M44"/>
+      <c r="M44" t="n">
+        <v>87.83214</v>
+      </c>
       <c r="N44"/>
-      <c r="O44"/>
+      <c r="O44" t="n">
+        <v>90.17036</v>
+      </c>
       <c r="P44"/>
     </row>
     <row r="45">
@@ -57244,21 +57242,17 @@
       <c r="E45"/>
       <c r="F45"/>
       <c r="G45"/>
-      <c r="H45" t="n">
-        <v>52.65096</v>
-      </c>
-      <c r="I45" t="n">
-        <v>56.08426</v>
-      </c>
+      <c r="H45"/>
+      <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45"/>
-      <c r="M45" t="n">
-        <v>87.83214</v>
-      </c>
-      <c r="N45"/>
+      <c r="M45"/>
+      <c r="N45" t="n">
+        <v>94.05556</v>
+      </c>
       <c r="O45" t="n">
-        <v>90.17036</v>
+        <v>91.97587</v>
       </c>
       <c r="P45"/>
     </row>
@@ -57269,23 +57263,29 @@
       <c r="B46" t="s">
         <v>94</v>
       </c>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
+      <c r="C46" t="n">
+        <v>58.25738</v>
+      </c>
+      <c r="D46" t="n">
+        <v>62.86219</v>
+      </c>
+      <c r="E46" t="n">
+        <v>63.35843</v>
+      </c>
+      <c r="F46" t="n">
+        <v>60.05406</v>
+      </c>
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
-      <c r="L46"/>
+      <c r="L46" t="n">
+        <v>61.85739</v>
+      </c>
       <c r="M46"/>
-      <c r="N46" t="n">
-        <v>94.05556</v>
-      </c>
-      <c r="O46" t="n">
-        <v>91.97587</v>
-      </c>
+      <c r="N46"/>
+      <c r="O46"/>
       <c r="P46"/>
     </row>
     <row r="47">
@@ -63175,40 +63175,44 @@
       <c r="B202" t="s">
         <v>406</v>
       </c>
-      <c r="C202"/>
-      <c r="D202"/>
+      <c r="C202" t="n">
+        <v>99.9512</v>
+      </c>
+      <c r="D202" t="n">
+        <v>99.94393</v>
+      </c>
       <c r="E202" t="n">
-        <v>91.89082</v>
+        <v>99.94273</v>
       </c>
       <c r="F202" t="n">
-        <v>88.13285</v>
+        <v>99.92726</v>
       </c>
       <c r="G202" t="n">
-        <v>88.16186</v>
+        <v>98.2001</v>
       </c>
       <c r="H202" t="n">
-        <v>90.07267</v>
+        <v>98.77175</v>
       </c>
       <c r="I202" t="n">
-        <v>89.14837</v>
+        <v>98.53668</v>
       </c>
       <c r="J202" t="n">
-        <v>88.84819</v>
+        <v>97.24107</v>
       </c>
       <c r="K202" t="n">
-        <v>89.03739</v>
+        <v>99.51223</v>
       </c>
       <c r="L202" t="n">
-        <v>90.12964</v>
+        <v>99.53821</v>
       </c>
       <c r="M202" t="n">
-        <v>93.6544</v>
+        <v>99.46062</v>
       </c>
       <c r="N202" t="n">
-        <v>96.95903</v>
+        <v>99.65832</v>
       </c>
       <c r="O202" t="n">
-        <v>97.92538</v>
+        <v>99.81512</v>
       </c>
       <c r="P202"/>
     </row>
@@ -63219,44 +63223,40 @@
       <c r="B203" t="s">
         <v>408</v>
       </c>
-      <c r="C203" t="n">
-        <v>99.9512</v>
-      </c>
-      <c r="D203" t="n">
-        <v>99.94393</v>
-      </c>
+      <c r="C203"/>
+      <c r="D203"/>
       <c r="E203" t="n">
-        <v>99.94273</v>
+        <v>91.89082</v>
       </c>
       <c r="F203" t="n">
-        <v>99.92726</v>
+        <v>88.13285</v>
       </c>
       <c r="G203" t="n">
-        <v>98.2001</v>
+        <v>88.16186</v>
       </c>
       <c r="H203" t="n">
-        <v>98.77175</v>
+        <v>90.07267</v>
       </c>
       <c r="I203" t="n">
-        <v>98.53668</v>
+        <v>89.14837</v>
       </c>
       <c r="J203" t="n">
-        <v>97.24107</v>
+        <v>88.84819</v>
       </c>
       <c r="K203" t="n">
-        <v>99.51223</v>
+        <v>89.03739</v>
       </c>
       <c r="L203" t="n">
-        <v>99.53821</v>
+        <v>90.12964</v>
       </c>
       <c r="M203" t="n">
-        <v>99.46062</v>
+        <v>93.6544</v>
       </c>
       <c r="N203" t="n">
-        <v>99.65832</v>
+        <v>96.95903</v>
       </c>
       <c r="O203" t="n">
-        <v>99.81512</v>
+        <v>97.92538</v>
       </c>
       <c r="P203"/>
     </row>
